--- a/BackTest/2020-01-23 BackTest AOA.xlsx
+++ b/BackTest/2020-01-23 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>1.788</v>
       </c>
       <c r="F2" t="n">
-        <v>999</v>
+        <v>455.9102</v>
       </c>
       <c r="G2" t="n">
-        <v>1.788683333333333</v>
+        <v>1.788533333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.785</v>
+        <v>1.788</v>
       </c>
       <c r="C3" t="n">
-        <v>1.775</v>
+        <v>1.788</v>
       </c>
       <c r="D3" t="n">
-        <v>1.785</v>
+        <v>1.788</v>
       </c>
       <c r="E3" t="n">
-        <v>1.775</v>
+        <v>1.788</v>
       </c>
       <c r="F3" t="n">
-        <v>995593.3370000001</v>
+        <v>999</v>
       </c>
       <c r="G3" t="n">
-        <v>1.788666666666666</v>
+        <v>1.788683333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.787</v>
+        <v>1.785</v>
       </c>
       <c r="C4" t="n">
-        <v>1.787</v>
+        <v>1.775</v>
       </c>
       <c r="D4" t="n">
-        <v>1.787</v>
+        <v>1.785</v>
       </c>
       <c r="E4" t="n">
-        <v>1.787</v>
+        <v>1.775</v>
       </c>
       <c r="F4" t="n">
-        <v>2376.3423</v>
+        <v>995593.3370000001</v>
       </c>
       <c r="G4" t="n">
-        <v>1.788833333333333</v>
+        <v>1.788666666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.777</v>
+        <v>1.787</v>
       </c>
       <c r="C5" t="n">
-        <v>1.775</v>
+        <v>1.787</v>
       </c>
       <c r="D5" t="n">
-        <v>1.777</v>
+        <v>1.787</v>
       </c>
       <c r="E5" t="n">
-        <v>1.775</v>
+        <v>1.787</v>
       </c>
       <c r="F5" t="n">
-        <v>200000</v>
+        <v>2376.3423</v>
       </c>
       <c r="G5" t="n">
-        <v>1.7888</v>
+        <v>1.788833333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.787</v>
+        <v>1.777</v>
       </c>
       <c r="C6" t="n">
-        <v>1.787</v>
+        <v>1.775</v>
       </c>
       <c r="D6" t="n">
-        <v>1.787</v>
+        <v>1.777</v>
       </c>
       <c r="E6" t="n">
-        <v>1.787</v>
+        <v>1.775</v>
       </c>
       <c r="F6" t="n">
-        <v>111639.8427</v>
+        <v>200000</v>
       </c>
       <c r="G6" t="n">
-        <v>1.78895</v>
+        <v>1.7888</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>1.787</v>
       </c>
       <c r="F7" t="n">
-        <v>16787.9128</v>
+        <v>111639.8427</v>
       </c>
       <c r="G7" t="n">
-        <v>1.7891</v>
+        <v>1.78895</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>1.787</v>
       </c>
       <c r="F8" t="n">
-        <v>1759.7212</v>
+        <v>16787.9128</v>
       </c>
       <c r="G8" t="n">
-        <v>1.788916666666666</v>
+        <v>1.7891</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>1.787</v>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>1759.7212</v>
       </c>
       <c r="G9" t="n">
-        <v>1.789066666666666</v>
+        <v>1.788916666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>1.787</v>
       </c>
       <c r="F10" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G10" t="n">
-        <v>1.7892</v>
+        <v>1.789066666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>1.787</v>
       </c>
       <c r="F11" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G11" t="n">
-        <v>1.789333333333333</v>
+        <v>1.7892</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.777</v>
+        <v>1.787</v>
       </c>
       <c r="C12" t="n">
-        <v>1.777</v>
+        <v>1.787</v>
       </c>
       <c r="D12" t="n">
-        <v>1.777</v>
+        <v>1.787</v>
       </c>
       <c r="E12" t="n">
-        <v>1.777</v>
+        <v>1.787</v>
       </c>
       <c r="F12" t="n">
-        <v>1624.7368</v>
+        <v>5000</v>
       </c>
       <c r="G12" t="n">
-        <v>1.789033333333333</v>
+        <v>1.789333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>1.777</v>
       </c>
       <c r="F13" t="n">
-        <v>1100</v>
+        <v>1624.7368</v>
       </c>
       <c r="G13" t="n">
-        <v>1.788983333333333</v>
+        <v>1.789033333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.787</v>
+        <v>1.777</v>
       </c>
       <c r="C14" t="n">
-        <v>1.787</v>
+        <v>1.777</v>
       </c>
       <c r="D14" t="n">
-        <v>1.787</v>
+        <v>1.777</v>
       </c>
       <c r="E14" t="n">
-        <v>1.787</v>
+        <v>1.777</v>
       </c>
       <c r="F14" t="n">
-        <v>1081.0327</v>
+        <v>1100</v>
       </c>
       <c r="G14" t="n">
-        <v>1.789083333333333</v>
+        <v>1.788983333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>1.787</v>
       </c>
       <c r="F15" t="n">
-        <v>48918.9673</v>
+        <v>1081.0327</v>
       </c>
       <c r="G15" t="n">
-        <v>1.789</v>
+        <v>1.789083333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="C16" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="D16" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="E16" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="F16" t="n">
-        <v>800</v>
+        <v>48918.9673</v>
       </c>
       <c r="G16" t="n">
-        <v>1.789083333333333</v>
+        <v>1.789</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="C17" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="D17" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="E17" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="F17" t="n">
-        <v>63526.6966</v>
+        <v>800</v>
       </c>
       <c r="G17" t="n">
-        <v>1.789183333333333</v>
+        <v>1.789083333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>1.787</v>
       </c>
       <c r="F18" t="n">
-        <v>24348.809</v>
+        <v>63526.6966</v>
       </c>
       <c r="G18" t="n">
-        <v>1.789283333333333</v>
+        <v>1.789183333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="C19" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="D19" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="E19" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="F19" t="n">
-        <v>100000</v>
+        <v>24348.809</v>
       </c>
       <c r="G19" t="n">
-        <v>1.7891</v>
+        <v>1.789283333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.787</v>
+        <v>1.786</v>
       </c>
       <c r="C20" t="n">
-        <v>1.787</v>
+        <v>1.786</v>
       </c>
       <c r="D20" t="n">
-        <v>1.787</v>
+        <v>1.786</v>
       </c>
       <c r="E20" t="n">
-        <v>1.787</v>
+        <v>1.786</v>
       </c>
       <c r="F20" t="n">
-        <v>750.0939</v>
+        <v>100000</v>
       </c>
       <c r="G20" t="n">
-        <v>1.788933333333333</v>
+        <v>1.7891</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>1.787</v>
       </c>
       <c r="F21" t="n">
-        <v>1678.791270285395</v>
+        <v>750.0939</v>
       </c>
       <c r="G21" t="n">
-        <v>1.788766666666667</v>
+        <v>1.788933333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>1.787</v>
       </c>
       <c r="F22" t="n">
-        <v>233000</v>
+        <v>1678.791270285395</v>
       </c>
       <c r="G22" t="n">
-        <v>1.788583333333334</v>
+        <v>1.788766666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>1.787</v>
       </c>
       <c r="F23" t="n">
-        <v>600.8017297146055</v>
+        <v>233000</v>
       </c>
       <c r="G23" t="n">
-        <v>1.788350000000001</v>
+        <v>1.788583333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="C24" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="D24" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="E24" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="F24" t="n">
-        <v>828.5890000000001</v>
+        <v>600.8017297146055</v>
       </c>
       <c r="G24" t="n">
-        <v>1.788150000000001</v>
+        <v>1.788350000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="C25" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="D25" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="E25" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="F25" t="n">
-        <v>859.4828</v>
+        <v>828.5890000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>1.7882</v>
+        <v>1.788150000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>1.787</v>
       </c>
       <c r="F26" t="n">
-        <v>60624.58717028539</v>
+        <v>859.4828</v>
       </c>
       <c r="G26" t="n">
-        <v>1.787983333333334</v>
+        <v>1.7882</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="C27" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="D27" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="E27" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="F27" t="n">
-        <v>50000</v>
+        <v>60624.58717028539</v>
       </c>
       <c r="G27" t="n">
-        <v>1.787733333333334</v>
+        <v>1.787983333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>1.785</v>
       </c>
       <c r="F28" t="n">
-        <v>41000</v>
+        <v>50000</v>
       </c>
       <c r="G28" t="n">
-        <v>1.787766666666667</v>
+        <v>1.787733333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.788</v>
+        <v>1.785</v>
       </c>
       <c r="C29" t="n">
-        <v>1.788</v>
+        <v>1.785</v>
       </c>
       <c r="D29" t="n">
-        <v>1.788</v>
+        <v>1.785</v>
       </c>
       <c r="E29" t="n">
-        <v>1.788</v>
+        <v>1.785</v>
       </c>
       <c r="F29" t="n">
-        <v>280</v>
+        <v>41000</v>
       </c>
       <c r="G29" t="n">
-        <v>1.78785</v>
+        <v>1.787766666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>1.788</v>
       </c>
       <c r="F30" t="n">
-        <v>65091.411</v>
+        <v>280</v>
       </c>
       <c r="G30" t="n">
-        <v>1.78765</v>
+        <v>1.78785</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>1.788</v>
       </c>
       <c r="F31" t="n">
-        <v>214973.5942</v>
+        <v>65091.411</v>
       </c>
       <c r="G31" t="n">
-        <v>1.78745</v>
+        <v>1.78765</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>1.788</v>
       </c>
       <c r="F32" t="n">
-        <v>14376.7761</v>
+        <v>214973.5942</v>
       </c>
       <c r="G32" t="n">
-        <v>1.78725</v>
+        <v>1.78745</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="C33" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="D33" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="E33" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="F33" t="n">
-        <v>280</v>
+        <v>14376.7761</v>
       </c>
       <c r="G33" t="n">
-        <v>1.787283333333334</v>
+        <v>1.78725</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>1.787</v>
       </c>
       <c r="F34" t="n">
-        <v>184466.9244</v>
+        <v>280</v>
       </c>
       <c r="G34" t="n">
-        <v>1.787333333333334</v>
+        <v>1.787283333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="C35" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="D35" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="E35" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="F35" t="n">
-        <v>285</v>
+        <v>184466.9244</v>
       </c>
       <c r="G35" t="n">
-        <v>1.787133333333334</v>
+        <v>1.787333333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="C36" t="n">
-        <v>1.781</v>
+        <v>1.788</v>
       </c>
       <c r="D36" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="E36" t="n">
-        <v>1.781</v>
+        <v>1.788</v>
       </c>
       <c r="F36" t="n">
-        <v>108789.2348</v>
+        <v>285</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786816666666667</v>
+        <v>1.787133333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.78</v>
+        <v>1.787</v>
       </c>
       <c r="C37" t="n">
-        <v>1.78</v>
+        <v>1.781</v>
       </c>
       <c r="D37" t="n">
-        <v>1.78</v>
+        <v>1.787</v>
       </c>
       <c r="E37" t="n">
-        <v>1.78</v>
+        <v>1.781</v>
       </c>
       <c r="F37" t="n">
-        <v>312348.2921</v>
+        <v>108789.2348</v>
       </c>
       <c r="G37" t="n">
-        <v>1.786466666666667</v>
+        <v>1.786816666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>1.78</v>
       </c>
       <c r="F38" t="n">
-        <v>8387.006600000001</v>
+        <v>312348.2921</v>
       </c>
       <c r="G38" t="n">
-        <v>1.786133333333334</v>
+        <v>1.786466666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>1.78</v>
       </c>
       <c r="F39" t="n">
-        <v>1161.9669</v>
+        <v>8387.006600000001</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786050000000001</v>
+        <v>1.786133333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.788</v>
+        <v>1.78</v>
       </c>
       <c r="C40" t="n">
-        <v>1.788</v>
+        <v>1.78</v>
       </c>
       <c r="D40" t="n">
-        <v>1.788</v>
+        <v>1.78</v>
       </c>
       <c r="E40" t="n">
-        <v>1.788</v>
+        <v>1.78</v>
       </c>
       <c r="F40" t="n">
-        <v>111856.8232662192</v>
+        <v>1161.9669</v>
       </c>
       <c r="G40" t="n">
-        <v>1.786100000000001</v>
+        <v>1.786050000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.778</v>
+        <v>1.788</v>
       </c>
       <c r="C41" t="n">
-        <v>1.776</v>
+        <v>1.788</v>
       </c>
       <c r="D41" t="n">
-        <v>1.778</v>
+        <v>1.788</v>
       </c>
       <c r="E41" t="n">
-        <v>1.776</v>
+        <v>1.788</v>
       </c>
       <c r="F41" t="n">
-        <v>169758.6359</v>
+        <v>111856.8232662192</v>
       </c>
       <c r="G41" t="n">
-        <v>1.785716666666667</v>
+        <v>1.786100000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.776</v>
+        <v>1.778</v>
       </c>
       <c r="C42" t="n">
         <v>1.776</v>
       </c>
       <c r="D42" t="n">
-        <v>1.776</v>
+        <v>1.778</v>
       </c>
       <c r="E42" t="n">
         <v>1.776</v>
       </c>
       <c r="F42" t="n">
-        <v>1538.4847</v>
+        <v>169758.6359</v>
       </c>
       <c r="G42" t="n">
-        <v>1.785566666666667</v>
+        <v>1.785716666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.775</v>
+        <v>1.776</v>
       </c>
       <c r="C43" t="n">
-        <v>1.772</v>
+        <v>1.776</v>
       </c>
       <c r="D43" t="n">
-        <v>1.775</v>
+        <v>1.776</v>
       </c>
       <c r="E43" t="n">
-        <v>1.772</v>
+        <v>1.776</v>
       </c>
       <c r="F43" t="n">
-        <v>190821.5044</v>
+        <v>1538.4847</v>
       </c>
       <c r="G43" t="n">
-        <v>1.785100000000001</v>
+        <v>1.785566666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.77</v>
+        <v>1.775</v>
       </c>
       <c r="C44" t="n">
-        <v>1.768</v>
+        <v>1.772</v>
       </c>
       <c r="D44" t="n">
-        <v>1.77</v>
+        <v>1.775</v>
       </c>
       <c r="E44" t="n">
-        <v>1.768</v>
+        <v>1.772</v>
       </c>
       <c r="F44" t="n">
-        <v>695375.9417</v>
+        <v>190821.5044</v>
       </c>
       <c r="G44" t="n">
-        <v>1.784816666666668</v>
+        <v>1.785100000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.776</v>
+        <v>1.77</v>
       </c>
       <c r="C45" t="n">
-        <v>1.776</v>
+        <v>1.768</v>
       </c>
       <c r="D45" t="n">
-        <v>1.776</v>
+        <v>1.77</v>
       </c>
       <c r="E45" t="n">
-        <v>1.776</v>
+        <v>1.768</v>
       </c>
       <c r="F45" t="n">
-        <v>322.2518</v>
+        <v>695375.9417</v>
       </c>
       <c r="G45" t="n">
-        <v>1.784450000000001</v>
+        <v>1.784816666666668</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>1.776</v>
       </c>
       <c r="C46" t="n">
-        <v>1.788</v>
+        <v>1.776</v>
       </c>
       <c r="D46" t="n">
-        <v>1.788</v>
+        <v>1.776</v>
       </c>
       <c r="E46" t="n">
         <v>1.776</v>
       </c>
       <c r="F46" t="n">
-        <v>37767.2314</v>
+        <v>322.2518</v>
       </c>
       <c r="G46" t="n">
-        <v>1.784500000000001</v>
+        <v>1.784450000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.787</v>
+        <v>1.776</v>
       </c>
       <c r="C47" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="D47" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="E47" t="n">
-        <v>1.771</v>
+        <v>1.776</v>
       </c>
       <c r="F47" t="n">
-        <v>627149</v>
+        <v>37767.2314</v>
       </c>
       <c r="G47" t="n">
-        <v>1.784533333333334</v>
+        <v>1.784500000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.78</v>
+        <v>1.787</v>
       </c>
       <c r="C48" t="n">
-        <v>1.78</v>
+        <v>1.787</v>
       </c>
       <c r="D48" t="n">
-        <v>1.78</v>
+        <v>1.787</v>
       </c>
       <c r="E48" t="n">
-        <v>1.78</v>
+        <v>1.771</v>
       </c>
       <c r="F48" t="n">
-        <v>1680.6298</v>
+        <v>627149</v>
       </c>
       <c r="G48" t="n">
-        <v>1.784200000000001</v>
+        <v>1.784533333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.771</v>
+        <v>1.78</v>
       </c>
       <c r="C49" t="n">
-        <v>1.771</v>
+        <v>1.78</v>
       </c>
       <c r="D49" t="n">
-        <v>1.771</v>
+        <v>1.78</v>
       </c>
       <c r="E49" t="n">
-        <v>1.771</v>
+        <v>1.78</v>
       </c>
       <c r="F49" t="n">
-        <v>5032.0274</v>
+        <v>1680.6298</v>
       </c>
       <c r="G49" t="n">
-        <v>1.784100000000001</v>
+        <v>1.784200000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>1.771</v>
       </c>
       <c r="F50" t="n">
-        <v>50331.737</v>
+        <v>5032.0274</v>
       </c>
       <c r="G50" t="n">
-        <v>1.783983333333334</v>
+        <v>1.784100000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.77</v>
+        <v>1.771</v>
       </c>
       <c r="C51" t="n">
-        <v>1.77</v>
+        <v>1.771</v>
       </c>
       <c r="D51" t="n">
-        <v>1.77</v>
+        <v>1.771</v>
       </c>
       <c r="E51" t="n">
-        <v>1.77</v>
+        <v>1.771</v>
       </c>
       <c r="F51" t="n">
-        <v>21747.4519</v>
+        <v>50331.737</v>
       </c>
       <c r="G51" t="n">
-        <v>1.783850000000001</v>
+        <v>1.783983333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.769</v>
+        <v>1.77</v>
       </c>
       <c r="C52" t="n">
-        <v>1.768</v>
+        <v>1.77</v>
       </c>
       <c r="D52" t="n">
-        <v>1.769</v>
+        <v>1.77</v>
       </c>
       <c r="E52" t="n">
-        <v>1.768</v>
+        <v>1.77</v>
       </c>
       <c r="F52" t="n">
-        <v>563272.9209</v>
+        <v>21747.4519</v>
       </c>
       <c r="G52" t="n">
-        <v>1.783400000000001</v>
+        <v>1.783850000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,19 +2218,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.78</v>
+        <v>1.769</v>
       </c>
       <c r="C53" t="n">
-        <v>1.78</v>
+        <v>1.768</v>
       </c>
       <c r="D53" t="n">
-        <v>1.78</v>
+        <v>1.769</v>
       </c>
       <c r="E53" t="n">
-        <v>1.78</v>
+        <v>1.768</v>
       </c>
       <c r="F53" t="n">
-        <v>56179.7753</v>
+        <v>563272.9209</v>
       </c>
       <c r="G53" t="n">
         <v>1.783400000000001</v>
@@ -2265,10 +2265,10 @@
         <v>1.78</v>
       </c>
       <c r="F54" t="n">
-        <v>62265.2189</v>
+        <v>56179.7753</v>
       </c>
       <c r="G54" t="n">
-        <v>1.783383333333334</v>
+        <v>1.783400000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>1.78</v>
       </c>
       <c r="F55" t="n">
-        <v>5000</v>
+        <v>62265.2189</v>
       </c>
       <c r="G55" t="n">
-        <v>1.783366666666667</v>
+        <v>1.783383333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="C56" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="D56" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E56" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="F56" t="n">
-        <v>3283.2223</v>
+        <v>5000</v>
       </c>
       <c r="G56" t="n">
-        <v>1.782983333333334</v>
+        <v>1.783366666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="C57" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="D57" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="E57" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="F57" t="n">
-        <v>374.2606</v>
+        <v>3283.2223</v>
       </c>
       <c r="G57" t="n">
-        <v>1.782816666666667</v>
+        <v>1.782983333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="C58" t="n">
-        <v>1.765</v>
+        <v>1.78</v>
       </c>
       <c r="D58" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E58" t="n">
-        <v>1.765</v>
+        <v>1.78</v>
       </c>
       <c r="F58" t="n">
-        <v>707457.1048</v>
+        <v>374.2606</v>
       </c>
       <c r="G58" t="n">
-        <v>1.782416666666667</v>
+        <v>1.782816666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.766</v>
+        <v>1.77</v>
       </c>
       <c r="C59" t="n">
-        <v>1.78</v>
+        <v>1.765</v>
       </c>
       <c r="D59" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="E59" t="n">
         <v>1.765</v>
       </c>
       <c r="F59" t="n">
-        <v>17627.6866</v>
+        <v>707457.1048</v>
       </c>
       <c r="G59" t="n">
-        <v>1.782266666666667</v>
+        <v>1.782416666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.78</v>
+        <v>1.766</v>
       </c>
       <c r="C60" t="n">
         <v>1.78</v>
@@ -2472,13 +2472,13 @@
         <v>1.78</v>
       </c>
       <c r="E60" t="n">
-        <v>1.78</v>
+        <v>1.765</v>
       </c>
       <c r="F60" t="n">
-        <v>657.7238</v>
+        <v>17627.6866</v>
       </c>
       <c r="G60" t="n">
-        <v>1.7822</v>
+        <v>1.782266666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>1.78</v>
       </c>
       <c r="F61" t="n">
-        <v>2000</v>
+        <v>657.7238</v>
       </c>
       <c r="G61" t="n">
-        <v>1.782066666666667</v>
+        <v>1.7822</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,19 +2536,19 @@
         <v>1.78</v>
       </c>
       <c r="C62" t="n">
-        <v>1.779</v>
+        <v>1.78</v>
       </c>
       <c r="D62" t="n">
         <v>1.78</v>
       </c>
       <c r="E62" t="n">
-        <v>1.779</v>
+        <v>1.78</v>
       </c>
       <c r="F62" t="n">
-        <v>9581.344999999999</v>
+        <v>2000</v>
       </c>
       <c r="G62" t="n">
-        <v>1.781916666666667</v>
+        <v>1.782066666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2571,19 +2571,19 @@
         <v>1.78</v>
       </c>
       <c r="C63" t="n">
-        <v>1.78</v>
+        <v>1.779</v>
       </c>
       <c r="D63" t="n">
         <v>1.78</v>
       </c>
       <c r="E63" t="n">
-        <v>1.78</v>
+        <v>1.779</v>
       </c>
       <c r="F63" t="n">
-        <v>824.9411</v>
+        <v>9581.344999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>1.782</v>
+        <v>1.781916666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,28 +2603,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.766</v>
+        <v>1.78</v>
       </c>
       <c r="C64" t="n">
-        <v>1.762</v>
+        <v>1.78</v>
       </c>
       <c r="D64" t="n">
-        <v>1.779</v>
+        <v>1.78</v>
       </c>
       <c r="E64" t="n">
-        <v>1.754</v>
+        <v>1.78</v>
       </c>
       <c r="F64" t="n">
-        <v>3504921.9411</v>
+        <v>824.9411</v>
       </c>
       <c r="G64" t="n">
-        <v>1.781583333333334</v>
+        <v>1.782</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2638,28 +2638,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.761</v>
+        <v>1.766</v>
       </c>
       <c r="C65" t="n">
-        <v>1.756</v>
+        <v>1.762</v>
       </c>
       <c r="D65" t="n">
         <v>1.779</v>
       </c>
       <c r="E65" t="n">
-        <v>1.756</v>
+        <v>1.754</v>
       </c>
       <c r="F65" t="n">
-        <v>897631.025</v>
+        <v>3504921.9411</v>
       </c>
       <c r="G65" t="n">
-        <v>1.781266666666667</v>
+        <v>1.781583333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2676,25 +2676,25 @@
         <v>1.761</v>
       </c>
       <c r="C66" t="n">
-        <v>1.753</v>
+        <v>1.756</v>
       </c>
       <c r="D66" t="n">
-        <v>1.761</v>
+        <v>1.779</v>
       </c>
       <c r="E66" t="n">
-        <v>1.753</v>
+        <v>1.756</v>
       </c>
       <c r="F66" t="n">
-        <v>560001.8391</v>
+        <v>897631.025</v>
       </c>
       <c r="G66" t="n">
-        <v>1.7807</v>
+        <v>1.781266666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.755</v>
+        <v>1.761</v>
       </c>
       <c r="C67" t="n">
-        <v>1.755</v>
+        <v>1.753</v>
       </c>
       <c r="D67" t="n">
-        <v>1.755</v>
+        <v>1.761</v>
       </c>
       <c r="E67" t="n">
-        <v>1.755</v>
+        <v>1.753</v>
       </c>
       <c r="F67" t="n">
-        <v>100000</v>
+        <v>560001.8391</v>
       </c>
       <c r="G67" t="n">
-        <v>1.780166666666666</v>
+        <v>1.7807</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.754</v>
+        <v>1.755</v>
       </c>
       <c r="C68" t="n">
-        <v>1.754</v>
+        <v>1.755</v>
       </c>
       <c r="D68" t="n">
-        <v>1.754</v>
+        <v>1.755</v>
       </c>
       <c r="E68" t="n">
-        <v>1.754</v>
+        <v>1.755</v>
       </c>
       <c r="F68" t="n">
-        <v>30507.6826</v>
+        <v>100000</v>
       </c>
       <c r="G68" t="n">
-        <v>1.779616666666666</v>
+        <v>1.780166666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.767</v>
+        <v>1.754</v>
       </c>
       <c r="C69" t="n">
-        <v>1.767</v>
+        <v>1.754</v>
       </c>
       <c r="D69" t="n">
-        <v>1.767</v>
+        <v>1.754</v>
       </c>
       <c r="E69" t="n">
-        <v>1.767</v>
+        <v>1.754</v>
       </c>
       <c r="F69" t="n">
-        <v>14638.339</v>
+        <v>30507.6826</v>
       </c>
       <c r="G69" t="n">
-        <v>1.779283333333333</v>
+        <v>1.779616666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.754</v>
+        <v>1.767</v>
       </c>
       <c r="C70" t="n">
-        <v>1.753</v>
+        <v>1.767</v>
       </c>
       <c r="D70" t="n">
-        <v>1.754</v>
+        <v>1.767</v>
       </c>
       <c r="E70" t="n">
-        <v>1.753</v>
+        <v>1.767</v>
       </c>
       <c r="F70" t="n">
-        <v>14836.2487</v>
+        <v>14638.339</v>
       </c>
       <c r="G70" t="n">
-        <v>1.778716666666666</v>
+        <v>1.779283333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.765</v>
+        <v>1.754</v>
       </c>
       <c r="C71" t="n">
-        <v>1.765</v>
+        <v>1.753</v>
       </c>
       <c r="D71" t="n">
-        <v>1.765</v>
+        <v>1.754</v>
       </c>
       <c r="E71" t="n">
-        <v>1.765</v>
+        <v>1.753</v>
       </c>
       <c r="F71" t="n">
-        <v>20000</v>
+        <v>14836.2487</v>
       </c>
       <c r="G71" t="n">
-        <v>1.778349999999999</v>
+        <v>1.778716666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,35 +2883,31 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.766</v>
+        <v>1.765</v>
       </c>
       <c r="C72" t="n">
-        <v>1.766</v>
+        <v>1.765</v>
       </c>
       <c r="D72" t="n">
-        <v>1.766</v>
+        <v>1.765</v>
       </c>
       <c r="E72" t="n">
-        <v>1.766</v>
+        <v>1.765</v>
       </c>
       <c r="F72" t="n">
-        <v>166148.4135</v>
+        <v>20000</v>
       </c>
       <c r="G72" t="n">
-        <v>1.778166666666666</v>
+        <v>1.778349999999999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1.765</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
@@ -2922,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.778</v>
+        <v>1.766</v>
       </c>
       <c r="C73" t="n">
-        <v>1.779</v>
+        <v>1.766</v>
       </c>
       <c r="D73" t="n">
-        <v>1.779</v>
+        <v>1.766</v>
       </c>
       <c r="E73" t="n">
-        <v>1.778</v>
+        <v>1.766</v>
       </c>
       <c r="F73" t="n">
-        <v>6219.0602</v>
+        <v>166148.4135</v>
       </c>
       <c r="G73" t="n">
-        <v>1.778199999999999</v>
+        <v>1.778166666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2946,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2966,2126 +2956,1826 @@
         <v>1.778</v>
       </c>
       <c r="C74" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="E74" t="n">
         <v>1.778</v>
       </c>
-      <c r="D74" t="n">
+      <c r="F74" t="n">
+        <v>6219.0602</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.778199999999999</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
         <v>1.778</v>
       </c>
-      <c r="E74" t="n">
+      <c r="C75" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E75" t="n">
         <v>1.754</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F75" t="n">
         <v>3110020</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G75" t="n">
         <v>1.778049999999999</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1178097</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.777499999999999</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C77" t="n">
         <v>1.765</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="D77" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1220514.3919</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.777116666666666</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1419893.197871293</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.777116666666666</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2510716</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.777099999999999</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1089259</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.776699999999999</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="F81" t="n">
+        <v>298945.8743</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.776683333333333</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="F82" t="n">
+        <v>203750.709</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.776249999999999</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="F83" t="n">
+        <v>444665.1009</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.776233333333332</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="F84" t="n">
+        <v>281461</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.776199999999999</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3454112</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.775799999999999</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1792558.854</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.775766666666665</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2149943</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.775349999999999</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="F88" t="n">
+        <v>907.146</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.775366666666665</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1508178</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.774983333333332</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1629902</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.774533333333332</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="F91" t="n">
+        <v>787010</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.774483333333332</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="F92" t="n">
+        <v>720392</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.774399999999999</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3258482.099</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.774033333333332</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="F94" t="n">
+        <v>20259.3245</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.773649999999999</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F95" t="n">
+        <v>447.6516</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.773533333333332</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="F96" t="n">
+        <v>86162.4457</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.773099999999999</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3364999</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1.772766666666665</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="F98" t="n">
+        <v>949788</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.772449999999999</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F99" t="n">
+        <v>808.5718000000001</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.772449999999999</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F100" t="n">
+        <v>61328.5507</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1.772116666666665</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="F101" t="n">
+        <v>640967.1614</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1.771966666666665</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1355670</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.771849999999999</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F103" t="n">
+        <v>816153.4941</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.771449999999999</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F104" t="n">
+        <v>95137.08839999999</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.771116666666665</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1663493.7673</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.770833333333332</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F106" t="n">
+        <v>438648.2354</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.770399999999999</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2227742.4179</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1.770066666666665</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1275796.9329</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.769433333333332</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1307155.6887</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.768949999999999</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F110" t="n">
+        <v>400.5334</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.768916666666665</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F111" t="n">
+        <v>67328.9659</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.768566666666665</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F112" t="n">
+        <v>83982.8034</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.768533333333332</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F113" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.768249999999999</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F114" t="n">
+        <v>121302.4666</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.767783333333332</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F115" t="n">
+        <v>18792.7936</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.767299999999999</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F116" t="n">
+        <v>11207.1469</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.766799999999999</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2963788</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.766949999999999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1189875.2507</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.766899999999999</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="F119" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.767066666666665</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.766899999999999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="F121" t="n">
+        <v>261946.1688</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1.766566666666666</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F122" t="n">
+        <v>20913.6097</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.766083333333332</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F123" t="n">
+        <v>471.3231</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.765916666666666</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10456.8048</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.765433333333333</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F125" t="n">
+        <v>712064.4024</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.765566666666666</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="L125" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1178097</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1.777499999999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1220514.3919</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1.777116666666666</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1419893.197871293</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1.777116666666666</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="F78" t="n">
-        <v>2510716</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1.777099999999999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1089259</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1.776699999999999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="F80" t="n">
-        <v>298945.8743</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1.776683333333333</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="F81" t="n">
-        <v>203750.709</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1.776249999999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="F82" t="n">
-        <v>444665.1009</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1.776233333333332</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="F83" t="n">
-        <v>281461</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1.776199999999999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="F84" t="n">
-        <v>3454112</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1.775799999999999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1.758</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1792558.854</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1.775766666666665</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="F86" t="n">
-        <v>2149943</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1.775349999999999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="F87" t="n">
-        <v>907.146</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1.775366666666665</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="E88" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1508178</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1.774983333333332</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1629902</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1.774533333333332</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="F90" t="n">
-        <v>787010</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1.774483333333332</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1.766</v>
-      </c>
-      <c r="F91" t="n">
-        <v>720392</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1.774399999999999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1.766</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="F92" t="n">
-        <v>3258482.099</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1.774033333333332</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="F93" t="n">
-        <v>20259.3245</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1.773649999999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="F94" t="n">
-        <v>447.6516</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1.773533333333332</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="F95" t="n">
-        <v>86162.4457</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1.773099999999999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3364999</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1.772766666666665</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="E97" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="F97" t="n">
-        <v>949788</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1.772449999999999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E98" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="F98" t="n">
-        <v>808.5718000000001</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1.772449999999999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="E99" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="F99" t="n">
-        <v>61328.5507</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1.772116666666665</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1.753</v>
-      </c>
-      <c r="F100" t="n">
-        <v>640967.1614</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1.771966666666665</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="E101" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1355670</v>
-      </c>
-      <c r="G101" t="n">
-        <v>1.771849999999999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="F102" t="n">
-        <v>816153.4941</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1.771449999999999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="F103" t="n">
-        <v>95137.08839999999</v>
-      </c>
-      <c r="G103" t="n">
-        <v>1.771116666666665</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1.766</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1663493.7673</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1.770833333333332</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="D105" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F105" t="n">
-        <v>438648.2354</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1.770399999999999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="D106" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="E106" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="F106" t="n">
-        <v>2227742.4179</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1.770066666666665</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="D107" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E107" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1275796.9329</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1.769433333333332</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E108" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1307155.6887</v>
-      </c>
-      <c r="G108" t="n">
-        <v>1.768949999999999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="F109" t="n">
-        <v>400.5334</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1.768916666666665</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F110" t="n">
-        <v>67328.9659</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1.768566666666665</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="D111" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="F111" t="n">
-        <v>83982.8034</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1.768533333333332</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="F112" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1.768249999999999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="F113" t="n">
-        <v>121302.4666</v>
-      </c>
-      <c r="G113" t="n">
-        <v>1.767783333333332</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="F114" t="n">
-        <v>18792.7936</v>
-      </c>
-      <c r="G114" t="n">
-        <v>1.767299999999999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F115" t="n">
-        <v>11207.1469</v>
-      </c>
-      <c r="G115" t="n">
-        <v>1.766799999999999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2963788</v>
-      </c>
-      <c r="G116" t="n">
-        <v>1.766949999999999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="E117" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1189875.2507</v>
-      </c>
-      <c r="G117" t="n">
-        <v>1.766899999999999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="F118" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1.767066666666665</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="F119" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1.766899999999999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="E120" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="F120" t="n">
-        <v>261946.1688</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1.766566666666666</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="F121" t="n">
-        <v>20913.6097</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1.766083333333332</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="E122" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="F122" t="n">
-        <v>471.3231</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1.765916666666666</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="E123" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="F123" t="n">
-        <v>10456.8048</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1.765433333333333</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F124" t="n">
-        <v>712064.4024</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1.765566666666666</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E125" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="F125" t="n">
-        <v>265217</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1.765799999999999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5095,32 +4785,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="C126" t="n">
-        <v>1.751</v>
+        <v>1.77</v>
       </c>
       <c r="D126" t="n">
         <v>1.77</v>
       </c>
       <c r="E126" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="F126" t="n">
-        <v>2762679</v>
+        <v>265217</v>
       </c>
       <c r="G126" t="n">
-        <v>1.765766666666666</v>
+        <v>1.765799999999999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1.77</v>
+      </c>
       <c r="K126" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5136,22 +4828,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="C127" t="n">
-        <v>1.77</v>
+        <v>1.751</v>
       </c>
       <c r="D127" t="n">
         <v>1.77</v>
       </c>
       <c r="E127" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="F127" t="n">
-        <v>472.6883</v>
+        <v>2762679</v>
       </c>
       <c r="G127" t="n">
-        <v>1.766016666666666</v>
+        <v>1.765766666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5161,7 +4853,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5177,22 +4869,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.751</v>
+        <v>1.77</v>
       </c>
       <c r="C128" t="n">
-        <v>1.751</v>
+        <v>1.77</v>
       </c>
       <c r="D128" t="n">
-        <v>1.751</v>
+        <v>1.77</v>
       </c>
       <c r="E128" t="n">
-        <v>1.751</v>
+        <v>1.77</v>
       </c>
       <c r="F128" t="n">
-        <v>1195.9012</v>
+        <v>472.6883</v>
       </c>
       <c r="G128" t="n">
-        <v>1.765966666666666</v>
+        <v>1.766016666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5202,7 +4894,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5218,22 +4910,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.768</v>
+        <v>1.751</v>
       </c>
       <c r="C129" t="n">
-        <v>1.768</v>
+        <v>1.751</v>
       </c>
       <c r="D129" t="n">
-        <v>1.768</v>
+        <v>1.751</v>
       </c>
       <c r="E129" t="n">
-        <v>1.752</v>
+        <v>1.751</v>
       </c>
       <c r="F129" t="n">
-        <v>1063580</v>
+        <v>1195.9012</v>
       </c>
       <c r="G129" t="n">
-        <v>1.765983333333332</v>
+        <v>1.765966666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5243,7 +4935,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5259,10 +4951,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.752</v>
+        <v>1.768</v>
       </c>
       <c r="C130" t="n">
-        <v>1.752</v>
+        <v>1.768</v>
       </c>
       <c r="D130" t="n">
         <v>1.768</v>
@@ -5271,10 +4963,10 @@
         <v>1.752</v>
       </c>
       <c r="F130" t="n">
-        <v>2695466</v>
+        <v>1063580</v>
       </c>
       <c r="G130" t="n">
-        <v>1.765966666666666</v>
+        <v>1.765983333333332</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5284,7 +4976,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5300,22 +4992,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.768</v>
+        <v>1.752</v>
       </c>
       <c r="C131" t="n">
-        <v>1.768</v>
+        <v>1.752</v>
       </c>
       <c r="D131" t="n">
         <v>1.768</v>
       </c>
       <c r="E131" t="n">
-        <v>1.768</v>
+        <v>1.752</v>
       </c>
       <c r="F131" t="n">
-        <v>1063.739</v>
+        <v>2695466</v>
       </c>
       <c r="G131" t="n">
-        <v>1.766016666666666</v>
+        <v>1.765966666666666</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5325,7 +5017,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5341,22 +5033,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.752</v>
+        <v>1.768</v>
       </c>
       <c r="C132" t="n">
-        <v>1.752</v>
+        <v>1.768</v>
       </c>
       <c r="D132" t="n">
-        <v>1.752</v>
+        <v>1.768</v>
       </c>
       <c r="E132" t="n">
-        <v>1.752</v>
+        <v>1.768</v>
       </c>
       <c r="F132" t="n">
-        <v>11531.3825</v>
+        <v>1063.739</v>
       </c>
       <c r="G132" t="n">
-        <v>1.765783333333332</v>
+        <v>1.766016666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5366,7 +5058,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5382,22 +5074,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.768</v>
+        <v>1.752</v>
       </c>
       <c r="C133" t="n">
-        <v>1.768</v>
+        <v>1.752</v>
       </c>
       <c r="D133" t="n">
-        <v>1.768</v>
+        <v>1.752</v>
       </c>
       <c r="E133" t="n">
-        <v>1.768</v>
+        <v>1.752</v>
       </c>
       <c r="F133" t="n">
-        <v>1339.332</v>
+        <v>11531.3825</v>
       </c>
       <c r="G133" t="n">
-        <v>1.765599999999999</v>
+        <v>1.765783333333332</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5407,7 +5099,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5423,22 +5115,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.753</v>
+        <v>1.768</v>
       </c>
       <c r="C134" t="n">
-        <v>1.752</v>
+        <v>1.768</v>
       </c>
       <c r="D134" t="n">
-        <v>1.753</v>
+        <v>1.768</v>
       </c>
       <c r="E134" t="n">
-        <v>1.752</v>
+        <v>1.768</v>
       </c>
       <c r="F134" t="n">
-        <v>247219.0026</v>
+        <v>1339.332</v>
       </c>
       <c r="G134" t="n">
-        <v>1.765166666666665</v>
+        <v>1.765599999999999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5448,7 +5140,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5464,22 +5156,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.768</v>
+        <v>1.753</v>
       </c>
       <c r="C135" t="n">
-        <v>1.768</v>
+        <v>1.752</v>
       </c>
       <c r="D135" t="n">
-        <v>1.768</v>
+        <v>1.753</v>
       </c>
       <c r="E135" t="n">
-        <v>1.768</v>
+        <v>1.752</v>
       </c>
       <c r="F135" t="n">
-        <v>738.5771</v>
+        <v>247219.0026</v>
       </c>
       <c r="G135" t="n">
-        <v>1.765399999999999</v>
+        <v>1.765166666666665</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5489,7 +5181,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5505,22 +5197,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.767</v>
+        <v>1.768</v>
       </c>
       <c r="C136" t="n">
-        <v>1.752</v>
+        <v>1.768</v>
       </c>
       <c r="D136" t="n">
-        <v>1.767</v>
+        <v>1.768</v>
       </c>
       <c r="E136" t="n">
-        <v>1.752</v>
+        <v>1.768</v>
       </c>
       <c r="F136" t="n">
-        <v>3572727</v>
+        <v>738.5771</v>
       </c>
       <c r="G136" t="n">
-        <v>1.765183333333332</v>
+        <v>1.765399999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5530,7 +5222,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5546,22 +5238,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.77</v>
+        <v>1.767</v>
       </c>
       <c r="C137" t="n">
-        <v>1.771</v>
+        <v>1.752</v>
       </c>
       <c r="D137" t="n">
-        <v>1.771</v>
+        <v>1.767</v>
       </c>
       <c r="E137" t="n">
         <v>1.752</v>
       </c>
       <c r="F137" t="n">
-        <v>643932.7199</v>
+        <v>3572727</v>
       </c>
       <c r="G137" t="n">
-        <v>1.764916666666665</v>
+        <v>1.765183333333332</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5571,7 +5263,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5587,22 +5279,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="E138" t="n">
         <v>1.752</v>
       </c>
-      <c r="C138" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1.751</v>
-      </c>
       <c r="F138" t="n">
-        <v>121100.4144</v>
+        <v>643932.7199</v>
       </c>
       <c r="G138" t="n">
-        <v>1.764333333333332</v>
+        <v>1.764916666666665</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5612,7 +5304,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5628,22 +5320,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.769</v>
+        <v>1.752</v>
       </c>
       <c r="C139" t="n">
-        <v>1.769</v>
+        <v>1.751</v>
       </c>
       <c r="D139" t="n">
-        <v>1.769</v>
+        <v>1.752</v>
       </c>
       <c r="E139" t="n">
-        <v>1.769</v>
+        <v>1.751</v>
       </c>
       <c r="F139" t="n">
-        <v>597.7971</v>
+        <v>121100.4144</v>
       </c>
       <c r="G139" t="n">
-        <v>1.764449999999999</v>
+        <v>1.764333333333332</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5653,7 +5345,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5669,22 +5361,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="C140" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="D140" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="E140" t="n">
-        <v>1.752</v>
+        <v>1.769</v>
       </c>
       <c r="F140" t="n">
-        <v>3077094</v>
+        <v>597.7971</v>
       </c>
       <c r="G140" t="n">
-        <v>1.764149999999999</v>
+        <v>1.764449999999999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5694,7 +5386,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5710,22 +5402,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E141" t="n">
         <v>1.752</v>
       </c>
-      <c r="C141" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1.751</v>
-      </c>
       <c r="F141" t="n">
-        <v>717782.7872</v>
+        <v>3077094</v>
       </c>
       <c r="G141" t="n">
-        <v>1.763983333333332</v>
+        <v>1.764149999999999</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5735,7 +5427,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5751,22 +5443,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.75</v>
+        <v>1.752</v>
       </c>
       <c r="C142" t="n">
-        <v>1.748</v>
+        <v>1.751</v>
       </c>
       <c r="D142" t="n">
-        <v>1.75</v>
+        <v>1.752</v>
       </c>
       <c r="E142" t="n">
-        <v>1.748</v>
+        <v>1.751</v>
       </c>
       <c r="F142" t="n">
-        <v>222628.2495</v>
+        <v>717782.7872</v>
       </c>
       <c r="G142" t="n">
-        <v>1.763349999999999</v>
+        <v>1.763983333333332</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5776,7 +5468,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5792,22 +5484,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.748</v>
+        <v>1.75</v>
       </c>
       <c r="C143" t="n">
         <v>1.748</v>
       </c>
       <c r="D143" t="n">
-        <v>1.748</v>
+        <v>1.75</v>
       </c>
       <c r="E143" t="n">
         <v>1.748</v>
       </c>
       <c r="F143" t="n">
-        <v>287</v>
+        <v>222628.2495</v>
       </c>
       <c r="G143" t="n">
-        <v>1.762733333333332</v>
+        <v>1.763349999999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5817,7 +5509,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5848,25 +5540,25 @@
         <v>287</v>
       </c>
       <c r="G144" t="n">
-        <v>1.762466666666666</v>
+        <v>1.762733333333332</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>1.765</v>
+        <v>1.769</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>1</v>
+        <v>0.983128886376484</v>
       </c>
     </row>
     <row r="145">
@@ -5889,7 +5581,7 @@
         <v>287</v>
       </c>
       <c r="G145" t="n">
-        <v>1.761849999999999</v>
+        <v>1.762466666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5898,14 +5590,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5915,22 +5601,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.747</v>
+        <v>1.748</v>
       </c>
       <c r="C146" t="n">
-        <v>1.747</v>
+        <v>1.748</v>
       </c>
       <c r="D146" t="n">
-        <v>1.747</v>
+        <v>1.748</v>
       </c>
       <c r="E146" t="n">
-        <v>1.747</v>
+        <v>1.748</v>
       </c>
       <c r="F146" t="n">
         <v>287</v>
       </c>
       <c r="G146" t="n">
-        <v>1.761599999999999</v>
+        <v>1.761849999999999</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5939,14 +5625,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5956,22 +5636,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.746</v>
+        <v>1.747</v>
       </c>
       <c r="C147" t="n">
-        <v>1.744</v>
+        <v>1.747</v>
       </c>
       <c r="D147" t="n">
-        <v>1.746</v>
+        <v>1.747</v>
       </c>
       <c r="E147" t="n">
-        <v>1.744</v>
+        <v>1.747</v>
       </c>
       <c r="F147" t="n">
-        <v>107072.9986</v>
+        <v>287</v>
       </c>
       <c r="G147" t="n">
-        <v>1.760899999999999</v>
+        <v>1.761599999999999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5980,14 +5660,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5997,22 +5671,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.743</v>
+        <v>1.746</v>
       </c>
       <c r="C148" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="D148" t="n">
-        <v>1.743</v>
+        <v>1.746</v>
       </c>
       <c r="E148" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="F148" t="n">
-        <v>700</v>
+        <v>107072.9986</v>
       </c>
       <c r="G148" t="n">
-        <v>1.760583333333333</v>
+        <v>1.760899999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6021,14 +5695,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6038,22 +5706,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.748</v>
+        <v>1.743</v>
       </c>
       <c r="C149" t="n">
-        <v>1.748</v>
+        <v>1.743</v>
       </c>
       <c r="D149" t="n">
-        <v>1.748</v>
+        <v>1.743</v>
       </c>
       <c r="E149" t="n">
-        <v>1.748</v>
+        <v>1.743</v>
       </c>
       <c r="F149" t="n">
-        <v>1158.2026</v>
+        <v>700</v>
       </c>
       <c r="G149" t="n">
-        <v>1.760366666666666</v>
+        <v>1.760583333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6062,14 +5730,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6079,22 +5741,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.747</v>
+        <v>1.748</v>
       </c>
       <c r="C150" t="n">
-        <v>1.747</v>
+        <v>1.748</v>
       </c>
       <c r="D150" t="n">
-        <v>1.747</v>
+        <v>1.748</v>
       </c>
       <c r="E150" t="n">
-        <v>1.747</v>
+        <v>1.748</v>
       </c>
       <c r="F150" t="n">
-        <v>286.205</v>
+        <v>1158.2026</v>
       </c>
       <c r="G150" t="n">
-        <v>1.759733333333333</v>
+        <v>1.760366666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6103,14 +5765,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6123,19 +5779,19 @@
         <v>1.747</v>
       </c>
       <c r="C151" t="n">
-        <v>1.769</v>
+        <v>1.747</v>
       </c>
       <c r="D151" t="n">
-        <v>1.769</v>
+        <v>1.747</v>
       </c>
       <c r="E151" t="n">
         <v>1.747</v>
       </c>
       <c r="F151" t="n">
-        <v>650955.1742</v>
+        <v>286.205</v>
       </c>
       <c r="G151" t="n">
-        <v>1.759499999999999</v>
+        <v>1.759733333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6144,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6161,22 +5811,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="C152" t="n">
         <v>1.769</v>
       </c>
-      <c r="C152" t="n">
-        <v>1.751</v>
-      </c>
       <c r="D152" t="n">
-        <v>1.77</v>
+        <v>1.769</v>
       </c>
       <c r="E152" t="n">
-        <v>1.743</v>
+        <v>1.747</v>
       </c>
       <c r="F152" t="n">
-        <v>2837421.2859</v>
+        <v>650955.1742</v>
       </c>
       <c r="G152" t="n">
-        <v>1.759249999999999</v>
+        <v>1.759499999999999</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6185,14 +5835,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6205,19 +5849,19 @@
         <v>1.769</v>
       </c>
       <c r="C153" t="n">
-        <v>1.769</v>
+        <v>1.751</v>
       </c>
       <c r="D153" t="n">
-        <v>1.769</v>
+        <v>1.77</v>
       </c>
       <c r="E153" t="n">
-        <v>1.769</v>
+        <v>1.743</v>
       </c>
       <c r="F153" t="n">
-        <v>981.2258</v>
+        <v>2837421.2859</v>
       </c>
       <c r="G153" t="n">
-        <v>1.759333333333333</v>
+        <v>1.759249999999999</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6226,14 +5870,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6243,39 +5881,68 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F154" t="n">
+        <v>981.2258</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1.759333333333333</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
         <v>1.766</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C155" t="n">
         <v>1.77</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D155" t="n">
         <v>1.77</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E155" t="n">
         <v>1.766</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F155" t="n">
         <v>6602.5405</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G155" t="n">
         <v>1.759166666666666</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest AOA.xlsx
+++ b/BackTest/2020-01-23 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>455.9102</v>
       </c>
       <c r="G2" t="n">
+        <v>1.785866666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.788533333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>999</v>
       </c>
       <c r="G3" t="n">
+        <v>1.786066666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.788683333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>995593.3370000001</v>
       </c>
       <c r="G4" t="n">
+        <v>1.7844</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.788666666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>2376.3423</v>
       </c>
       <c r="G5" t="n">
+        <v>1.785066666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.788833333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>200000</v>
       </c>
       <c r="G6" t="n">
+        <v>1.784866666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.7888</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>111639.8427</v>
       </c>
       <c r="G7" t="n">
+        <v>1.785466666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.78895</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>16787.9128</v>
       </c>
       <c r="G8" t="n">
+        <v>1.784933333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.7891</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1759.7212</v>
       </c>
       <c r="G9" t="n">
+        <v>1.785399999999999</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.788916666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1000</v>
       </c>
       <c r="G10" t="n">
+        <v>1.785799999999999</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.789066666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>2000</v>
       </c>
       <c r="G11" t="n">
+        <v>1.7862</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.7892</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>5000</v>
       </c>
       <c r="G12" t="n">
+        <v>1.785799999999999</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.789333333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1624.7368</v>
       </c>
       <c r="G13" t="n">
+        <v>1.784933333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.789033333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1100</v>
       </c>
       <c r="G14" t="n">
+        <v>1.784133333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.788983333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1081.0327</v>
       </c>
       <c r="G15" t="n">
+        <v>1.783999999999999</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.789083333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>48918.9673</v>
       </c>
       <c r="G16" t="n">
+        <v>1.784199999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.789</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>800</v>
       </c>
       <c r="G17" t="n">
+        <v>1.784199999999999</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.789083333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>63526.6966</v>
       </c>
       <c r="G18" t="n">
+        <v>1.784133333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.789183333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>24348.809</v>
       </c>
       <c r="G19" t="n">
+        <v>1.784933333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.789283333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>100000</v>
       </c>
       <c r="G20" t="n">
+        <v>1.784866666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.7891</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>750.0939</v>
       </c>
       <c r="G21" t="n">
+        <v>1.785666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.788933333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>1678.791270285395</v>
       </c>
       <c r="G22" t="n">
+        <v>1.785666666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.788766666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>233000</v>
       </c>
       <c r="G23" t="n">
+        <v>1.785666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.788583333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>600.8017297146055</v>
       </c>
       <c r="G24" t="n">
+        <v>1.785666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.788350000000001</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>828.5890000000001</v>
       </c>
       <c r="G25" t="n">
+        <v>1.785733333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.788150000000001</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>859.4828</v>
       </c>
       <c r="G26" t="n">
+        <v>1.785733333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.7882</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>60624.58717028539</v>
       </c>
       <c r="G27" t="n">
+        <v>1.785733333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.787983333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>50000</v>
       </c>
       <c r="G28" t="n">
+        <v>1.786266666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.787733333333334</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>41000</v>
       </c>
       <c r="G29" t="n">
+        <v>1.786799999999999</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.787766666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>280</v>
       </c>
       <c r="G30" t="n">
+        <v>1.786866666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.78785</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>65091.411</v>
       </c>
       <c r="G31" t="n">
+        <v>1.786933333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.78765</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>214973.5942</v>
       </c>
       <c r="G32" t="n">
+        <v>1.786933333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.78745</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>14376.7761</v>
       </c>
       <c r="G33" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.78725</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>280</v>
       </c>
       <c r="G34" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.787283333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>184466.9244</v>
       </c>
       <c r="G35" t="n">
+        <v>1.787066666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.787333333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>285</v>
       </c>
       <c r="G36" t="n">
+        <v>1.787133333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.787133333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>108789.2348</v>
       </c>
       <c r="G37" t="n">
+        <v>1.786733333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.786816666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>312348.2921</v>
       </c>
       <c r="G38" t="n">
+        <v>1.786266666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.786466666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>8387.006600000001</v>
       </c>
       <c r="G39" t="n">
+        <v>1.7858</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.786133333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>1161.9669</v>
       </c>
       <c r="G40" t="n">
+        <v>1.785266666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.786050000000001</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>111856.8232662192</v>
       </c>
       <c r="G41" t="n">
+        <v>1.785333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.786100000000001</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>169758.6359</v>
       </c>
       <c r="G42" t="n">
+        <v>1.7846</v>
+      </c>
+      <c r="H42" t="n">
         <v>1.785716666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>1538.4847</v>
       </c>
       <c r="G43" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.785566666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>190821.5044</v>
       </c>
       <c r="G44" t="n">
+        <v>1.783133333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.785100000000001</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>695375.9417</v>
       </c>
       <c r="G45" t="n">
+        <v>1.7818</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.784816666666668</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>322.2518</v>
       </c>
       <c r="G46" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.784450000000001</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>37767.2314</v>
       </c>
       <c r="G47" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.784500000000001</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>627149</v>
       </c>
       <c r="G48" t="n">
+        <v>1.780933333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.784533333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>1680.6298</v>
       </c>
       <c r="G49" t="n">
+        <v>1.780466666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.784200000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>5032.0274</v>
       </c>
       <c r="G50" t="n">
+        <v>1.7794</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.784100000000001</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>50331.737</v>
       </c>
       <c r="G51" t="n">
+        <v>1.778266666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.783983333333334</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>21747.4519</v>
       </c>
       <c r="G52" t="n">
+        <v>1.777533333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>1.783850000000001</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>563272.9209</v>
       </c>
       <c r="G53" t="n">
+        <v>1.776733333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.783400000000001</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,25 @@
         <v>56179.7753</v>
       </c>
       <c r="G54" t="n">
+        <v>1.776733333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>1.783400000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2471,27 @@
         <v>62265.2189</v>
       </c>
       <c r="G55" t="n">
+        <v>1.776733333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.783383333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2515,27 @@
         <v>5000</v>
       </c>
       <c r="G56" t="n">
+        <v>1.7762</v>
+      </c>
+      <c r="H56" t="n">
         <v>1.783366666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2559,21 @@
         <v>3283.2223</v>
       </c>
       <c r="G57" t="n">
+        <v>1.7758</v>
+      </c>
+      <c r="H57" t="n">
         <v>1.782983333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2597,21 @@
         <v>374.2606</v>
       </c>
       <c r="G58" t="n">
+        <v>1.776066666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>1.782816666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2635,21 @@
         <v>707457.1048</v>
       </c>
       <c r="G59" t="n">
+        <v>1.775600000000001</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.782416666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2673,21 @@
         <v>17627.6866</v>
       </c>
       <c r="G60" t="n">
+        <v>1.7764</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.782266666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2711,21 @@
         <v>657.7238</v>
       </c>
       <c r="G61" t="n">
+        <v>1.776666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.7822</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2749,21 @@
         <v>2000</v>
       </c>
       <c r="G62" t="n">
+        <v>1.776133333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.782066666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2787,21 @@
         <v>9581.344999999999</v>
       </c>
       <c r="G63" t="n">
+        <v>1.775600000000001</v>
+      </c>
+      <c r="H63" t="n">
         <v>1.781916666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2825,21 @@
         <v>824.9411</v>
       </c>
       <c r="G64" t="n">
+        <v>1.775600000000001</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.782</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2863,21 @@
         <v>3504921.9411</v>
       </c>
       <c r="G65" t="n">
+        <v>1.775000000000001</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.781583333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2901,21 @@
         <v>897631.025</v>
       </c>
       <c r="G66" t="n">
+        <v>1.774000000000001</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.781266666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2939,21 @@
         <v>560001.8391</v>
       </c>
       <c r="G67" t="n">
+        <v>1.772866666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.7807</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2977,21 @@
         <v>100000</v>
       </c>
       <c r="G68" t="n">
+        <v>1.772000000000001</v>
+      </c>
+      <c r="H68" t="n">
         <v>1.780166666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3015,21 @@
         <v>30507.6826</v>
       </c>
       <c r="G69" t="n">
+        <v>1.770266666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>1.779616666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3053,25 @@
         <v>14638.339</v>
       </c>
       <c r="G70" t="n">
+        <v>1.769400000000001</v>
+      </c>
+      <c r="H70" t="n">
         <v>1.779283333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3095,29 @@
         <v>14836.2487</v>
       </c>
       <c r="G71" t="n">
+        <v>1.767600000000001</v>
+      </c>
+      <c r="H71" t="n">
         <v>1.778716666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3141,29 @@
         <v>20000</v>
       </c>
       <c r="G72" t="n">
+        <v>1.767266666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>1.778349999999999</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3187,29 @@
         <v>166148.4135</v>
       </c>
       <c r="G73" t="n">
+        <v>1.766333333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.778166666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3233,29 @@
         <v>6219.0602</v>
       </c>
       <c r="G74" t="n">
+        <v>1.767266666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>1.778199999999999</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3279,27 @@
         <v>3110020</v>
       </c>
       <c r="G75" t="n">
+        <v>1.767133333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>1.778049999999999</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3323,27 @@
         <v>1178097</v>
       </c>
       <c r="G76" t="n">
+        <v>1.7654</v>
+      </c>
+      <c r="H76" t="n">
         <v>1.777499999999999</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3367,27 @@
         <v>1220514.3919</v>
       </c>
       <c r="G77" t="n">
+        <v>1.7644</v>
+      </c>
+      <c r="H77" t="n">
         <v>1.777116666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3411,27 @@
         <v>1419893.197871293</v>
       </c>
       <c r="G78" t="n">
+        <v>1.764933333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>1.777116666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3455,27 @@
         <v>2510716</v>
       </c>
       <c r="G79" t="n">
+        <v>1.765333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>1.777099999999999</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3499,27 @@
         <v>1089259</v>
       </c>
       <c r="G80" t="n">
+        <v>1.765333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>1.776699999999999</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3543,27 @@
         <v>298945.8743</v>
       </c>
       <c r="G81" t="n">
+        <v>1.767333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>1.776683333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3587,27 @@
         <v>203750.709</v>
       </c>
       <c r="G82" t="n">
+        <v>1.767866666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>1.776249999999999</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3631,27 @@
         <v>444665.1009</v>
       </c>
       <c r="G83" t="n">
+        <v>1.769933333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>1.776233333333332</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3675,27 @@
         <v>281461</v>
       </c>
       <c r="G84" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="H84" t="n">
         <v>1.776199999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3719,27 @@
         <v>3454112</v>
       </c>
       <c r="G85" t="n">
+        <v>1.7718</v>
+      </c>
+      <c r="H85" t="n">
         <v>1.775799999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3763,27 @@
         <v>1792558.854</v>
       </c>
       <c r="G86" t="n">
+        <v>1.773933333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>1.775766666666665</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3807,27 @@
         <v>2149943</v>
       </c>
       <c r="G87" t="n">
+        <v>1.773733333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>1.775349999999999</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3851,27 @@
         <v>907.146</v>
       </c>
       <c r="G88" t="n">
+        <v>1.775066666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>1.775366666666665</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3895,27 @@
         <v>1508178</v>
       </c>
       <c r="G89" t="n">
+        <v>1.773933333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>1.774983333333332</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3939,27 @@
         <v>1629902</v>
       </c>
       <c r="G90" t="n">
+        <v>1.7728</v>
+      </c>
+      <c r="H90" t="n">
         <v>1.774533333333332</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3983,27 @@
         <v>787010</v>
       </c>
       <c r="G91" t="n">
+        <v>1.774866666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>1.774483333333332</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4027,27 @@
         <v>720392</v>
       </c>
       <c r="G92" t="n">
+        <v>1.776066666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>1.774399999999999</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4071,27 @@
         <v>3258482.099</v>
       </c>
       <c r="G93" t="n">
+        <v>1.774666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>1.774033333333332</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4115,27 @@
         <v>20259.3245</v>
       </c>
       <c r="G94" t="n">
+        <v>1.7732</v>
+      </c>
+      <c r="H94" t="n">
         <v>1.773649999999999</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4159,27 @@
         <v>447.6516</v>
       </c>
       <c r="G95" t="n">
+        <v>1.7744</v>
+      </c>
+      <c r="H95" t="n">
         <v>1.773533333333332</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4203,27 @@
         <v>86162.4457</v>
       </c>
       <c r="G96" t="n">
+        <v>1.7728</v>
+      </c>
+      <c r="H96" t="n">
         <v>1.773099999999999</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4247,27 @@
         <v>3364999</v>
       </c>
       <c r="G97" t="n">
+        <v>1.7728</v>
+      </c>
+      <c r="H97" t="n">
         <v>1.772766666666665</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4291,27 @@
         <v>949788</v>
       </c>
       <c r="G98" t="n">
+        <v>1.771133333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>1.772449999999999</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4335,27 @@
         <v>808.5718000000001</v>
       </c>
       <c r="G99" t="n">
+        <v>1.7708</v>
+      </c>
+      <c r="H99" t="n">
         <v>1.772449999999999</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4379,27 @@
         <v>61328.5507</v>
       </c>
       <c r="G100" t="n">
+        <v>1.770533333333334</v>
+      </c>
+      <c r="H100" t="n">
         <v>1.772116666666665</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4423,27 @@
         <v>640967.1614</v>
       </c>
       <c r="G101" t="n">
+        <v>1.770133333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>1.771966666666665</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4467,27 @@
         <v>1355670</v>
       </c>
       <c r="G102" t="n">
+        <v>1.7706</v>
+      </c>
+      <c r="H102" t="n">
         <v>1.771849999999999</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4511,27 @@
         <v>816153.4941</v>
       </c>
       <c r="G103" t="n">
+        <v>1.768333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>1.771449999999999</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4555,27 @@
         <v>95137.08839999999</v>
       </c>
       <c r="G104" t="n">
+        <v>1.767666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>1.771116666666665</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4599,27 @@
         <v>1663493.7673</v>
       </c>
       <c r="G105" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.770833333333332</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4643,27 @@
         <v>438648.2354</v>
       </c>
       <c r="G106" t="n">
+        <v>1.764666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>1.770399999999999</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4687,27 @@
         <v>2227742.4179</v>
       </c>
       <c r="G107" t="n">
+        <v>1.763666666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>1.770066666666665</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4731,27 @@
         <v>1275796.9329</v>
       </c>
       <c r="G108" t="n">
+        <v>1.762533333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>1.769433333333332</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4775,27 @@
         <v>1307155.6887</v>
       </c>
       <c r="G109" t="n">
+        <v>1.761666666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>1.768949999999999</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4819,27 @@
         <v>400.5334</v>
       </c>
       <c r="G110" t="n">
+        <v>1.760933333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>1.768916666666665</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4863,27 @@
         <v>67328.9659</v>
       </c>
       <c r="G111" t="n">
+        <v>1.760133333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>1.768566666666665</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4907,27 @@
         <v>83982.8034</v>
       </c>
       <c r="G112" t="n">
+        <v>1.7606</v>
+      </c>
+      <c r="H112" t="n">
         <v>1.768533333333332</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4951,27 @@
         <v>5000</v>
       </c>
       <c r="G113" t="n">
+        <v>1.759933333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>1.768249999999999</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4995,27 @@
         <v>121302.4666</v>
       </c>
       <c r="G114" t="n">
+        <v>1.758066666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>1.767783333333332</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +5039,27 @@
         <v>18792.7936</v>
       </c>
       <c r="G115" t="n">
+        <v>1.757466666666666</v>
+      </c>
+      <c r="H115" t="n">
         <v>1.767299999999999</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +5083,27 @@
         <v>11207.1469</v>
       </c>
       <c r="G116" t="n">
+        <v>1.755533333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>1.766799999999999</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5127,27 @@
         <v>2963788</v>
       </c>
       <c r="G117" t="n">
+        <v>1.7562</v>
+      </c>
+      <c r="H117" t="n">
         <v>1.766949999999999</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5171,27 @@
         <v>1189875.2507</v>
       </c>
       <c r="G118" t="n">
+        <v>1.757866666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>1.766899999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5215,27 @@
         <v>5000</v>
       </c>
       <c r="G119" t="n">
+        <v>1.7594</v>
+      </c>
+      <c r="H119" t="n">
         <v>1.767066666666665</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5259,27 @@
         <v>5000</v>
       </c>
       <c r="G120" t="n">
+        <v>1.760666666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>1.766899999999999</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5303,27 @@
         <v>261946.1688</v>
       </c>
       <c r="G121" t="n">
+        <v>1.761333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>1.766566666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5347,27 @@
         <v>20913.6097</v>
       </c>
       <c r="G122" t="n">
+        <v>1.7602</v>
+      </c>
+      <c r="H122" t="n">
         <v>1.766083333333332</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5391,27 @@
         <v>471.3231</v>
       </c>
       <c r="G123" t="n">
+        <v>1.761533333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>1.765916666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,22 +5435,27 @@
         <v>10456.8048</v>
       </c>
       <c r="G124" t="n">
+        <v>1.761533333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>1.765433333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4757,26 +5479,27 @@
         <v>712064.4024</v>
       </c>
       <c r="G125" t="n">
+        <v>1.7616</v>
+      </c>
+      <c r="H125" t="n">
         <v>1.765566666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="K125" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4800,26 +5523,27 @@
         <v>265217</v>
       </c>
       <c r="G126" t="n">
+        <v>1.762933333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>1.765799999999999</v>
       </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K126" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4843,24 +5567,27 @@
         <v>2762679</v>
       </c>
       <c r="G127" t="n">
+        <v>1.7618</v>
+      </c>
+      <c r="H127" t="n">
         <v>1.765766666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,24 +5611,27 @@
         <v>472.6883</v>
       </c>
       <c r="G128" t="n">
+        <v>1.763066666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>1.766016666666666</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4925,24 +5655,27 @@
         <v>1195.9012</v>
       </c>
       <c r="G129" t="n">
+        <v>1.763</v>
+      </c>
+      <c r="H129" t="n">
         <v>1.765966666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,24 +5699,27 @@
         <v>1063580</v>
       </c>
       <c r="G130" t="n">
+        <v>1.764133333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>1.765983333333332</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5007,24 +5743,27 @@
         <v>2695466</v>
       </c>
       <c r="G131" t="n">
+        <v>1.764266666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>1.765966666666666</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5048,24 +5787,27 @@
         <v>1063.739</v>
       </c>
       <c r="G132" t="n">
+        <v>1.763533333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>1.766016666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,24 +5831,27 @@
         <v>11531.3825</v>
       </c>
       <c r="G133" t="n">
+        <v>1.761866666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>1.765783333333332</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5130,24 +5875,27 @@
         <v>1339.332</v>
       </c>
       <c r="G134" t="n">
+        <v>1.7614</v>
+      </c>
+      <c r="H134" t="n">
         <v>1.765599999999999</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5171,24 +5919,27 @@
         <v>247219.0026</v>
       </c>
       <c r="G135" t="n">
+        <v>1.7602</v>
+      </c>
+      <c r="H135" t="n">
         <v>1.765166666666665</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5212,24 +5963,27 @@
         <v>738.5771</v>
       </c>
       <c r="G136" t="n">
+        <v>1.760733333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>1.765399999999999</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5253,24 +6007,27 @@
         <v>3572727</v>
       </c>
       <c r="G137" t="n">
+        <v>1.7608</v>
+      </c>
+      <c r="H137" t="n">
         <v>1.765183333333332</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,24 +6051,27 @@
         <v>643932.7199</v>
       </c>
       <c r="G138" t="n">
+        <v>1.760933333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>1.764916666666665</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5335,24 +6095,27 @@
         <v>121100.4144</v>
       </c>
       <c r="G139" t="n">
+        <v>1.760933333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>1.764333333333332</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5376,24 +6139,27 @@
         <v>597.7971</v>
       </c>
       <c r="G140" t="n">
+        <v>1.760866666666666</v>
+      </c>
+      <c r="H140" t="n">
         <v>1.764449999999999</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5417,24 +6183,27 @@
         <v>3077094</v>
       </c>
       <c r="G141" t="n">
+        <v>1.760733333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>1.764149999999999</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5458,24 +6227,27 @@
         <v>717782.7872</v>
       </c>
       <c r="G142" t="n">
+        <v>1.760733333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>1.763983333333332</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5499,24 +6271,27 @@
         <v>222628.2495</v>
       </c>
       <c r="G143" t="n">
+        <v>1.759266666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>1.763349999999999</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5540,25 +6315,28 @@
         <v>287</v>
       </c>
       <c r="G144" t="n">
+        <v>1.759066666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>1.762733333333332</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>0.983128886376484</v>
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -5581,18 +6359,27 @@
         <v>287</v>
       </c>
       <c r="G145" t="n">
+        <v>1.757733333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>1.762466666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5616,18 +6403,27 @@
         <v>287</v>
       </c>
       <c r="G146" t="n">
+        <v>1.757466666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>1.761849999999999</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5651,18 +6447,27 @@
         <v>287</v>
       </c>
       <c r="G147" t="n">
+        <v>1.756066666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>1.761599999999999</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5686,18 +6491,27 @@
         <v>107072.9986</v>
       </c>
       <c r="G148" t="n">
+        <v>1.755533333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>1.760899999999999</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5721,18 +6535,27 @@
         <v>700</v>
       </c>
       <c r="G149" t="n">
+        <v>1.753866666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>1.760583333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5756,18 +6579,29 @@
         <v>1158.2026</v>
       </c>
       <c r="G150" t="n">
+        <v>1.7536</v>
+      </c>
+      <c r="H150" t="n">
         <v>1.760366666666666</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5791,18 +6625,29 @@
         <v>286.205</v>
       </c>
       <c r="G151" t="n">
+        <v>1.7522</v>
+      </c>
+      <c r="H151" t="n">
         <v>1.759733333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5826,18 +6671,29 @@
         <v>650955.1742</v>
       </c>
       <c r="G152" t="n">
+        <v>1.753333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>1.759499999999999</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5861,18 +6717,27 @@
         <v>2837421.2859</v>
       </c>
       <c r="G153" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="H153" t="n">
         <v>1.759249999999999</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5896,18 +6761,27 @@
         <v>981.2258</v>
       </c>
       <c r="G154" t="n">
+        <v>1.7532</v>
+      </c>
+      <c r="H154" t="n">
         <v>1.759333333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5931,18 +6805,467 @@
         <v>6602.5405</v>
       </c>
       <c r="G155" t="n">
+        <v>1.753266666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>1.759166666666666</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6299.046</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1.7518</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1.758899999999999</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1899.812</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1.753066666666666</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1.759049999999999</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F158" t="n">
+        <v>657057</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1.753333333333333</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1.758899999999999</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2756999</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1.753533333333333</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1.758416666666666</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="F160" t="n">
+        <v>538.6268</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1.754799999999999</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1.758533333333333</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F161" t="n">
+        <v>601582.3205</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1.754999999999999</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1.758066666666666</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2902648</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.755266666666666</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1.757766666666666</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1386.6705</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.756799999999999</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1.758016666666666</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F164" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1.756599999999999</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1.757816666666666</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="F165" t="n">
+        <v>385.3062</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1.757333333333333</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1.757949999999999</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest AOA.xlsx
+++ b/BackTest/2020-01-23 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="C2" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="D2" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="E2" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="F2" t="n">
-        <v>227986</v>
+        <v>1081.0327</v>
       </c>
       <c r="G2" t="n">
-        <v>1150652.461239443</v>
+        <v>-10287853.53236056</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.799</v>
+        <v>1.787</v>
       </c>
       <c r="C3" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="D3" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="E3" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="F3" t="n">
-        <v>3326256</v>
+        <v>48918.9673</v>
       </c>
       <c r="G3" t="n">
-        <v>-2175603.538760557</v>
+        <v>-10287853.53236056</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.784</v>
+        <v>1.788</v>
       </c>
       <c r="C4" t="n">
-        <v>1.784</v>
+        <v>1.788</v>
       </c>
       <c r="D4" t="n">
-        <v>1.784</v>
+        <v>1.788</v>
       </c>
       <c r="E4" t="n">
-        <v>1.784</v>
+        <v>1.788</v>
       </c>
       <c r="F4" t="n">
-        <v>41242.7404</v>
+        <v>800</v>
       </c>
       <c r="G4" t="n">
-        <v>-2216846.279160557</v>
+        <v>-10287053.53236056</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="C5" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="D5" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="E5" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="F5" t="n">
-        <v>278</v>
+        <v>63526.6966</v>
       </c>
       <c r="G5" t="n">
-        <v>-2216568.279160557</v>
+        <v>-10350580.22896056</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="C6" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="D6" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="E6" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="F6" t="n">
-        <v>4095.1512</v>
+        <v>24348.809</v>
       </c>
       <c r="G6" t="n">
-        <v>-2216568.279160557</v>
+        <v>-10350580.22896056</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.8</v>
+        <v>1.786</v>
       </c>
       <c r="C7" t="n">
-        <v>1.801</v>
+        <v>1.786</v>
       </c>
       <c r="D7" t="n">
-        <v>1.801</v>
+        <v>1.786</v>
       </c>
       <c r="E7" t="n">
-        <v>1.8</v>
+        <v>1.786</v>
       </c>
       <c r="F7" t="n">
-        <v>1375.0242</v>
+        <v>100000</v>
       </c>
       <c r="G7" t="n">
-        <v>-2215193.254960557</v>
+        <v>-10450580.22896056</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="C8" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="D8" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="E8" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="F8" t="n">
-        <v>983548</v>
+        <v>750.0939</v>
       </c>
       <c r="G8" t="n">
-        <v>-3198741.254960557</v>
+        <v>-10449830.13506056</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="C9" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="D9" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="E9" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="F9" t="n">
-        <v>2852859</v>
+        <v>1678.791270285395</v>
       </c>
       <c r="G9" t="n">
-        <v>-6051600.254960557</v>
+        <v>-10449830.13506056</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="C10" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="D10" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="E10" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="F10" t="n">
-        <v>5470.1754</v>
+        <v>233000</v>
       </c>
       <c r="G10" t="n">
-        <v>-6051600.254960557</v>
+        <v>-10449830.13506056</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.799</v>
+        <v>1.787</v>
       </c>
       <c r="C11" t="n">
-        <v>1.799</v>
+        <v>1.787</v>
       </c>
       <c r="D11" t="n">
-        <v>1.799</v>
+        <v>1.787</v>
       </c>
       <c r="E11" t="n">
-        <v>1.799</v>
+        <v>1.787</v>
       </c>
       <c r="F11" t="n">
-        <v>278</v>
+        <v>600.8017297146055</v>
       </c>
       <c r="G11" t="n">
-        <v>-6051322.254960557</v>
+        <v>-10449830.13506056</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.8</v>
+        <v>1.788</v>
       </c>
       <c r="C12" t="n">
-        <v>1.785</v>
+        <v>1.788</v>
       </c>
       <c r="D12" t="n">
-        <v>1.8</v>
+        <v>1.788</v>
       </c>
       <c r="E12" t="n">
-        <v>1.785</v>
+        <v>1.788</v>
       </c>
       <c r="F12" t="n">
-        <v>2403958</v>
+        <v>828.5890000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>-8455280.254960557</v>
+        <v>-10449001.54606056</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.799</v>
+        <v>1.787</v>
       </c>
       <c r="C13" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="D13" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="E13" t="n">
-        <v>1.799</v>
+        <v>1.787</v>
       </c>
       <c r="F13" t="n">
-        <v>257793</v>
+        <v>859.4828</v>
       </c>
       <c r="G13" t="n">
-        <v>-8197487.254960557</v>
+        <v>-10449861.02886056</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="C14" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="D14" t="n">
-        <v>1.8</v>
+        <v>1.787</v>
       </c>
       <c r="E14" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="F14" t="n">
-        <v>1314879</v>
+        <v>60624.58717028539</v>
       </c>
       <c r="G14" t="n">
-        <v>-9512366.254960557</v>
+        <v>-10449861.02886056</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.798</v>
+        <v>1.785</v>
       </c>
       <c r="C15" t="n">
-        <v>1.798</v>
+        <v>1.785</v>
       </c>
       <c r="D15" t="n">
-        <v>1.798</v>
+        <v>1.785</v>
       </c>
       <c r="E15" t="n">
-        <v>1.798</v>
+        <v>1.785</v>
       </c>
       <c r="F15" t="n">
-        <v>279</v>
+        <v>50000</v>
       </c>
       <c r="G15" t="n">
-        <v>-9512087.254960557</v>
+        <v>-10499861.02886056</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.8</v>
+        <v>1.785</v>
       </c>
       <c r="C16" t="n">
         <v>1.785</v>
       </c>
       <c r="D16" t="n">
-        <v>1.8</v>
+        <v>1.785</v>
       </c>
       <c r="E16" t="n">
         <v>1.785</v>
       </c>
       <c r="F16" t="n">
-        <v>1464698</v>
+        <v>41000</v>
       </c>
       <c r="G16" t="n">
-        <v>-10976785.25496056</v>
+        <v>-10499861.02886056</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.8</v>
+        <v>1.788</v>
       </c>
       <c r="C17" t="n">
-        <v>1.785</v>
+        <v>1.788</v>
       </c>
       <c r="D17" t="n">
-        <v>1.8</v>
+        <v>1.788</v>
       </c>
       <c r="E17" t="n">
-        <v>1.785</v>
+        <v>1.788</v>
       </c>
       <c r="F17" t="n">
-        <v>2154418</v>
+        <v>280</v>
       </c>
       <c r="G17" t="n">
-        <v>-10976785.25496056</v>
+        <v>-10499581.02886056</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.8</v>
+        <v>1.788</v>
       </c>
       <c r="C18" t="n">
-        <v>1.8</v>
+        <v>1.788</v>
       </c>
       <c r="D18" t="n">
-        <v>1.8</v>
+        <v>1.788</v>
       </c>
       <c r="E18" t="n">
-        <v>1.8</v>
+        <v>1.788</v>
       </c>
       <c r="F18" t="n">
-        <v>551.5155999999999</v>
+        <v>65091.411</v>
       </c>
       <c r="G18" t="n">
-        <v>-10976233.73936056</v>
+        <v>-10499581.02886056</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.79</v>
+        <v>1.788</v>
       </c>
       <c r="C19" t="n">
-        <v>1.777</v>
+        <v>1.788</v>
       </c>
       <c r="D19" t="n">
-        <v>1.79</v>
+        <v>1.788</v>
       </c>
       <c r="E19" t="n">
-        <v>1.777</v>
+        <v>1.788</v>
       </c>
       <c r="F19" t="n">
-        <v>2881279.6173</v>
+        <v>214973.5942</v>
       </c>
       <c r="G19" t="n">
-        <v>-13857513.35666056</v>
+        <v>-10499581.02886056</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,34 +1079,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.799</v>
+        <v>1.788</v>
       </c>
       <c r="C20" t="n">
-        <v>1.778</v>
+        <v>1.788</v>
       </c>
       <c r="D20" t="n">
-        <v>1.799</v>
+        <v>1.788</v>
       </c>
       <c r="E20" t="n">
-        <v>1.778</v>
+        <v>1.788</v>
       </c>
       <c r="F20" t="n">
-        <v>2841004</v>
+        <v>14376.7761</v>
       </c>
       <c r="G20" t="n">
-        <v>-11016509.35666056</v>
+        <v>-10499581.02886056</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.799</v>
+        <v>1.787</v>
       </c>
       <c r="C21" t="n">
-        <v>1.778</v>
+        <v>1.787</v>
       </c>
       <c r="D21" t="n">
-        <v>1.799</v>
+        <v>1.787</v>
       </c>
       <c r="E21" t="n">
-        <v>1.778</v>
+        <v>1.787</v>
       </c>
       <c r="F21" t="n">
-        <v>736966</v>
+        <v>280</v>
       </c>
       <c r="G21" t="n">
-        <v>-11016509.35666056</v>
+        <v>-10499861.02886056</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.795</v>
+        <v>1.787</v>
       </c>
       <c r="C22" t="n">
-        <v>1.795</v>
+        <v>1.787</v>
       </c>
       <c r="D22" t="n">
-        <v>1.795</v>
+        <v>1.787</v>
       </c>
       <c r="E22" t="n">
-        <v>1.795</v>
+        <v>1.787</v>
       </c>
       <c r="F22" t="n">
-        <v>279</v>
+        <v>184466.9244</v>
       </c>
       <c r="G22" t="n">
-        <v>-11016230.35666056</v>
+        <v>-10499861.02886056</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.78</v>
+        <v>1.788</v>
       </c>
       <c r="C23" t="n">
-        <v>1.78</v>
+        <v>1.788</v>
       </c>
       <c r="D23" t="n">
-        <v>1.78</v>
+        <v>1.788</v>
       </c>
       <c r="E23" t="n">
-        <v>1.78</v>
+        <v>1.788</v>
       </c>
       <c r="F23" t="n">
-        <v>140583.7418</v>
+        <v>285</v>
       </c>
       <c r="G23" t="n">
-        <v>-11156814.09846056</v>
+        <v>-10499576.02886056</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.796</v>
+        <v>1.787</v>
       </c>
       <c r="C24" t="n">
         <v>1.781</v>
       </c>
       <c r="D24" t="n">
-        <v>1.796</v>
+        <v>1.787</v>
       </c>
       <c r="E24" t="n">
         <v>1.781</v>
       </c>
       <c r="F24" t="n">
-        <v>2151684</v>
+        <v>108789.2348</v>
       </c>
       <c r="G24" t="n">
-        <v>-9005130.098460559</v>
+        <v>-10608365.26366056</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.796</v>
+        <v>1.78</v>
       </c>
       <c r="C25" t="n">
-        <v>1.781</v>
+        <v>1.78</v>
       </c>
       <c r="D25" t="n">
-        <v>1.796</v>
+        <v>1.78</v>
       </c>
       <c r="E25" t="n">
-        <v>1.781</v>
+        <v>1.78</v>
       </c>
       <c r="F25" t="n">
-        <v>1518181</v>
+        <v>312348.2921</v>
       </c>
       <c r="G25" t="n">
-        <v>-9005130.098460559</v>
+        <v>-10920713.55576055</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.793</v>
+        <v>1.78</v>
       </c>
       <c r="C26" t="n">
-        <v>1.793</v>
+        <v>1.78</v>
       </c>
       <c r="D26" t="n">
-        <v>1.793</v>
+        <v>1.78</v>
       </c>
       <c r="E26" t="n">
-        <v>1.793</v>
+        <v>1.78</v>
       </c>
       <c r="F26" t="n">
-        <v>279</v>
+        <v>8387.006600000001</v>
       </c>
       <c r="G26" t="n">
-        <v>-9004851.098460559</v>
+        <v>-10920713.55576055</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="C27" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="D27" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="E27" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="F27" t="n">
-        <v>280</v>
+        <v>1161.9669</v>
       </c>
       <c r="G27" t="n">
-        <v>-9005131.098460559</v>
+        <v>-10920713.55576055</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.789</v>
+        <v>1.788</v>
       </c>
       <c r="C28" t="n">
-        <v>1.789</v>
+        <v>1.788</v>
       </c>
       <c r="D28" t="n">
-        <v>1.789</v>
+        <v>1.788</v>
       </c>
       <c r="E28" t="n">
-        <v>1.789</v>
+        <v>1.788</v>
       </c>
       <c r="F28" t="n">
-        <v>200776.488</v>
+        <v>111856.8232662192</v>
       </c>
       <c r="G28" t="n">
-        <v>-9205907.586460559</v>
+        <v>-10808856.73249434</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.789</v>
+        <v>1.778</v>
       </c>
       <c r="C29" t="n">
-        <v>1.789</v>
+        <v>1.776</v>
       </c>
       <c r="D29" t="n">
-        <v>1.789</v>
+        <v>1.778</v>
       </c>
       <c r="E29" t="n">
-        <v>1.789</v>
+        <v>1.776</v>
       </c>
       <c r="F29" t="n">
-        <v>55758.5912</v>
+        <v>169758.6359</v>
       </c>
       <c r="G29" t="n">
-        <v>-9205907.586460559</v>
+        <v>-10978615.36839434</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.784</v>
+        <v>1.776</v>
       </c>
       <c r="C30" t="n">
-        <v>1.784</v>
+        <v>1.776</v>
       </c>
       <c r="D30" t="n">
-        <v>1.784</v>
+        <v>1.776</v>
       </c>
       <c r="E30" t="n">
-        <v>1.784</v>
+        <v>1.776</v>
       </c>
       <c r="F30" t="n">
-        <v>281</v>
+        <v>1538.4847</v>
       </c>
       <c r="G30" t="n">
-        <v>-9206188.586460559</v>
+        <v>-10978615.36839434</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.788</v>
+        <v>1.775</v>
       </c>
       <c r="C31" t="n">
-        <v>1.788</v>
+        <v>1.772</v>
       </c>
       <c r="D31" t="n">
-        <v>1.788</v>
+        <v>1.775</v>
       </c>
       <c r="E31" t="n">
-        <v>1.788</v>
+        <v>1.772</v>
       </c>
       <c r="F31" t="n">
-        <v>455.9102</v>
+        <v>190821.5044</v>
       </c>
       <c r="G31" t="n">
-        <v>-9205732.676260559</v>
+        <v>-11169436.87279434</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.788</v>
+        <v>1.77</v>
       </c>
       <c r="C32" t="n">
-        <v>1.788</v>
+        <v>1.768</v>
       </c>
       <c r="D32" t="n">
-        <v>1.788</v>
+        <v>1.77</v>
       </c>
       <c r="E32" t="n">
-        <v>1.788</v>
+        <v>1.768</v>
       </c>
       <c r="F32" t="n">
-        <v>999</v>
+        <v>695375.9417</v>
       </c>
       <c r="G32" t="n">
-        <v>-9205732.676260559</v>
+        <v>-11864812.81449434</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.785</v>
+        <v>1.776</v>
       </c>
       <c r="C33" t="n">
-        <v>1.775</v>
+        <v>1.776</v>
       </c>
       <c r="D33" t="n">
-        <v>1.785</v>
+        <v>1.776</v>
       </c>
       <c r="E33" t="n">
-        <v>1.775</v>
+        <v>1.776</v>
       </c>
       <c r="F33" t="n">
-        <v>995593.3370000001</v>
+        <v>322.2518</v>
       </c>
       <c r="G33" t="n">
-        <v>-10201326.01326056</v>
+        <v>-11864490.56269434</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.787</v>
+        <v>1.776</v>
       </c>
       <c r="C34" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="D34" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="E34" t="n">
-        <v>1.787</v>
+        <v>1.776</v>
       </c>
       <c r="F34" t="n">
-        <v>2376.3423</v>
+        <v>37767.2314</v>
       </c>
       <c r="G34" t="n">
-        <v>-10198949.67096056</v>
+        <v>-11826723.33129434</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.777</v>
+        <v>1.787</v>
       </c>
       <c r="C35" t="n">
-        <v>1.775</v>
+        <v>1.787</v>
       </c>
       <c r="D35" t="n">
-        <v>1.777</v>
+        <v>1.787</v>
       </c>
       <c r="E35" t="n">
-        <v>1.775</v>
+        <v>1.771</v>
       </c>
       <c r="F35" t="n">
-        <v>200000</v>
+        <v>627149</v>
       </c>
       <c r="G35" t="n">
-        <v>-10398949.67096056</v>
+        <v>-12453872.33129434</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="C36" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="D36" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="E36" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="F36" t="n">
-        <v>111639.8427</v>
+        <v>1680.6298</v>
       </c>
       <c r="G36" t="n">
-        <v>-10287309.82826056</v>
+        <v>-12455552.96109433</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,34 +1691,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.787</v>
+        <v>1.771</v>
       </c>
       <c r="C37" t="n">
-        <v>1.787</v>
+        <v>1.771</v>
       </c>
       <c r="D37" t="n">
-        <v>1.787</v>
+        <v>1.771</v>
       </c>
       <c r="E37" t="n">
-        <v>1.787</v>
+        <v>1.771</v>
       </c>
       <c r="F37" t="n">
-        <v>16787.9128</v>
+        <v>5032.0274</v>
       </c>
       <c r="G37" t="n">
-        <v>-10287309.82826056</v>
+        <v>-12460584.98849433</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.787</v>
+        <v>1.771</v>
       </c>
       <c r="C38" t="n">
-        <v>1.787</v>
+        <v>1.771</v>
       </c>
       <c r="D38" t="n">
-        <v>1.787</v>
+        <v>1.771</v>
       </c>
       <c r="E38" t="n">
-        <v>1.787</v>
+        <v>1.771</v>
       </c>
       <c r="F38" t="n">
-        <v>1759.7212</v>
+        <v>50331.737</v>
       </c>
       <c r="G38" t="n">
-        <v>-10287309.82826056</v>
+        <v>-12460584.98849433</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,34 +1763,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.787</v>
+        <v>1.77</v>
       </c>
       <c r="C39" t="n">
-        <v>1.787</v>
+        <v>1.77</v>
       </c>
       <c r="D39" t="n">
-        <v>1.787</v>
+        <v>1.77</v>
       </c>
       <c r="E39" t="n">
-        <v>1.787</v>
+        <v>1.77</v>
       </c>
       <c r="F39" t="n">
-        <v>1000</v>
+        <v>21747.4519</v>
       </c>
       <c r="G39" t="n">
-        <v>-10287309.82826056</v>
+        <v>-12482332.44039433</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.787</v>
+        <v>1.769</v>
       </c>
       <c r="C40" t="n">
-        <v>1.787</v>
+        <v>1.768</v>
       </c>
       <c r="D40" t="n">
-        <v>1.787</v>
+        <v>1.769</v>
       </c>
       <c r="E40" t="n">
-        <v>1.787</v>
+        <v>1.768</v>
       </c>
       <c r="F40" t="n">
-        <v>2000</v>
+        <v>563272.9209</v>
       </c>
       <c r="G40" t="n">
-        <v>-10287309.82826056</v>
+        <v>-13045605.36129433</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,34 +1835,35 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="C41" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="D41" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="E41" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>56179.7753</v>
       </c>
       <c r="G41" t="n">
-        <v>-10287309.82826056</v>
+        <v>-12989425.58599433</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1827,34 +1871,35 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.777</v>
+        <v>1.78</v>
       </c>
       <c r="C42" t="n">
-        <v>1.777</v>
+        <v>1.78</v>
       </c>
       <c r="D42" t="n">
-        <v>1.777</v>
+        <v>1.78</v>
       </c>
       <c r="E42" t="n">
-        <v>1.777</v>
+        <v>1.78</v>
       </c>
       <c r="F42" t="n">
-        <v>1624.7368</v>
+        <v>62265.2189</v>
       </c>
       <c r="G42" t="n">
-        <v>-10288934.56506056</v>
+        <v>-12989425.58599433</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.777</v>
+        <v>1.78</v>
       </c>
       <c r="C43" t="n">
-        <v>1.777</v>
+        <v>1.78</v>
       </c>
       <c r="D43" t="n">
-        <v>1.777</v>
+        <v>1.78</v>
       </c>
       <c r="E43" t="n">
-        <v>1.777</v>
+        <v>1.78</v>
       </c>
       <c r="F43" t="n">
-        <v>1100</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="n">
-        <v>-10288934.56506056</v>
+        <v>-12989425.58599433</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,34 +1943,35 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.787</v>
+        <v>1.77</v>
       </c>
       <c r="C44" t="n">
-        <v>1.787</v>
+        <v>1.77</v>
       </c>
       <c r="D44" t="n">
-        <v>1.787</v>
+        <v>1.77</v>
       </c>
       <c r="E44" t="n">
-        <v>1.787</v>
+        <v>1.77</v>
       </c>
       <c r="F44" t="n">
-        <v>1081.0327</v>
+        <v>3283.2223</v>
       </c>
       <c r="G44" t="n">
-        <v>-10287853.53236056</v>
+        <v>-12992708.80829434</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1932,34 +1979,35 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="C45" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="D45" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="E45" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="F45" t="n">
-        <v>48918.9673</v>
+        <v>374.2606</v>
       </c>
       <c r="G45" t="n">
-        <v>-10287853.53236056</v>
+        <v>-12992334.54769433</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,34 +2015,35 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.788</v>
+        <v>1.77</v>
       </c>
       <c r="C46" t="n">
-        <v>1.788</v>
+        <v>1.765</v>
       </c>
       <c r="D46" t="n">
-        <v>1.788</v>
+        <v>1.77</v>
       </c>
       <c r="E46" t="n">
-        <v>1.788</v>
+        <v>1.765</v>
       </c>
       <c r="F46" t="n">
-        <v>800</v>
+        <v>707457.1048</v>
       </c>
       <c r="G46" t="n">
-        <v>-10287053.53236056</v>
+        <v>-13699791.65249434</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.787</v>
+        <v>1.766</v>
       </c>
       <c r="C47" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="D47" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="E47" t="n">
-        <v>1.787</v>
+        <v>1.765</v>
       </c>
       <c r="F47" t="n">
-        <v>63526.6966</v>
+        <v>17627.6866</v>
       </c>
       <c r="G47" t="n">
-        <v>-10350580.22896056</v>
+        <v>-13682163.96589434</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="C48" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="D48" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="E48" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="F48" t="n">
-        <v>24348.809</v>
+        <v>657.7238</v>
       </c>
       <c r="G48" t="n">
-        <v>-10350580.22896056</v>
+        <v>-13682163.96589434</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,34 +2123,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.786</v>
+        <v>1.78</v>
       </c>
       <c r="C49" t="n">
-        <v>1.786</v>
+        <v>1.78</v>
       </c>
       <c r="D49" t="n">
-        <v>1.786</v>
+        <v>1.78</v>
       </c>
       <c r="E49" t="n">
-        <v>1.786</v>
+        <v>1.78</v>
       </c>
       <c r="F49" t="n">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="n">
-        <v>-10450580.22896056</v>
+        <v>-13682163.96589434</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="C50" t="n">
-        <v>1.787</v>
+        <v>1.779</v>
       </c>
       <c r="D50" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="E50" t="n">
-        <v>1.787</v>
+        <v>1.779</v>
       </c>
       <c r="F50" t="n">
-        <v>750.0939</v>
+        <v>9581.344999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>-10449830.13506056</v>
+        <v>-13691745.31089434</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,34 +2195,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="C51" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="D51" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="E51" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="F51" t="n">
-        <v>1678.791270285395</v>
+        <v>824.9411</v>
       </c>
       <c r="G51" t="n">
-        <v>-10449830.13506056</v>
+        <v>-13690920.36979434</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.787</v>
+        <v>1.766</v>
       </c>
       <c r="C52" t="n">
-        <v>1.787</v>
+        <v>1.762</v>
       </c>
       <c r="D52" t="n">
-        <v>1.787</v>
+        <v>1.779</v>
       </c>
       <c r="E52" t="n">
-        <v>1.787</v>
+        <v>1.754</v>
       </c>
       <c r="F52" t="n">
-        <v>233000</v>
+        <v>3504921.9411</v>
       </c>
       <c r="G52" t="n">
-        <v>-10449830.13506056</v>
+        <v>-17195842.31089434</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,34 +2267,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.787</v>
+        <v>1.761</v>
       </c>
       <c r="C53" t="n">
-        <v>1.787</v>
+        <v>1.756</v>
       </c>
       <c r="D53" t="n">
-        <v>1.787</v>
+        <v>1.779</v>
       </c>
       <c r="E53" t="n">
-        <v>1.787</v>
+        <v>1.756</v>
       </c>
       <c r="F53" t="n">
-        <v>600.8017297146055</v>
+        <v>897631.025</v>
       </c>
       <c r="G53" t="n">
-        <v>-10449830.13506056</v>
+        <v>-18093473.33589434</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2247,34 +2303,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.788</v>
+        <v>1.761</v>
       </c>
       <c r="C54" t="n">
-        <v>1.788</v>
+        <v>1.753</v>
       </c>
       <c r="D54" t="n">
-        <v>1.788</v>
+        <v>1.761</v>
       </c>
       <c r="E54" t="n">
-        <v>1.788</v>
+        <v>1.753</v>
       </c>
       <c r="F54" t="n">
-        <v>828.5890000000001</v>
+        <v>560001.8391</v>
       </c>
       <c r="G54" t="n">
-        <v>-10449001.54606056</v>
+        <v>-18653475.17499433</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.787</v>
+        <v>1.755</v>
       </c>
       <c r="C55" t="n">
-        <v>1.787</v>
+        <v>1.755</v>
       </c>
       <c r="D55" t="n">
-        <v>1.787</v>
+        <v>1.755</v>
       </c>
       <c r="E55" t="n">
-        <v>1.787</v>
+        <v>1.755</v>
       </c>
       <c r="F55" t="n">
-        <v>859.4828</v>
+        <v>100000</v>
       </c>
       <c r="G55" t="n">
-        <v>-10449861.02886056</v>
+        <v>-18553475.17499433</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.787</v>
+        <v>1.754</v>
       </c>
       <c r="C56" t="n">
-        <v>1.787</v>
+        <v>1.754</v>
       </c>
       <c r="D56" t="n">
-        <v>1.787</v>
+        <v>1.754</v>
       </c>
       <c r="E56" t="n">
-        <v>1.787</v>
+        <v>1.754</v>
       </c>
       <c r="F56" t="n">
-        <v>60624.58717028539</v>
+        <v>30507.6826</v>
       </c>
       <c r="G56" t="n">
-        <v>-10449861.02886056</v>
+        <v>-18583982.85759433</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.785</v>
+        <v>1.767</v>
       </c>
       <c r="C57" t="n">
-        <v>1.785</v>
+        <v>1.767</v>
       </c>
       <c r="D57" t="n">
-        <v>1.785</v>
+        <v>1.767</v>
       </c>
       <c r="E57" t="n">
-        <v>1.785</v>
+        <v>1.767</v>
       </c>
       <c r="F57" t="n">
-        <v>50000</v>
+        <v>14638.339</v>
       </c>
       <c r="G57" t="n">
-        <v>-10499861.02886056</v>
+        <v>-18569344.51859433</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,98 +2447,113 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.785</v>
+        <v>1.754</v>
       </c>
       <c r="C58" t="n">
-        <v>1.785</v>
+        <v>1.753</v>
       </c>
       <c r="D58" t="n">
-        <v>1.785</v>
+        <v>1.754</v>
       </c>
       <c r="E58" t="n">
-        <v>1.785</v>
+        <v>1.753</v>
       </c>
       <c r="F58" t="n">
-        <v>41000</v>
+        <v>14836.2487</v>
       </c>
       <c r="G58" t="n">
-        <v>-10499861.02886056</v>
+        <v>-18584180.76729433</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1.767</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.788</v>
+        <v>1.765</v>
       </c>
       <c r="C59" t="n">
-        <v>1.788</v>
+        <v>1.765</v>
       </c>
       <c r="D59" t="n">
-        <v>1.788</v>
+        <v>1.765</v>
       </c>
       <c r="E59" t="n">
-        <v>1.788</v>
+        <v>1.765</v>
       </c>
       <c r="F59" t="n">
-        <v>280</v>
+        <v>20000</v>
       </c>
       <c r="G59" t="n">
-        <v>-10499581.02886056</v>
+        <v>-18564180.76729433</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1.753</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.788</v>
+        <v>1.766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.788</v>
+        <v>1.766</v>
       </c>
       <c r="D60" t="n">
-        <v>1.788</v>
+        <v>1.766</v>
       </c>
       <c r="E60" t="n">
-        <v>1.788</v>
+        <v>1.766</v>
       </c>
       <c r="F60" t="n">
-        <v>65091.411</v>
+        <v>166148.4135</v>
       </c>
       <c r="G60" t="n">
-        <v>-10499581.02886056</v>
+        <v>-18398032.35379433</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,67 +2563,79 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.788</v>
+        <v>1.778</v>
       </c>
       <c r="C61" t="n">
-        <v>1.788</v>
+        <v>1.779</v>
       </c>
       <c r="D61" t="n">
-        <v>1.788</v>
+        <v>1.779</v>
       </c>
       <c r="E61" t="n">
-        <v>1.788</v>
+        <v>1.778</v>
       </c>
       <c r="F61" t="n">
-        <v>214973.5942</v>
+        <v>6219.0602</v>
       </c>
       <c r="G61" t="n">
-        <v>-10499581.02886056</v>
+        <v>-18391813.29359433</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1.766</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.788</v>
+        <v>1.778</v>
       </c>
       <c r="C62" t="n">
-        <v>1.788</v>
+        <v>1.778</v>
       </c>
       <c r="D62" t="n">
-        <v>1.788</v>
+        <v>1.778</v>
       </c>
       <c r="E62" t="n">
-        <v>1.788</v>
+        <v>1.754</v>
       </c>
       <c r="F62" t="n">
-        <v>14376.7761</v>
+        <v>3110020</v>
       </c>
       <c r="G62" t="n">
-        <v>-10499581.02886056</v>
+        <v>-21501833.29359433</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,32 +2645,37 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.787</v>
+        <v>1.754</v>
       </c>
       <c r="C63" t="n">
-        <v>1.787</v>
+        <v>1.754</v>
       </c>
       <c r="D63" t="n">
-        <v>1.787</v>
+        <v>1.778</v>
       </c>
       <c r="E63" t="n">
-        <v>1.787</v>
+        <v>1.754</v>
       </c>
       <c r="F63" t="n">
-        <v>280</v>
+        <v>1178097</v>
       </c>
       <c r="G63" t="n">
-        <v>-10499861.02886056</v>
+        <v>-22679930.29359433</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,242 +2685,281 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.787</v>
+        <v>1.76</v>
       </c>
       <c r="C64" t="n">
-        <v>1.787</v>
+        <v>1.765</v>
       </c>
       <c r="D64" t="n">
-        <v>1.787</v>
+        <v>1.765</v>
       </c>
       <c r="E64" t="n">
-        <v>1.787</v>
+        <v>1.75</v>
       </c>
       <c r="F64" t="n">
-        <v>184466.9244</v>
+        <v>1220514.3919</v>
       </c>
       <c r="G64" t="n">
-        <v>-10499861.02886056</v>
+        <v>-21459415.90169434</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1.754</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.788</v>
+        <v>1.768</v>
       </c>
       <c r="C65" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="D65" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="E65" t="n">
-        <v>1.788</v>
+        <v>1.768</v>
       </c>
       <c r="F65" t="n">
-        <v>285</v>
+        <v>1419893.197871293</v>
       </c>
       <c r="G65" t="n">
-        <v>-10499576.02886056</v>
+        <v>-20039522.70382304</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1.765</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2510716</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-22550238.70382304</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
         <v>1.787</v>
       </c>
-      <c r="C66" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="F66" t="n">
-        <v>108789.2348</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-10608365.26366056</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.78</v>
+        <v>1.752</v>
       </c>
       <c r="C67" t="n">
-        <v>1.78</v>
+        <v>1.762</v>
       </c>
       <c r="D67" t="n">
-        <v>1.78</v>
+        <v>1.786</v>
       </c>
       <c r="E67" t="n">
-        <v>1.78</v>
+        <v>1.752</v>
       </c>
       <c r="F67" t="n">
-        <v>312348.2921</v>
+        <v>1089259</v>
       </c>
       <c r="G67" t="n">
-        <v>-10920713.55576055</v>
+        <v>-23639497.70382304</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.78</v>
+        <v>1.786</v>
       </c>
       <c r="C68" t="n">
-        <v>1.78</v>
+        <v>1.786</v>
       </c>
       <c r="D68" t="n">
-        <v>1.78</v>
+        <v>1.786</v>
       </c>
       <c r="E68" t="n">
-        <v>1.78</v>
+        <v>1.786</v>
       </c>
       <c r="F68" t="n">
-        <v>8387.006600000001</v>
+        <v>298945.8743</v>
       </c>
       <c r="G68" t="n">
-        <v>-10920713.55576055</v>
+        <v>-23340551.82952304</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.78</v>
+        <v>1.762</v>
       </c>
       <c r="C69" t="n">
-        <v>1.78</v>
+        <v>1.761</v>
       </c>
       <c r="D69" t="n">
-        <v>1.78</v>
+        <v>1.762</v>
       </c>
       <c r="E69" t="n">
-        <v>1.78</v>
+        <v>1.761</v>
       </c>
       <c r="F69" t="n">
-        <v>1161.9669</v>
+        <v>203750.709</v>
       </c>
       <c r="G69" t="n">
-        <v>-10920713.55576055</v>
+        <v>-23544302.53852304</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.788</v>
+        <v>1.786</v>
       </c>
       <c r="C70" t="n">
-        <v>1.788</v>
+        <v>1.786</v>
       </c>
       <c r="D70" t="n">
-        <v>1.788</v>
+        <v>1.786</v>
       </c>
       <c r="E70" t="n">
-        <v>1.788</v>
+        <v>1.786</v>
       </c>
       <c r="F70" t="n">
-        <v>111856.8232662192</v>
+        <v>444665.1009</v>
       </c>
       <c r="G70" t="n">
-        <v>-10808856.73249434</v>
+        <v>-23099637.43762304</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,34 +2973,35 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.778</v>
+        <v>1.785</v>
       </c>
       <c r="C71" t="n">
-        <v>1.776</v>
+        <v>1.785</v>
       </c>
       <c r="D71" t="n">
-        <v>1.778</v>
+        <v>1.785</v>
       </c>
       <c r="E71" t="n">
-        <v>1.776</v>
+        <v>1.785</v>
       </c>
       <c r="F71" t="n">
-        <v>169758.6359</v>
+        <v>281461</v>
       </c>
       <c r="G71" t="n">
-        <v>-10978615.36839434</v>
+        <v>-23381098.43762304</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2877,34 +3009,35 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.776</v>
+        <v>1.762</v>
       </c>
       <c r="C72" t="n">
-        <v>1.776</v>
+        <v>1.764</v>
       </c>
       <c r="D72" t="n">
-        <v>1.776</v>
+        <v>1.785</v>
       </c>
       <c r="E72" t="n">
-        <v>1.776</v>
+        <v>1.754</v>
       </c>
       <c r="F72" t="n">
-        <v>1538.4847</v>
+        <v>3454112</v>
       </c>
       <c r="G72" t="n">
-        <v>-10978615.36839434</v>
+        <v>-26835210.43762304</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2912,34 +3045,35 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.775</v>
+        <v>1.786</v>
       </c>
       <c r="C73" t="n">
-        <v>1.772</v>
+        <v>1.785</v>
       </c>
       <c r="D73" t="n">
-        <v>1.775</v>
+        <v>1.786</v>
       </c>
       <c r="E73" t="n">
-        <v>1.772</v>
+        <v>1.758</v>
       </c>
       <c r="F73" t="n">
-        <v>190821.5044</v>
+        <v>1792558.854</v>
       </c>
       <c r="G73" t="n">
-        <v>-11169436.87279434</v>
+        <v>-25042651.58362304</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2947,34 +3081,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.77</v>
+        <v>1.761</v>
       </c>
       <c r="C74" t="n">
-        <v>1.768</v>
+        <v>1.762</v>
       </c>
       <c r="D74" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="E74" t="n">
-        <v>1.768</v>
+        <v>1.761</v>
       </c>
       <c r="F74" t="n">
-        <v>695375.9417</v>
+        <v>2149943</v>
       </c>
       <c r="G74" t="n">
-        <v>-11864812.81449434</v>
+        <v>-27192594.58362304</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2982,34 +3117,35 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.776</v>
+        <v>1.786</v>
       </c>
       <c r="C75" t="n">
-        <v>1.776</v>
+        <v>1.786</v>
       </c>
       <c r="D75" t="n">
-        <v>1.776</v>
+        <v>1.786</v>
       </c>
       <c r="E75" t="n">
-        <v>1.776</v>
+        <v>1.786</v>
       </c>
       <c r="F75" t="n">
-        <v>322.2518</v>
+        <v>907.146</v>
       </c>
       <c r="G75" t="n">
-        <v>-11864490.56269434</v>
+        <v>-27191687.43762304</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3017,28 +3153,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.776</v>
+        <v>1.785</v>
       </c>
       <c r="C76" t="n">
-        <v>1.788</v>
+        <v>1.762</v>
       </c>
       <c r="D76" t="n">
-        <v>1.788</v>
+        <v>1.785</v>
       </c>
       <c r="E76" t="n">
-        <v>1.776</v>
+        <v>1.762</v>
       </c>
       <c r="F76" t="n">
-        <v>37767.2314</v>
+        <v>1508178</v>
       </c>
       <c r="G76" t="n">
-        <v>-11826723.33129434</v>
+        <v>-28699865.43762304</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,34 +3189,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.787</v>
+        <v>1.785</v>
       </c>
       <c r="C77" t="n">
-        <v>1.787</v>
+        <v>1.761</v>
       </c>
       <c r="D77" t="n">
-        <v>1.787</v>
+        <v>1.785</v>
       </c>
       <c r="E77" t="n">
-        <v>1.771</v>
+        <v>1.759</v>
       </c>
       <c r="F77" t="n">
-        <v>627149</v>
+        <v>1629902</v>
       </c>
       <c r="G77" t="n">
-        <v>-12453872.33129434</v>
+        <v>-30329767.43762304</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3087,28 +3225,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.78</v>
+        <v>1.784</v>
       </c>
       <c r="C78" t="n">
-        <v>1.78</v>
+        <v>1.785</v>
       </c>
       <c r="D78" t="n">
-        <v>1.78</v>
+        <v>1.785</v>
       </c>
       <c r="E78" t="n">
-        <v>1.78</v>
+        <v>1.762</v>
       </c>
       <c r="F78" t="n">
-        <v>1680.6298</v>
+        <v>787010</v>
       </c>
       <c r="G78" t="n">
-        <v>-12455552.96109433</v>
+        <v>-29542757.43762304</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,34 +3261,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.771</v>
+        <v>1.783</v>
       </c>
       <c r="C79" t="n">
-        <v>1.771</v>
+        <v>1.783</v>
       </c>
       <c r="D79" t="n">
-        <v>1.771</v>
+        <v>1.783</v>
       </c>
       <c r="E79" t="n">
-        <v>1.771</v>
+        <v>1.766</v>
       </c>
       <c r="F79" t="n">
-        <v>5032.0274</v>
+        <v>720392</v>
       </c>
       <c r="G79" t="n">
-        <v>-12460584.98849433</v>
+        <v>-30263149.43762304</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3157,28 +3297,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.771</v>
+        <v>1.783</v>
       </c>
       <c r="C80" t="n">
-        <v>1.771</v>
+        <v>1.766</v>
       </c>
       <c r="D80" t="n">
-        <v>1.771</v>
+        <v>1.783</v>
       </c>
       <c r="E80" t="n">
-        <v>1.771</v>
+        <v>1.765</v>
       </c>
       <c r="F80" t="n">
-        <v>50331.737</v>
+        <v>3258482.099</v>
       </c>
       <c r="G80" t="n">
-        <v>-12460584.98849433</v>
+        <v>-33521631.53662304</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3333,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.77</v>
+        <v>1.764</v>
       </c>
       <c r="C81" t="n">
-        <v>1.77</v>
+        <v>1.764</v>
       </c>
       <c r="D81" t="n">
-        <v>1.77</v>
+        <v>1.764</v>
       </c>
       <c r="E81" t="n">
-        <v>1.77</v>
+        <v>1.764</v>
       </c>
       <c r="F81" t="n">
-        <v>21747.4519</v>
+        <v>20259.3245</v>
       </c>
       <c r="G81" t="n">
-        <v>-12482332.44039433</v>
+        <v>-33541890.86112304</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3369,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.769</v>
+        <v>1.78</v>
       </c>
       <c r="C82" t="n">
-        <v>1.768</v>
+        <v>1.78</v>
       </c>
       <c r="D82" t="n">
-        <v>1.769</v>
+        <v>1.78</v>
       </c>
       <c r="E82" t="n">
-        <v>1.768</v>
+        <v>1.78</v>
       </c>
       <c r="F82" t="n">
-        <v>563272.9209</v>
+        <v>447.6516</v>
       </c>
       <c r="G82" t="n">
-        <v>-13045605.36129433</v>
+        <v>-33541443.20952304</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3405,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.78</v>
+        <v>1.765</v>
       </c>
       <c r="C83" t="n">
-        <v>1.78</v>
+        <v>1.762</v>
       </c>
       <c r="D83" t="n">
-        <v>1.78</v>
+        <v>1.765</v>
       </c>
       <c r="E83" t="n">
-        <v>1.78</v>
+        <v>1.762</v>
       </c>
       <c r="F83" t="n">
-        <v>56179.7753</v>
+        <v>86162.4457</v>
       </c>
       <c r="G83" t="n">
-        <v>-12989425.58599433</v>
+        <v>-33627605.65522303</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3441,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.78</v>
+        <v>1.778</v>
       </c>
       <c r="C84" t="n">
-        <v>1.78</v>
+        <v>1.761</v>
       </c>
       <c r="D84" t="n">
-        <v>1.78</v>
+        <v>1.778</v>
       </c>
       <c r="E84" t="n">
-        <v>1.78</v>
+        <v>1.761</v>
       </c>
       <c r="F84" t="n">
-        <v>62265.2189</v>
+        <v>3364999</v>
       </c>
       <c r="G84" t="n">
-        <v>-12989425.58599433</v>
+        <v>-36992604.65522303</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3477,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.78</v>
+        <v>1.761</v>
       </c>
       <c r="C85" t="n">
-        <v>1.78</v>
+        <v>1.761</v>
       </c>
       <c r="D85" t="n">
-        <v>1.78</v>
+        <v>1.778</v>
       </c>
       <c r="E85" t="n">
-        <v>1.78</v>
+        <v>1.761</v>
       </c>
       <c r="F85" t="n">
-        <v>5000</v>
+        <v>949788</v>
       </c>
       <c r="G85" t="n">
-        <v>-12989425.58599433</v>
+        <v>-36992604.65522303</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3513,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="C86" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="D86" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E86" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="F86" t="n">
-        <v>3283.2223</v>
+        <v>808.5718000000001</v>
       </c>
       <c r="G86" t="n">
-        <v>-12992708.80829434</v>
+        <v>-36991796.08342303</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3549,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.78</v>
+        <v>1.761</v>
       </c>
       <c r="C87" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="D87" t="n">
-        <v>1.78</v>
+        <v>1.761</v>
       </c>
       <c r="E87" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="F87" t="n">
-        <v>374.2606</v>
+        <v>61328.5507</v>
       </c>
       <c r="G87" t="n">
-        <v>-12992334.54769433</v>
+        <v>-37053124.63412303</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3585,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="C88" t="n">
-        <v>1.765</v>
+        <v>1.779</v>
       </c>
       <c r="D88" t="n">
-        <v>1.77</v>
+        <v>1.779</v>
       </c>
       <c r="E88" t="n">
-        <v>1.765</v>
+        <v>1.753</v>
       </c>
       <c r="F88" t="n">
-        <v>707457.1048</v>
+        <v>640967.1614</v>
       </c>
       <c r="G88" t="n">
-        <v>-13699791.65249434</v>
+        <v>-36412157.47272304</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3621,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.766</v>
+        <v>1.76</v>
       </c>
       <c r="C89" t="n">
-        <v>1.78</v>
+        <v>1.769</v>
       </c>
       <c r="D89" t="n">
-        <v>1.78</v>
+        <v>1.779</v>
       </c>
       <c r="E89" t="n">
-        <v>1.765</v>
+        <v>1.754</v>
       </c>
       <c r="F89" t="n">
-        <v>17627.6866</v>
+        <v>1355670</v>
       </c>
       <c r="G89" t="n">
-        <v>-13682163.96589434</v>
+        <v>-37767827.47272304</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3657,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.78</v>
+        <v>1.768</v>
       </c>
       <c r="C90" t="n">
-        <v>1.78</v>
+        <v>1.752</v>
       </c>
       <c r="D90" t="n">
-        <v>1.78</v>
+        <v>1.768</v>
       </c>
       <c r="E90" t="n">
-        <v>1.78</v>
+        <v>1.752</v>
       </c>
       <c r="F90" t="n">
-        <v>657.7238</v>
+        <v>816153.4941</v>
       </c>
       <c r="G90" t="n">
-        <v>-13682163.96589434</v>
+        <v>-38583980.96682303</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3693,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.78</v>
+        <v>1.752</v>
       </c>
       <c r="C91" t="n">
-        <v>1.78</v>
+        <v>1.752</v>
       </c>
       <c r="D91" t="n">
-        <v>1.78</v>
+        <v>1.752</v>
       </c>
       <c r="E91" t="n">
-        <v>1.78</v>
+        <v>1.752</v>
       </c>
       <c r="F91" t="n">
-        <v>2000</v>
+        <v>95137.08839999999</v>
       </c>
       <c r="G91" t="n">
-        <v>-13682163.96589434</v>
+        <v>-38583980.96682303</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3729,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="C92" t="n">
-        <v>1.779</v>
+        <v>1.751</v>
       </c>
       <c r="D92" t="n">
-        <v>1.78</v>
+        <v>1.766</v>
       </c>
       <c r="E92" t="n">
-        <v>1.779</v>
+        <v>1.749</v>
       </c>
       <c r="F92" t="n">
-        <v>9581.344999999999</v>
+        <v>1663493.7673</v>
       </c>
       <c r="G92" t="n">
-        <v>-13691745.31089434</v>
+        <v>-40247474.73412304</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3765,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="C93" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="D93" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="E93" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="F93" t="n">
-        <v>824.9411</v>
+        <v>438648.2354</v>
       </c>
       <c r="G93" t="n">
-        <v>-13690920.36979434</v>
+        <v>-40686122.96952303</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,273 +3801,333 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.766</v>
+        <v>1.768</v>
       </c>
       <c r="C94" t="n">
-        <v>1.762</v>
+        <v>1.768</v>
       </c>
       <c r="D94" t="n">
-        <v>1.779</v>
+        <v>1.769</v>
       </c>
       <c r="E94" t="n">
-        <v>1.754</v>
+        <v>1.751</v>
       </c>
       <c r="F94" t="n">
-        <v>3504921.9411</v>
+        <v>2227742.4179</v>
       </c>
       <c r="G94" t="n">
-        <v>-17195842.31089434</v>
+        <v>-38458380.55162303</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.75</v>
+      </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.761</v>
+        <v>1.75</v>
       </c>
       <c r="C95" t="n">
-        <v>1.756</v>
+        <v>1.749</v>
       </c>
       <c r="D95" t="n">
-        <v>1.779</v>
+        <v>1.77</v>
       </c>
       <c r="E95" t="n">
-        <v>1.756</v>
+        <v>1.749</v>
       </c>
       <c r="F95" t="n">
-        <v>897631.025</v>
+        <v>1275796.9329</v>
       </c>
       <c r="G95" t="n">
-        <v>-18093473.33589434</v>
+        <v>-39734177.48452303</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.761</v>
+        <v>1.769</v>
       </c>
       <c r="C96" t="n">
-        <v>1.753</v>
+        <v>1.751</v>
       </c>
       <c r="D96" t="n">
-        <v>1.761</v>
+        <v>1.77</v>
       </c>
       <c r="E96" t="n">
-        <v>1.753</v>
+        <v>1.751</v>
       </c>
       <c r="F96" t="n">
-        <v>560001.8391</v>
+        <v>1307155.6887</v>
       </c>
       <c r="G96" t="n">
-        <v>-18653475.17499433</v>
+        <v>-38427021.79582303</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.755</v>
+        <v>1.769</v>
       </c>
       <c r="C97" t="n">
-        <v>1.755</v>
+        <v>1.769</v>
       </c>
       <c r="D97" t="n">
-        <v>1.755</v>
+        <v>1.769</v>
       </c>
       <c r="E97" t="n">
-        <v>1.755</v>
+        <v>1.769</v>
       </c>
       <c r="F97" t="n">
-        <v>100000</v>
+        <v>400.5334</v>
       </c>
       <c r="G97" t="n">
-        <v>-18553475.17499433</v>
+        <v>-38426621.26242303</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.754</v>
+        <v>1.75</v>
       </c>
       <c r="C98" t="n">
-        <v>1.754</v>
+        <v>1.75</v>
       </c>
       <c r="D98" t="n">
-        <v>1.754</v>
+        <v>1.75</v>
       </c>
       <c r="E98" t="n">
-        <v>1.754</v>
+        <v>1.75</v>
       </c>
       <c r="F98" t="n">
-        <v>30507.6826</v>
+        <v>67328.9659</v>
       </c>
       <c r="G98" t="n">
-        <v>-18583982.85759433</v>
+        <v>-38493950.22832303</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.767</v>
+        <v>1.751</v>
       </c>
       <c r="C99" t="n">
-        <v>1.767</v>
+        <v>1.768</v>
       </c>
       <c r="D99" t="n">
-        <v>1.767</v>
+        <v>1.768</v>
       </c>
       <c r="E99" t="n">
-        <v>1.767</v>
+        <v>1.751</v>
       </c>
       <c r="F99" t="n">
-        <v>14638.339</v>
+        <v>83982.8034</v>
       </c>
       <c r="G99" t="n">
-        <v>-18569344.51859433</v>
+        <v>-38409967.42492303</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.754</v>
+        <v>1.751</v>
       </c>
       <c r="C100" t="n">
-        <v>1.753</v>
+        <v>1.751</v>
       </c>
       <c r="D100" t="n">
-        <v>1.754</v>
+        <v>1.751</v>
       </c>
       <c r="E100" t="n">
-        <v>1.753</v>
+        <v>1.751</v>
       </c>
       <c r="F100" t="n">
-        <v>14836.2487</v>
+        <v>5000</v>
       </c>
       <c r="G100" t="n">
-        <v>-18584180.76729433</v>
+        <v>-38414967.42492303</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.765</v>
+        <v>1.751</v>
       </c>
       <c r="C101" t="n">
-        <v>1.765</v>
+        <v>1.752</v>
       </c>
       <c r="D101" t="n">
-        <v>1.765</v>
+        <v>1.752</v>
       </c>
       <c r="E101" t="n">
-        <v>1.765</v>
+        <v>1.751</v>
       </c>
       <c r="F101" t="n">
-        <v>20000</v>
+        <v>121302.4666</v>
       </c>
       <c r="G101" t="n">
-        <v>-18564180.76729433</v>
+        <v>-38293664.95832302</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,138 +4136,172 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.766</v>
+        <v>1.751</v>
       </c>
       <c r="C102" t="n">
-        <v>1.766</v>
+        <v>1.751</v>
       </c>
       <c r="D102" t="n">
-        <v>1.766</v>
+        <v>1.751</v>
       </c>
       <c r="E102" t="n">
-        <v>1.766</v>
+        <v>1.751</v>
       </c>
       <c r="F102" t="n">
-        <v>166148.4135</v>
+        <v>18792.7936</v>
       </c>
       <c r="G102" t="n">
-        <v>-18398032.35379433</v>
+        <v>-38312457.75192302</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.778</v>
+        <v>1.75</v>
       </c>
       <c r="C103" t="n">
-        <v>1.779</v>
+        <v>1.75</v>
       </c>
       <c r="D103" t="n">
-        <v>1.779</v>
+        <v>1.75</v>
       </c>
       <c r="E103" t="n">
-        <v>1.778</v>
+        <v>1.75</v>
       </c>
       <c r="F103" t="n">
-        <v>6219.0602</v>
+        <v>11207.1469</v>
       </c>
       <c r="G103" t="n">
-        <v>-18391813.29359433</v>
+        <v>-38323664.89882302</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.778</v>
+        <v>1.779</v>
       </c>
       <c r="C104" t="n">
-        <v>1.778</v>
+        <v>1.779</v>
       </c>
       <c r="D104" t="n">
-        <v>1.778</v>
+        <v>1.779</v>
       </c>
       <c r="E104" t="n">
-        <v>1.754</v>
+        <v>1.751</v>
       </c>
       <c r="F104" t="n">
-        <v>3110020</v>
+        <v>2963788</v>
       </c>
       <c r="G104" t="n">
-        <v>-21501833.29359433</v>
+        <v>-35359876.89882302</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.754</v>
+        <v>1.761</v>
       </c>
       <c r="C105" t="n">
-        <v>1.754</v>
+        <v>1.777</v>
       </c>
       <c r="D105" t="n">
-        <v>1.778</v>
+        <v>1.779</v>
       </c>
       <c r="E105" t="n">
-        <v>1.754</v>
+        <v>1.761</v>
       </c>
       <c r="F105" t="n">
-        <v>1178097</v>
+        <v>1189875.2507</v>
       </c>
       <c r="G105" t="n">
-        <v>-22679930.29359433</v>
+        <v>-36549752.14952302</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,33 +4310,40 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.76</v>
+        <v>1.775</v>
       </c>
       <c r="C106" t="n">
-        <v>1.765</v>
+        <v>1.775</v>
       </c>
       <c r="D106" t="n">
-        <v>1.765</v>
+        <v>1.775</v>
       </c>
       <c r="E106" t="n">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="F106" t="n">
-        <v>1220514.3919</v>
+        <v>5000</v>
       </c>
       <c r="G106" t="n">
-        <v>-21459415.90169434</v>
+        <v>-36554752.14952302</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,33 +4352,40 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.768</v>
+        <v>1.77</v>
       </c>
       <c r="C107" t="n">
-        <v>1.787</v>
+        <v>1.77</v>
       </c>
       <c r="D107" t="n">
-        <v>1.787</v>
+        <v>1.77</v>
       </c>
       <c r="E107" t="n">
-        <v>1.768</v>
+        <v>1.77</v>
       </c>
       <c r="F107" t="n">
-        <v>1419893.197871293</v>
+        <v>5000</v>
       </c>
       <c r="G107" t="n">
-        <v>-20039522.70382304</v>
+        <v>-36559752.14952302</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,68 +4394,84 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.786</v>
+        <v>1.751</v>
       </c>
       <c r="C108" t="n">
-        <v>1.786</v>
+        <v>1.76</v>
       </c>
       <c r="D108" t="n">
-        <v>1.786</v>
+        <v>1.76</v>
       </c>
       <c r="E108" t="n">
-        <v>1.751</v>
+        <v>1.749</v>
       </c>
       <c r="F108" t="n">
-        <v>2510716</v>
+        <v>261946.1688</v>
       </c>
       <c r="G108" t="n">
-        <v>-22550238.70382304</v>
+        <v>-36821698.31832302</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.752</v>
+        <v>1.751</v>
       </c>
       <c r="C109" t="n">
-        <v>1.762</v>
+        <v>1.751</v>
       </c>
       <c r="D109" t="n">
-        <v>1.786</v>
+        <v>1.751</v>
       </c>
       <c r="E109" t="n">
-        <v>1.752</v>
+        <v>1.751</v>
       </c>
       <c r="F109" t="n">
-        <v>1089259</v>
+        <v>20913.6097</v>
       </c>
       <c r="G109" t="n">
-        <v>-23639497.70382304</v>
+        <v>-36842611.92802302</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,33 +4480,40 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.786</v>
+        <v>1.769</v>
       </c>
       <c r="C110" t="n">
-        <v>1.786</v>
+        <v>1.769</v>
       </c>
       <c r="D110" t="n">
-        <v>1.786</v>
+        <v>1.769</v>
       </c>
       <c r="E110" t="n">
-        <v>1.786</v>
+        <v>1.769</v>
       </c>
       <c r="F110" t="n">
-        <v>298945.8743</v>
+        <v>471.3231</v>
       </c>
       <c r="G110" t="n">
-        <v>-23340551.82952304</v>
+        <v>-36842140.60492302</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,33 +4522,40 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.762</v>
+        <v>1.751</v>
       </c>
       <c r="C111" t="n">
-        <v>1.761</v>
+        <v>1.751</v>
       </c>
       <c r="D111" t="n">
-        <v>1.762</v>
+        <v>1.751</v>
       </c>
       <c r="E111" t="n">
-        <v>1.761</v>
+        <v>1.751</v>
       </c>
       <c r="F111" t="n">
-        <v>203750.709</v>
+        <v>10456.8048</v>
       </c>
       <c r="G111" t="n">
-        <v>-23544302.53852304</v>
+        <v>-36852597.40972301</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,33 +4564,40 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.786</v>
+        <v>1.751</v>
       </c>
       <c r="C112" t="n">
-        <v>1.786</v>
+        <v>1.77</v>
       </c>
       <c r="D112" t="n">
-        <v>1.786</v>
+        <v>1.77</v>
       </c>
       <c r="E112" t="n">
-        <v>1.786</v>
+        <v>1.75</v>
       </c>
       <c r="F112" t="n">
-        <v>444665.1009</v>
+        <v>712064.4024</v>
       </c>
       <c r="G112" t="n">
-        <v>-23099637.43762304</v>
+        <v>-36140533.00732301</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4307,33 +4606,40 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.785</v>
+        <v>1.76</v>
       </c>
       <c r="C113" t="n">
-        <v>1.785</v>
+        <v>1.77</v>
       </c>
       <c r="D113" t="n">
-        <v>1.785</v>
+        <v>1.77</v>
       </c>
       <c r="E113" t="n">
-        <v>1.785</v>
+        <v>1.76</v>
       </c>
       <c r="F113" t="n">
-        <v>281461</v>
+        <v>265217</v>
       </c>
       <c r="G113" t="n">
-        <v>-23381098.43762304</v>
+        <v>-36140533.00732301</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4342,33 +4648,40 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.762</v>
+        <v>1.75</v>
       </c>
       <c r="C114" t="n">
-        <v>1.764</v>
+        <v>1.751</v>
       </c>
       <c r="D114" t="n">
-        <v>1.785</v>
+        <v>1.77</v>
       </c>
       <c r="E114" t="n">
-        <v>1.754</v>
+        <v>1.75</v>
       </c>
       <c r="F114" t="n">
-        <v>3454112</v>
+        <v>2762679</v>
       </c>
       <c r="G114" t="n">
-        <v>-26835210.43762304</v>
+        <v>-38903212.00732301</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4377,33 +4690,40 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.786</v>
+        <v>1.77</v>
       </c>
       <c r="C115" t="n">
-        <v>1.785</v>
+        <v>1.77</v>
       </c>
       <c r="D115" t="n">
-        <v>1.786</v>
+        <v>1.77</v>
       </c>
       <c r="E115" t="n">
-        <v>1.758</v>
+        <v>1.77</v>
       </c>
       <c r="F115" t="n">
-        <v>1792558.854</v>
+        <v>472.6883</v>
       </c>
       <c r="G115" t="n">
-        <v>-25042651.58362304</v>
+        <v>-38902739.31902301</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4412,33 +4732,40 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.761</v>
+        <v>1.751</v>
       </c>
       <c r="C116" t="n">
-        <v>1.762</v>
+        <v>1.751</v>
       </c>
       <c r="D116" t="n">
-        <v>1.785</v>
+        <v>1.751</v>
       </c>
       <c r="E116" t="n">
-        <v>1.761</v>
+        <v>1.751</v>
       </c>
       <c r="F116" t="n">
-        <v>2149943</v>
+        <v>1195.9012</v>
       </c>
       <c r="G116" t="n">
-        <v>-27192594.58362304</v>
+        <v>-38903935.22022301</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4447,33 +4774,40 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.786</v>
+        <v>1.768</v>
       </c>
       <c r="C117" t="n">
-        <v>1.786</v>
+        <v>1.768</v>
       </c>
       <c r="D117" t="n">
-        <v>1.786</v>
+        <v>1.768</v>
       </c>
       <c r="E117" t="n">
-        <v>1.786</v>
+        <v>1.752</v>
       </c>
       <c r="F117" t="n">
-        <v>907.146</v>
+        <v>1063580</v>
       </c>
       <c r="G117" t="n">
-        <v>-27191687.43762304</v>
+        <v>-37840355.22022301</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4482,33 +4816,40 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.785</v>
+        <v>1.752</v>
       </c>
       <c r="C118" t="n">
-        <v>1.762</v>
+        <v>1.752</v>
       </c>
       <c r="D118" t="n">
-        <v>1.785</v>
+        <v>1.768</v>
       </c>
       <c r="E118" t="n">
-        <v>1.762</v>
+        <v>1.752</v>
       </c>
       <c r="F118" t="n">
-        <v>1508178</v>
+        <v>2695466</v>
       </c>
       <c r="G118" t="n">
-        <v>-28699865.43762304</v>
+        <v>-40535821.22022301</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4517,33 +4858,40 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.785</v>
+        <v>1.768</v>
       </c>
       <c r="C119" t="n">
-        <v>1.761</v>
+        <v>1.768</v>
       </c>
       <c r="D119" t="n">
-        <v>1.785</v>
+        <v>1.768</v>
       </c>
       <c r="E119" t="n">
-        <v>1.759</v>
+        <v>1.768</v>
       </c>
       <c r="F119" t="n">
-        <v>1629902</v>
+        <v>1063.739</v>
       </c>
       <c r="G119" t="n">
-        <v>-30329767.43762304</v>
+        <v>-40534757.48122301</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4552,33 +4900,40 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.784</v>
+        <v>1.752</v>
       </c>
       <c r="C120" t="n">
-        <v>1.785</v>
+        <v>1.752</v>
       </c>
       <c r="D120" t="n">
-        <v>1.785</v>
+        <v>1.752</v>
       </c>
       <c r="E120" t="n">
-        <v>1.762</v>
+        <v>1.752</v>
       </c>
       <c r="F120" t="n">
-        <v>787010</v>
+        <v>11531.3825</v>
       </c>
       <c r="G120" t="n">
-        <v>-29542757.43762304</v>
+        <v>-40546288.86372301</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4587,33 +4942,40 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.783</v>
+        <v>1.768</v>
       </c>
       <c r="C121" t="n">
-        <v>1.783</v>
+        <v>1.768</v>
       </c>
       <c r="D121" t="n">
-        <v>1.783</v>
+        <v>1.768</v>
       </c>
       <c r="E121" t="n">
-        <v>1.766</v>
+        <v>1.768</v>
       </c>
       <c r="F121" t="n">
-        <v>720392</v>
+        <v>1339.332</v>
       </c>
       <c r="G121" t="n">
-        <v>-30263149.43762304</v>
+        <v>-40544949.53172301</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4622,33 +4984,40 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.783</v>
+        <v>1.753</v>
       </c>
       <c r="C122" t="n">
-        <v>1.766</v>
+        <v>1.752</v>
       </c>
       <c r="D122" t="n">
-        <v>1.783</v>
+        <v>1.753</v>
       </c>
       <c r="E122" t="n">
-        <v>1.765</v>
+        <v>1.752</v>
       </c>
       <c r="F122" t="n">
-        <v>3258482.099</v>
+        <v>247219.0026</v>
       </c>
       <c r="G122" t="n">
-        <v>-33521631.53662304</v>
+        <v>-40792168.53432301</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4657,33 +5026,40 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.764</v>
+        <v>1.768</v>
       </c>
       <c r="C123" t="n">
-        <v>1.764</v>
+        <v>1.768</v>
       </c>
       <c r="D123" t="n">
-        <v>1.764</v>
+        <v>1.768</v>
       </c>
       <c r="E123" t="n">
-        <v>1.764</v>
+        <v>1.768</v>
       </c>
       <c r="F123" t="n">
-        <v>20259.3245</v>
+        <v>738.5771</v>
       </c>
       <c r="G123" t="n">
-        <v>-33541890.86112304</v>
+        <v>-40791429.95722301</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4692,33 +5068,40 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.78</v>
+        <v>1.767</v>
       </c>
       <c r="C124" t="n">
-        <v>1.78</v>
+        <v>1.752</v>
       </c>
       <c r="D124" t="n">
-        <v>1.78</v>
+        <v>1.767</v>
       </c>
       <c r="E124" t="n">
-        <v>1.78</v>
+        <v>1.752</v>
       </c>
       <c r="F124" t="n">
-        <v>447.6516</v>
+        <v>3572727</v>
       </c>
       <c r="G124" t="n">
-        <v>-33541443.20952304</v>
+        <v>-44364156.95722301</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4727,33 +5110,40 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.765</v>
+        <v>1.77</v>
       </c>
       <c r="C125" t="n">
-        <v>1.762</v>
+        <v>1.771</v>
       </c>
       <c r="D125" t="n">
-        <v>1.765</v>
+        <v>1.771</v>
       </c>
       <c r="E125" t="n">
-        <v>1.762</v>
+        <v>1.752</v>
       </c>
       <c r="F125" t="n">
-        <v>86162.4457</v>
+        <v>643932.7199</v>
       </c>
       <c r="G125" t="n">
-        <v>-33627605.65522303</v>
+        <v>-43720224.23732301</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4762,33 +5152,40 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.778</v>
+        <v>1.752</v>
       </c>
       <c r="C126" t="n">
-        <v>1.761</v>
+        <v>1.751</v>
       </c>
       <c r="D126" t="n">
-        <v>1.778</v>
+        <v>1.752</v>
       </c>
       <c r="E126" t="n">
-        <v>1.761</v>
+        <v>1.751</v>
       </c>
       <c r="F126" t="n">
-        <v>3364999</v>
+        <v>121100.4144</v>
       </c>
       <c r="G126" t="n">
-        <v>-36992604.65522303</v>
+        <v>-43841324.651723</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4797,33 +5194,40 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.761</v>
+        <v>1.769</v>
       </c>
       <c r="C127" t="n">
-        <v>1.761</v>
+        <v>1.769</v>
       </c>
       <c r="D127" t="n">
-        <v>1.778</v>
+        <v>1.769</v>
       </c>
       <c r="E127" t="n">
-        <v>1.761</v>
+        <v>1.769</v>
       </c>
       <c r="F127" t="n">
-        <v>949788</v>
+        <v>597.7971</v>
       </c>
       <c r="G127" t="n">
-        <v>-36992604.65522303</v>
+        <v>-43840726.854623</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4832,33 +5236,40 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.78</v>
+        <v>1.768</v>
       </c>
       <c r="C128" t="n">
-        <v>1.78</v>
+        <v>1.768</v>
       </c>
       <c r="D128" t="n">
-        <v>1.78</v>
+        <v>1.768</v>
       </c>
       <c r="E128" t="n">
-        <v>1.78</v>
+        <v>1.752</v>
       </c>
       <c r="F128" t="n">
-        <v>808.5718000000001</v>
+        <v>3077094</v>
       </c>
       <c r="G128" t="n">
-        <v>-36991796.08342303</v>
+        <v>-46917820.854623</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4867,33 +5278,40 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.761</v>
+        <v>1.752</v>
       </c>
       <c r="C129" t="n">
-        <v>1.76</v>
+        <v>1.751</v>
       </c>
       <c r="D129" t="n">
-        <v>1.761</v>
+        <v>1.752</v>
       </c>
       <c r="E129" t="n">
-        <v>1.76</v>
+        <v>1.751</v>
       </c>
       <c r="F129" t="n">
-        <v>61328.5507</v>
+        <v>717782.7872</v>
       </c>
       <c r="G129" t="n">
-        <v>-37053124.63412303</v>
+        <v>-47635603.641823</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4902,33 +5320,40 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="C130" t="n">
-        <v>1.779</v>
+        <v>1.748</v>
       </c>
       <c r="D130" t="n">
-        <v>1.779</v>
+        <v>1.75</v>
       </c>
       <c r="E130" t="n">
-        <v>1.753</v>
+        <v>1.748</v>
       </c>
       <c r="F130" t="n">
-        <v>640967.1614</v>
+        <v>222628.2495</v>
       </c>
       <c r="G130" t="n">
-        <v>-36412157.47272304</v>
+        <v>-47858231.891323</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4937,33 +5362,40 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.76</v>
+        <v>1.748</v>
       </c>
       <c r="C131" t="n">
-        <v>1.769</v>
+        <v>1.748</v>
       </c>
       <c r="D131" t="n">
-        <v>1.779</v>
+        <v>1.748</v>
       </c>
       <c r="E131" t="n">
-        <v>1.754</v>
+        <v>1.748</v>
       </c>
       <c r="F131" t="n">
-        <v>1355670</v>
+        <v>287</v>
       </c>
       <c r="G131" t="n">
-        <v>-37767827.47272304</v>
+        <v>-47858231.891323</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4972,33 +5404,40 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.768</v>
+        <v>1.748</v>
       </c>
       <c r="C132" t="n">
-        <v>1.752</v>
+        <v>1.748</v>
       </c>
       <c r="D132" t="n">
-        <v>1.768</v>
+        <v>1.748</v>
       </c>
       <c r="E132" t="n">
-        <v>1.752</v>
+        <v>1.748</v>
       </c>
       <c r="F132" t="n">
-        <v>816153.4941</v>
+        <v>287</v>
       </c>
       <c r="G132" t="n">
-        <v>-38583980.96682303</v>
+        <v>-47858231.891323</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5007,33 +5446,40 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.752</v>
+        <v>1.748</v>
       </c>
       <c r="C133" t="n">
-        <v>1.752</v>
+        <v>1.748</v>
       </c>
       <c r="D133" t="n">
-        <v>1.752</v>
+        <v>1.748</v>
       </c>
       <c r="E133" t="n">
-        <v>1.752</v>
+        <v>1.748</v>
       </c>
       <c r="F133" t="n">
-        <v>95137.08839999999</v>
+        <v>287</v>
       </c>
       <c r="G133" t="n">
-        <v>-38583980.96682303</v>
+        <v>-47858231.891323</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5042,33 +5488,40 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.75</v>
+        <v>1.747</v>
       </c>
       <c r="C134" t="n">
-        <v>1.751</v>
+        <v>1.747</v>
       </c>
       <c r="D134" t="n">
-        <v>1.766</v>
+        <v>1.747</v>
       </c>
       <c r="E134" t="n">
-        <v>1.749</v>
+        <v>1.747</v>
       </c>
       <c r="F134" t="n">
-        <v>1663493.7673</v>
+        <v>287</v>
       </c>
       <c r="G134" t="n">
-        <v>-40247474.73412304</v>
+        <v>-47858518.891323</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5077,33 +5530,40 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.75</v>
+        <v>1.746</v>
       </c>
       <c r="C135" t="n">
-        <v>1.75</v>
+        <v>1.744</v>
       </c>
       <c r="D135" t="n">
-        <v>1.75</v>
+        <v>1.746</v>
       </c>
       <c r="E135" t="n">
-        <v>1.75</v>
+        <v>1.744</v>
       </c>
       <c r="F135" t="n">
-        <v>438648.2354</v>
+        <v>107072.9986</v>
       </c>
       <c r="G135" t="n">
-        <v>-40686122.96952303</v>
+        <v>-47965591.889923</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5112,33 +5572,40 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.768</v>
+        <v>1.743</v>
       </c>
       <c r="C136" t="n">
-        <v>1.768</v>
+        <v>1.743</v>
       </c>
       <c r="D136" t="n">
-        <v>1.769</v>
+        <v>1.743</v>
       </c>
       <c r="E136" t="n">
-        <v>1.751</v>
+        <v>1.743</v>
       </c>
       <c r="F136" t="n">
-        <v>2227742.4179</v>
+        <v>700</v>
       </c>
       <c r="G136" t="n">
-        <v>-38458380.55162303</v>
+        <v>-47966291.889923</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5147,33 +5614,40 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.75</v>
+        <v>1.748</v>
       </c>
       <c r="C137" t="n">
-        <v>1.749</v>
+        <v>1.748</v>
       </c>
       <c r="D137" t="n">
-        <v>1.77</v>
+        <v>1.748</v>
       </c>
       <c r="E137" t="n">
-        <v>1.749</v>
+        <v>1.748</v>
       </c>
       <c r="F137" t="n">
-        <v>1275796.9329</v>
+        <v>1158.2026</v>
       </c>
       <c r="G137" t="n">
-        <v>-39734177.48452303</v>
+        <v>-47965133.687323</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5182,33 +5656,40 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.769</v>
+        <v>1.747</v>
       </c>
       <c r="C138" t="n">
-        <v>1.751</v>
+        <v>1.747</v>
       </c>
       <c r="D138" t="n">
-        <v>1.77</v>
+        <v>1.747</v>
       </c>
       <c r="E138" t="n">
-        <v>1.751</v>
+        <v>1.747</v>
       </c>
       <c r="F138" t="n">
-        <v>1307155.6887</v>
+        <v>286.205</v>
       </c>
       <c r="G138" t="n">
-        <v>-38427021.79582303</v>
+        <v>-47965419.89232299</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5217,18 +5698,25 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.769</v>
+        <v>1.747</v>
       </c>
       <c r="C139" t="n">
         <v>1.769</v>
@@ -5237,13 +5725,13 @@
         <v>1.769</v>
       </c>
       <c r="E139" t="n">
-        <v>1.769</v>
+        <v>1.747</v>
       </c>
       <c r="F139" t="n">
-        <v>400.5334</v>
+        <v>650955.1742</v>
       </c>
       <c r="G139" t="n">
-        <v>-38426621.26242303</v>
+        <v>-47314464.718123</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5252,33 +5740,40 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.75</v>
+        <v>1.769</v>
       </c>
       <c r="C140" t="n">
-        <v>1.75</v>
+        <v>1.751</v>
       </c>
       <c r="D140" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="E140" t="n">
-        <v>1.75</v>
+        <v>1.743</v>
       </c>
       <c r="F140" t="n">
-        <v>67328.9659</v>
+        <v>2837421.2859</v>
       </c>
       <c r="G140" t="n">
-        <v>-38493950.22832303</v>
+        <v>-50151886.00402299</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5287,33 +5782,40 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.751</v>
+        <v>1.769</v>
       </c>
       <c r="C141" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="D141" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="E141" t="n">
-        <v>1.751</v>
+        <v>1.769</v>
       </c>
       <c r="F141" t="n">
-        <v>83982.8034</v>
+        <v>981.2258</v>
       </c>
       <c r="G141" t="n">
-        <v>-38409967.42492303</v>
+        <v>-50150904.77822299</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5322,33 +5824,40 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.751</v>
+        <v>1.766</v>
       </c>
       <c r="C142" t="n">
-        <v>1.751</v>
+        <v>1.77</v>
       </c>
       <c r="D142" t="n">
-        <v>1.751</v>
+        <v>1.77</v>
       </c>
       <c r="E142" t="n">
-        <v>1.751</v>
+        <v>1.766</v>
       </c>
       <c r="F142" t="n">
-        <v>5000</v>
+        <v>6602.5405</v>
       </c>
       <c r="G142" t="n">
-        <v>-38414967.42492303</v>
+        <v>-50144302.23772299</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5357,33 +5866,40 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.751</v>
+        <v>1.747</v>
       </c>
       <c r="C143" t="n">
-        <v>1.752</v>
+        <v>1.746</v>
       </c>
       <c r="D143" t="n">
-        <v>1.752</v>
+        <v>1.747</v>
       </c>
       <c r="E143" t="n">
-        <v>1.751</v>
+        <v>1.746</v>
       </c>
       <c r="F143" t="n">
-        <v>121302.4666</v>
+        <v>6299.046</v>
       </c>
       <c r="G143" t="n">
-        <v>-38293664.95832302</v>
+        <v>-50150601.28372299</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5392,33 +5908,40 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.751</v>
+        <v>1.769</v>
       </c>
       <c r="C144" t="n">
-        <v>1.751</v>
+        <v>1.77</v>
       </c>
       <c r="D144" t="n">
-        <v>1.751</v>
+        <v>1.77</v>
       </c>
       <c r="E144" t="n">
-        <v>1.751</v>
+        <v>1.769</v>
       </c>
       <c r="F144" t="n">
-        <v>18792.7936</v>
+        <v>1899.812</v>
       </c>
       <c r="G144" t="n">
-        <v>-38312457.75192302</v>
+        <v>-50148701.47172299</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5427,33 +5950,40 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.75</v>
+        <v>1.769</v>
       </c>
       <c r="C145" t="n">
-        <v>1.75</v>
+        <v>1.752</v>
       </c>
       <c r="D145" t="n">
-        <v>1.75</v>
+        <v>1.769</v>
       </c>
       <c r="E145" t="n">
-        <v>1.75</v>
+        <v>1.752</v>
       </c>
       <c r="F145" t="n">
-        <v>11207.1469</v>
+        <v>657057</v>
       </c>
       <c r="G145" t="n">
-        <v>-38323664.89882302</v>
+        <v>-50805758.47172299</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5462,33 +5992,40 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.779</v>
+        <v>1.769</v>
       </c>
       <c r="C146" t="n">
-        <v>1.779</v>
+        <v>1.751</v>
       </c>
       <c r="D146" t="n">
-        <v>1.779</v>
+        <v>1.769</v>
       </c>
       <c r="E146" t="n">
-        <v>1.751</v>
+        <v>1.745</v>
       </c>
       <c r="F146" t="n">
-        <v>2963788</v>
+        <v>2756999</v>
       </c>
       <c r="G146" t="n">
-        <v>-35359876.89882302</v>
+        <v>-53562757.47172299</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5497,33 +6034,40 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.761</v>
+        <v>1.767</v>
       </c>
       <c r="C147" t="n">
-        <v>1.777</v>
+        <v>1.767</v>
       </c>
       <c r="D147" t="n">
-        <v>1.779</v>
+        <v>1.767</v>
       </c>
       <c r="E147" t="n">
-        <v>1.761</v>
+        <v>1.767</v>
       </c>
       <c r="F147" t="n">
-        <v>1189875.2507</v>
+        <v>538.6268</v>
       </c>
       <c r="G147" t="n">
-        <v>-36549752.14952302</v>
+        <v>-53562218.84492299</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5532,33 +6076,40 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.775</v>
+        <v>1.767</v>
       </c>
       <c r="C148" t="n">
-        <v>1.775</v>
+        <v>1.751</v>
       </c>
       <c r="D148" t="n">
-        <v>1.775</v>
+        <v>1.767</v>
       </c>
       <c r="E148" t="n">
-        <v>1.775</v>
+        <v>1.751</v>
       </c>
       <c r="F148" t="n">
-        <v>5000</v>
+        <v>601582.3205</v>
       </c>
       <c r="G148" t="n">
-        <v>-36554752.14952302</v>
+        <v>-54163801.16542299</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5567,33 +6118,40 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.77</v>
+        <v>1.766</v>
       </c>
       <c r="C149" t="n">
-        <v>1.77</v>
+        <v>1.751</v>
       </c>
       <c r="D149" t="n">
-        <v>1.77</v>
+        <v>1.766</v>
       </c>
       <c r="E149" t="n">
-        <v>1.77</v>
+        <v>1.751</v>
       </c>
       <c r="F149" t="n">
-        <v>5000</v>
+        <v>2902648</v>
       </c>
       <c r="G149" t="n">
-        <v>-36559752.14952302</v>
+        <v>-54163801.16542299</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5602,33 +6160,40 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.751</v>
+        <v>1.767</v>
       </c>
       <c r="C150" t="n">
-        <v>1.76</v>
+        <v>1.767</v>
       </c>
       <c r="D150" t="n">
-        <v>1.76</v>
+        <v>1.767</v>
       </c>
       <c r="E150" t="n">
-        <v>1.749</v>
+        <v>1.767</v>
       </c>
       <c r="F150" t="n">
-        <v>261946.1688</v>
+        <v>1386.6705</v>
       </c>
       <c r="G150" t="n">
-        <v>-36821698.31832302</v>
+        <v>-54162414.49492299</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5637,33 +6202,40 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.751</v>
+        <v>1.752</v>
       </c>
       <c r="C151" t="n">
-        <v>1.751</v>
+        <v>1.74</v>
       </c>
       <c r="D151" t="n">
-        <v>1.751</v>
+        <v>1.752</v>
       </c>
       <c r="E151" t="n">
-        <v>1.751</v>
+        <v>1.74</v>
       </c>
       <c r="F151" t="n">
-        <v>20913.6097</v>
+        <v>200000</v>
       </c>
       <c r="G151" t="n">
-        <v>-36842611.92802302</v>
+        <v>-54362414.49492299</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5672,33 +6244,40 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.769</v>
+        <v>1.759</v>
       </c>
       <c r="C152" t="n">
-        <v>1.769</v>
+        <v>1.759</v>
       </c>
       <c r="D152" t="n">
-        <v>1.769</v>
+        <v>1.759</v>
       </c>
       <c r="E152" t="n">
-        <v>1.769</v>
+        <v>1.759</v>
       </c>
       <c r="F152" t="n">
-        <v>471.3231</v>
+        <v>385.3062</v>
       </c>
       <c r="G152" t="n">
-        <v>-36842140.60492302</v>
+        <v>-54362029.18872299</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5707,1559 +6286,18 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="E153" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="F153" t="n">
-        <v>10456.8048</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-36852597.40972301</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E154" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F154" t="n">
-        <v>712064.4024</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-36140533.00732301</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E155" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="F155" t="n">
-        <v>265217</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-36140533.00732301</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E156" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F156" t="n">
-        <v>2762679</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-38903212.00732301</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="F157" t="n">
-        <v>472.6883</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-38902739.31902301</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="E158" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1195.9012</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-38903935.22022301</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1063580</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-37840355.22022301</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="E160" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2695466</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-40535821.22022301</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="D161" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="E161" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1063.739</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-40534757.48122301</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="D162" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="E162" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="F162" t="n">
-        <v>11531.3825</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-40546288.86372301</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1339.332</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-40544949.53172301</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>1.753</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1.753</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="F164" t="n">
-        <v>247219.0026</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-40792168.53432301</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="D165" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="E165" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="F165" t="n">
-        <v>738.5771</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-40791429.95722301</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="F166" t="n">
-        <v>3572727</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-44364156.95722301</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="D167" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="F167" t="n">
-        <v>643932.7199</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-43720224.23732301</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="F168" t="n">
-        <v>121100.4144</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-43841324.651723</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="F169" t="n">
-        <v>597.7971</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-43840726.854623</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="F170" t="n">
-        <v>3077094</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-46917820.854623</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="F171" t="n">
-        <v>717782.7872</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-47635603.641823</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="F172" t="n">
-        <v>222628.2495</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-47858231.891323</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="D173" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="F173" t="n">
-        <v>287</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-47858231.891323</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="F174" t="n">
-        <v>287</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-47858231.891323</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="F175" t="n">
-        <v>287</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-47858231.891323</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="D176" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="E176" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="F176" t="n">
-        <v>287</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-47858518.891323</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>1.746</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1.746</v>
-      </c>
-      <c r="E177" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="F177" t="n">
-        <v>107072.9986</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-47965591.889923</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="F178" t="n">
-        <v>700</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-47966291.889923</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1158.2026</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-47965133.687323</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="F180" t="n">
-        <v>286.205</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-47965419.89232299</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="D181" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="F181" t="n">
-        <v>650955.1742</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-47314464.718123</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="D182" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E182" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="F182" t="n">
-        <v>2837421.2859</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-50151886.00402299</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="D183" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="F183" t="n">
-        <v>981.2258</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-50150904.77822299</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>1.766</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E184" t="n">
-        <v>1.766</v>
-      </c>
-      <c r="F184" t="n">
-        <v>6602.5405</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-50144302.23772299</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1.746</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="E185" t="n">
-        <v>1.746</v>
-      </c>
-      <c r="F185" t="n">
-        <v>6299.046</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-50150601.28372299</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E186" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1899.812</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-50148701.47172299</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="D187" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="E187" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="F187" t="n">
-        <v>657057</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-50805758.47172299</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="D188" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="E188" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="F188" t="n">
-        <v>2756999</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-53562757.47172299</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="D189" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="E189" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="F189" t="n">
-        <v>538.6268</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-53562218.84492299</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="D190" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="E190" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="F190" t="n">
-        <v>601582.3205</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-54163801.16542299</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>1.766</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="D191" t="n">
-        <v>1.766</v>
-      </c>
-      <c r="E191" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2902648</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-54163801.16542299</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="D192" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="E192" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1386.6705</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-54162414.49492299</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D193" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="E193" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F193" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-54362414.49492299</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="D194" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="E194" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="F194" t="n">
-        <v>385.3062</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-54362029.18872299</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
+      <c r="N152" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest AOA.xlsx
+++ b/BackTest/2020-01-23 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:N223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.787</v>
+        <v>1.776</v>
       </c>
       <c r="C2" t="n">
-        <v>1.787</v>
+        <v>1.776</v>
       </c>
       <c r="D2" t="n">
-        <v>1.787</v>
+        <v>1.776</v>
       </c>
       <c r="E2" t="n">
-        <v>1.787</v>
+        <v>1.776</v>
       </c>
       <c r="F2" t="n">
-        <v>1081.0327</v>
+        <v>129558.4208</v>
       </c>
       <c r="G2" t="n">
-        <v>-10287853.53236056</v>
+        <v>-5290774.743860556</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.787</v>
+        <v>1.798</v>
       </c>
       <c r="C3" t="n">
-        <v>1.787</v>
+        <v>1.777</v>
       </c>
       <c r="D3" t="n">
-        <v>1.787</v>
+        <v>1.798</v>
       </c>
       <c r="E3" t="n">
-        <v>1.787</v>
+        <v>1.777</v>
       </c>
       <c r="F3" t="n">
-        <v>48918.9673</v>
+        <v>2607780</v>
       </c>
       <c r="G3" t="n">
-        <v>-10287853.53236056</v>
+        <v>-2682994.743860556</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.788</v>
+        <v>1.798</v>
       </c>
       <c r="C4" t="n">
-        <v>1.788</v>
+        <v>1.777</v>
       </c>
       <c r="D4" t="n">
-        <v>1.788</v>
+        <v>1.798</v>
       </c>
       <c r="E4" t="n">
-        <v>1.788</v>
+        <v>1.777</v>
       </c>
       <c r="F4" t="n">
-        <v>800</v>
+        <v>829828</v>
       </c>
       <c r="G4" t="n">
-        <v>-10287053.53236056</v>
+        <v>-2682994.743860556</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.787</v>
+        <v>1.798</v>
       </c>
       <c r="C5" t="n">
-        <v>1.787</v>
+        <v>1.778</v>
       </c>
       <c r="D5" t="n">
-        <v>1.787</v>
+        <v>1.798</v>
       </c>
       <c r="E5" t="n">
-        <v>1.787</v>
+        <v>1.778</v>
       </c>
       <c r="F5" t="n">
-        <v>63526.6966</v>
+        <v>2699574</v>
       </c>
       <c r="G5" t="n">
-        <v>-10350580.22896056</v>
+        <v>16579.25613944419</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.787</v>
+        <v>1.798</v>
       </c>
       <c r="C6" t="n">
-        <v>1.787</v>
+        <v>1.778</v>
       </c>
       <c r="D6" t="n">
-        <v>1.787</v>
+        <v>1.798</v>
       </c>
       <c r="E6" t="n">
-        <v>1.787</v>
+        <v>1.778</v>
       </c>
       <c r="F6" t="n">
-        <v>24348.809</v>
+        <v>732059</v>
       </c>
       <c r="G6" t="n">
-        <v>-10350580.22896056</v>
+        <v>16579.25613944419</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.786</v>
+        <v>1.798</v>
       </c>
       <c r="C7" t="n">
-        <v>1.786</v>
+        <v>1.798</v>
       </c>
       <c r="D7" t="n">
-        <v>1.786</v>
+        <v>1.798</v>
       </c>
       <c r="E7" t="n">
-        <v>1.786</v>
+        <v>1.778</v>
       </c>
       <c r="F7" t="n">
-        <v>100000</v>
+        <v>2233421</v>
       </c>
       <c r="G7" t="n">
-        <v>-10450580.22896056</v>
+        <v>2250000.256139444</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.787</v>
+        <v>1.778</v>
       </c>
       <c r="C8" t="n">
-        <v>1.787</v>
+        <v>1.778</v>
       </c>
       <c r="D8" t="n">
-        <v>1.787</v>
+        <v>1.798</v>
       </c>
       <c r="E8" t="n">
-        <v>1.787</v>
+        <v>1.778</v>
       </c>
       <c r="F8" t="n">
-        <v>750.0939</v>
+        <v>1169688</v>
       </c>
       <c r="G8" t="n">
-        <v>-10449830.13506056</v>
+        <v>1080312.256139444</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.787</v>
+        <v>1.798</v>
       </c>
       <c r="C9" t="n">
-        <v>1.787</v>
+        <v>1.779</v>
       </c>
       <c r="D9" t="n">
-        <v>1.787</v>
+        <v>1.798</v>
       </c>
       <c r="E9" t="n">
-        <v>1.787</v>
+        <v>1.779</v>
       </c>
       <c r="F9" t="n">
-        <v>1678.791270285395</v>
+        <v>2971439</v>
       </c>
       <c r="G9" t="n">
-        <v>-10449830.13506056</v>
+        <v>4051751.256139444</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.787</v>
+        <v>1.798</v>
       </c>
       <c r="C10" t="n">
-        <v>1.787</v>
+        <v>1.779</v>
       </c>
       <c r="D10" t="n">
-        <v>1.787</v>
+        <v>1.798</v>
       </c>
       <c r="E10" t="n">
-        <v>1.787</v>
+        <v>1.779</v>
       </c>
       <c r="F10" t="n">
-        <v>233000</v>
+        <v>719068</v>
       </c>
       <c r="G10" t="n">
-        <v>-10449830.13506056</v>
+        <v>4051751.256139444</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.787</v>
+        <v>1.795</v>
       </c>
       <c r="C11" t="n">
-        <v>1.787</v>
+        <v>1.795</v>
       </c>
       <c r="D11" t="n">
-        <v>1.787</v>
+        <v>1.795</v>
       </c>
       <c r="E11" t="n">
-        <v>1.787</v>
+        <v>1.795</v>
       </c>
       <c r="F11" t="n">
-        <v>600.8017297146055</v>
+        <v>20000</v>
       </c>
       <c r="G11" t="n">
-        <v>-10449830.13506056</v>
+        <v>4071751.256139444</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.788</v>
+        <v>1.78</v>
       </c>
       <c r="C12" t="n">
-        <v>1.788</v>
+        <v>1.78</v>
       </c>
       <c r="D12" t="n">
-        <v>1.788</v>
+        <v>1.78</v>
       </c>
       <c r="E12" t="n">
-        <v>1.788</v>
+        <v>1.78</v>
       </c>
       <c r="F12" t="n">
-        <v>828.5890000000001</v>
+        <v>449.579</v>
       </c>
       <c r="G12" t="n">
-        <v>-10449001.54606056</v>
+        <v>4071301.677139444</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="C13" t="n">
-        <v>1.787</v>
+        <v>1.781</v>
       </c>
       <c r="D13" t="n">
-        <v>1.787</v>
+        <v>1.797</v>
       </c>
       <c r="E13" t="n">
-        <v>1.787</v>
+        <v>1.78</v>
       </c>
       <c r="F13" t="n">
-        <v>859.4828</v>
+        <v>1347841.9846</v>
       </c>
       <c r="G13" t="n">
-        <v>-10449861.02886056</v>
+        <v>5419143.661739444</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.787</v>
+        <v>1.796</v>
       </c>
       <c r="C14" t="n">
-        <v>1.787</v>
+        <v>1.792</v>
       </c>
       <c r="D14" t="n">
-        <v>1.787</v>
+        <v>1.796</v>
       </c>
       <c r="E14" t="n">
-        <v>1.787</v>
+        <v>1.781</v>
       </c>
       <c r="F14" t="n">
-        <v>60624.58717028539</v>
+        <v>1513478</v>
       </c>
       <c r="G14" t="n">
-        <v>-10449861.02886056</v>
+        <v>6932621.661739444</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.785</v>
+        <v>1.783</v>
       </c>
       <c r="C15" t="n">
-        <v>1.785</v>
+        <v>1.783</v>
       </c>
       <c r="D15" t="n">
-        <v>1.785</v>
+        <v>1.783</v>
       </c>
       <c r="E15" t="n">
-        <v>1.785</v>
+        <v>1.783</v>
       </c>
       <c r="F15" t="n">
-        <v>50000</v>
+        <v>899921.2624</v>
       </c>
       <c r="G15" t="n">
-        <v>-10499861.02886056</v>
+        <v>6032700.399339444</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.785</v>
+        <v>1.782</v>
       </c>
       <c r="C16" t="n">
-        <v>1.785</v>
+        <v>1.781</v>
       </c>
       <c r="D16" t="n">
-        <v>1.785</v>
+        <v>1.782</v>
       </c>
       <c r="E16" t="n">
-        <v>1.785</v>
+        <v>1.781</v>
       </c>
       <c r="F16" t="n">
-        <v>41000</v>
+        <v>859944.0744</v>
       </c>
       <c r="G16" t="n">
-        <v>-10499861.02886056</v>
+        <v>5172756.324939444</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.788</v>
+        <v>1.781</v>
       </c>
       <c r="C17" t="n">
-        <v>1.788</v>
+        <v>1.781</v>
       </c>
       <c r="D17" t="n">
-        <v>1.788</v>
+        <v>1.781</v>
       </c>
       <c r="E17" t="n">
-        <v>1.788</v>
+        <v>1.781</v>
       </c>
       <c r="F17" t="n">
-        <v>280</v>
+        <v>429972.0372</v>
       </c>
       <c r="G17" t="n">
-        <v>-10499581.02886056</v>
+        <v>5172756.324939444</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.788</v>
+        <v>1.797</v>
       </c>
       <c r="C18" t="n">
-        <v>1.788</v>
+        <v>1.797</v>
       </c>
       <c r="D18" t="n">
-        <v>1.788</v>
+        <v>1.797</v>
       </c>
       <c r="E18" t="n">
-        <v>1.788</v>
+        <v>1.797</v>
       </c>
       <c r="F18" t="n">
-        <v>65091.411</v>
+        <v>549.171</v>
       </c>
       <c r="G18" t="n">
-        <v>-10499581.02886056</v>
+        <v>5173305.495939444</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.788</v>
+        <v>1.797</v>
       </c>
       <c r="C19" t="n">
-        <v>1.788</v>
+        <v>1.797</v>
       </c>
       <c r="D19" t="n">
-        <v>1.788</v>
+        <v>1.797</v>
       </c>
       <c r="E19" t="n">
-        <v>1.788</v>
+        <v>1.797</v>
       </c>
       <c r="F19" t="n">
-        <v>214973.5942</v>
+        <v>58971.5773</v>
       </c>
       <c r="G19" t="n">
-        <v>-10499581.02886056</v>
+        <v>5173305.495939444</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.788</v>
+        <v>1.797</v>
       </c>
       <c r="C20" t="n">
-        <v>1.788</v>
+        <v>1.797</v>
       </c>
       <c r="D20" t="n">
-        <v>1.788</v>
+        <v>1.797</v>
       </c>
       <c r="E20" t="n">
-        <v>1.788</v>
+        <v>1.797</v>
       </c>
       <c r="F20" t="n">
-        <v>14376.7761</v>
+        <v>52286.5938</v>
       </c>
       <c r="G20" t="n">
-        <v>-10499581.02886056</v>
+        <v>5173305.495939444</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.787</v>
+        <v>1.797</v>
       </c>
       <c r="C21" t="n">
-        <v>1.787</v>
+        <v>1.798</v>
       </c>
       <c r="D21" t="n">
-        <v>1.787</v>
+        <v>1.798</v>
       </c>
       <c r="E21" t="n">
-        <v>1.787</v>
+        <v>1.797</v>
       </c>
       <c r="F21" t="n">
-        <v>280</v>
+        <v>64115.8916</v>
       </c>
       <c r="G21" t="n">
-        <v>-10499861.02886056</v>
+        <v>5237421.387539444</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.787</v>
+        <v>1.798</v>
       </c>
       <c r="C22" t="n">
-        <v>1.787</v>
+        <v>1.801</v>
       </c>
       <c r="D22" t="n">
-        <v>1.787</v>
+        <v>1.801</v>
       </c>
       <c r="E22" t="n">
-        <v>1.787</v>
+        <v>1.798</v>
       </c>
       <c r="F22" t="n">
-        <v>184466.9244</v>
+        <v>196170.5452</v>
       </c>
       <c r="G22" t="n">
-        <v>-10499861.02886056</v>
+        <v>5433591.932739443</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.788</v>
+        <v>1.8</v>
       </c>
       <c r="C23" t="n">
-        <v>1.788</v>
+        <v>1.8</v>
       </c>
       <c r="D23" t="n">
-        <v>1.788</v>
+        <v>1.8</v>
       </c>
       <c r="E23" t="n">
-        <v>1.788</v>
+        <v>1.8</v>
       </c>
       <c r="F23" t="n">
-        <v>285</v>
+        <v>40042.4715</v>
       </c>
       <c r="G23" t="n">
-        <v>-10499576.02886056</v>
+        <v>5393549.461239443</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.787</v>
+        <v>1.799</v>
       </c>
       <c r="C24" t="n">
-        <v>1.781</v>
+        <v>1.784</v>
       </c>
       <c r="D24" t="n">
-        <v>1.787</v>
+        <v>1.799</v>
       </c>
       <c r="E24" t="n">
-        <v>1.781</v>
+        <v>1.784</v>
       </c>
       <c r="F24" t="n">
-        <v>108789.2348</v>
+        <v>815575</v>
       </c>
       <c r="G24" t="n">
-        <v>-10608365.26366056</v>
+        <v>4577974.461239443</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="C25" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="D25" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="E25" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="F25" t="n">
-        <v>312348.2921</v>
+        <v>278</v>
       </c>
       <c r="G25" t="n">
-        <v>-10920713.55576055</v>
+        <v>4578252.461239443</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="C26" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="D26" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="E26" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="F26" t="n">
-        <v>8387.006600000001</v>
+        <v>1200.2689</v>
       </c>
       <c r="G26" t="n">
-        <v>-10920713.55576055</v>
+        <v>4578252.461239443</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.78</v>
+        <v>1.799</v>
       </c>
       <c r="C27" t="n">
-        <v>1.78</v>
+        <v>1.783</v>
       </c>
       <c r="D27" t="n">
-        <v>1.78</v>
+        <v>1.799</v>
       </c>
       <c r="E27" t="n">
-        <v>1.78</v>
+        <v>1.783</v>
       </c>
       <c r="F27" t="n">
-        <v>1161.9669</v>
+        <v>3427878</v>
       </c>
       <c r="G27" t="n">
-        <v>-10920713.55576055</v>
+        <v>1150374.461239443</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.788</v>
+        <v>1.799</v>
       </c>
       <c r="C28" t="n">
-        <v>1.788</v>
+        <v>1.783</v>
       </c>
       <c r="D28" t="n">
-        <v>1.788</v>
+        <v>1.799</v>
       </c>
       <c r="E28" t="n">
-        <v>1.788</v>
+        <v>1.783</v>
       </c>
       <c r="F28" t="n">
-        <v>111856.8232662192</v>
+        <v>758714</v>
       </c>
       <c r="G28" t="n">
-        <v>-10808856.73249434</v>
+        <v>1150374.461239443</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.778</v>
+        <v>1.8</v>
       </c>
       <c r="C29" t="n">
-        <v>1.776</v>
+        <v>1.8</v>
       </c>
       <c r="D29" t="n">
-        <v>1.778</v>
+        <v>1.8</v>
       </c>
       <c r="E29" t="n">
-        <v>1.776</v>
+        <v>1.8</v>
       </c>
       <c r="F29" t="n">
-        <v>169758.6359</v>
+        <v>278</v>
       </c>
       <c r="G29" t="n">
-        <v>-10978615.36839434</v>
+        <v>1150652.461239443</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.776</v>
+        <v>1.8</v>
       </c>
       <c r="C30" t="n">
-        <v>1.776</v>
+        <v>1.8</v>
       </c>
       <c r="D30" t="n">
-        <v>1.776</v>
+        <v>1.8</v>
       </c>
       <c r="E30" t="n">
-        <v>1.776</v>
+        <v>1.8</v>
       </c>
       <c r="F30" t="n">
-        <v>1538.4847</v>
+        <v>214132.2222222222</v>
       </c>
       <c r="G30" t="n">
-        <v>-10978615.36839434</v>
+        <v>1150652.461239443</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="C31" t="n">
-        <v>1.772</v>
+        <v>1.8</v>
       </c>
       <c r="D31" t="n">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="E31" t="n">
-        <v>1.772</v>
+        <v>1.8</v>
       </c>
       <c r="F31" t="n">
-        <v>190821.5044</v>
+        <v>227986</v>
       </c>
       <c r="G31" t="n">
-        <v>-11169436.87279434</v>
+        <v>1150652.461239443</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.77</v>
+        <v>1.799</v>
       </c>
       <c r="C32" t="n">
-        <v>1.768</v>
+        <v>1.785</v>
       </c>
       <c r="D32" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="E32" t="n">
-        <v>1.768</v>
+        <v>1.785</v>
       </c>
       <c r="F32" t="n">
-        <v>695375.9417</v>
+        <v>3326256</v>
       </c>
       <c r="G32" t="n">
-        <v>-11864812.81449434</v>
+        <v>-2175603.538760557</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.776</v>
+        <v>1.784</v>
       </c>
       <c r="C33" t="n">
-        <v>1.776</v>
+        <v>1.784</v>
       </c>
       <c r="D33" t="n">
-        <v>1.776</v>
+        <v>1.784</v>
       </c>
       <c r="E33" t="n">
-        <v>1.776</v>
+        <v>1.784</v>
       </c>
       <c r="F33" t="n">
-        <v>322.2518</v>
+        <v>41242.7404</v>
       </c>
       <c r="G33" t="n">
-        <v>-11864490.56269434</v>
+        <v>-2216846.279160557</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.776</v>
+        <v>1.8</v>
       </c>
       <c r="C34" t="n">
-        <v>1.788</v>
+        <v>1.8</v>
       </c>
       <c r="D34" t="n">
-        <v>1.788</v>
+        <v>1.8</v>
       </c>
       <c r="E34" t="n">
-        <v>1.776</v>
+        <v>1.8</v>
       </c>
       <c r="F34" t="n">
-        <v>37767.2314</v>
+        <v>278</v>
       </c>
       <c r="G34" t="n">
-        <v>-11826723.33129434</v>
+        <v>-2216568.279160557</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.787</v>
+        <v>1.8</v>
       </c>
       <c r="C35" t="n">
-        <v>1.787</v>
+        <v>1.8</v>
       </c>
       <c r="D35" t="n">
-        <v>1.787</v>
+        <v>1.8</v>
       </c>
       <c r="E35" t="n">
-        <v>1.771</v>
+        <v>1.8</v>
       </c>
       <c r="F35" t="n">
-        <v>627149</v>
+        <v>4095.1512</v>
       </c>
       <c r="G35" t="n">
-        <v>-12453872.33129434</v>
+        <v>-2216568.279160557</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="C36" t="n">
-        <v>1.78</v>
+        <v>1.801</v>
       </c>
       <c r="D36" t="n">
-        <v>1.78</v>
+        <v>1.801</v>
       </c>
       <c r="E36" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="F36" t="n">
-        <v>1680.6298</v>
+        <v>1375.0242</v>
       </c>
       <c r="G36" t="n">
-        <v>-12455552.96109433</v>
+        <v>-2215193.254960557</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.771</v>
+        <v>1.8</v>
       </c>
       <c r="C37" t="n">
-        <v>1.771</v>
+        <v>1.8</v>
       </c>
       <c r="D37" t="n">
-        <v>1.771</v>
+        <v>1.8</v>
       </c>
       <c r="E37" t="n">
-        <v>1.771</v>
+        <v>1.785</v>
       </c>
       <c r="F37" t="n">
-        <v>5032.0274</v>
+        <v>983548</v>
       </c>
       <c r="G37" t="n">
-        <v>-12460584.98849433</v>
+        <v>-3198741.254960557</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.771</v>
+        <v>1.785</v>
       </c>
       <c r="C38" t="n">
-        <v>1.771</v>
+        <v>1.785</v>
       </c>
       <c r="D38" t="n">
-        <v>1.771</v>
+        <v>1.8</v>
       </c>
       <c r="E38" t="n">
-        <v>1.771</v>
+        <v>1.785</v>
       </c>
       <c r="F38" t="n">
-        <v>50331.737</v>
+        <v>2852859</v>
       </c>
       <c r="G38" t="n">
-        <v>-12460584.98849433</v>
+        <v>-6051600.254960557</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="C39" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="D39" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="E39" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="F39" t="n">
-        <v>21747.4519</v>
+        <v>5470.1754</v>
       </c>
       <c r="G39" t="n">
-        <v>-12482332.44039433</v>
+        <v>-6051600.254960557</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.769</v>
+        <v>1.799</v>
       </c>
       <c r="C40" t="n">
-        <v>1.768</v>
+        <v>1.799</v>
       </c>
       <c r="D40" t="n">
-        <v>1.769</v>
+        <v>1.799</v>
       </c>
       <c r="E40" t="n">
-        <v>1.768</v>
+        <v>1.799</v>
       </c>
       <c r="F40" t="n">
-        <v>563272.9209</v>
+        <v>278</v>
       </c>
       <c r="G40" t="n">
-        <v>-13045605.36129433</v>
+        <v>-6051322.254960557</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="C41" t="n">
-        <v>1.78</v>
+        <v>1.785</v>
       </c>
       <c r="D41" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="E41" t="n">
-        <v>1.78</v>
+        <v>1.785</v>
       </c>
       <c r="F41" t="n">
-        <v>56179.7753</v>
+        <v>2403958</v>
       </c>
       <c r="G41" t="n">
-        <v>-12989425.58599433</v>
+        <v>-8455280.254960557</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,28 +1878,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.78</v>
+        <v>1.799</v>
       </c>
       <c r="C42" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="D42" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="E42" t="n">
-        <v>1.78</v>
+        <v>1.799</v>
       </c>
       <c r="F42" t="n">
-        <v>62265.2189</v>
+        <v>257793</v>
       </c>
       <c r="G42" t="n">
-        <v>-12989425.58599433</v>
+        <v>-8197487.254960557</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.78</v>
+        <v>1.785</v>
       </c>
       <c r="C43" t="n">
-        <v>1.78</v>
+        <v>1.785</v>
       </c>
       <c r="D43" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="E43" t="n">
-        <v>1.78</v>
+        <v>1.785</v>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>1314879</v>
       </c>
       <c r="G43" t="n">
-        <v>-12989425.58599433</v>
+        <v>-9512366.254960557</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,28 +1950,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.77</v>
+        <v>1.798</v>
       </c>
       <c r="C44" t="n">
-        <v>1.77</v>
+        <v>1.798</v>
       </c>
       <c r="D44" t="n">
-        <v>1.77</v>
+        <v>1.798</v>
       </c>
       <c r="E44" t="n">
-        <v>1.77</v>
+        <v>1.798</v>
       </c>
       <c r="F44" t="n">
-        <v>3283.2223</v>
+        <v>279</v>
       </c>
       <c r="G44" t="n">
-        <v>-12992708.80829434</v>
+        <v>-9512087.254960557</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,28 +1986,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="C45" t="n">
-        <v>1.78</v>
+        <v>1.785</v>
       </c>
       <c r="D45" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="E45" t="n">
-        <v>1.78</v>
+        <v>1.785</v>
       </c>
       <c r="F45" t="n">
-        <v>374.2606</v>
+        <v>1464698</v>
       </c>
       <c r="G45" t="n">
-        <v>-12992334.54769433</v>
+        <v>-10976785.25496056</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2022,28 +2022,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="C46" t="n">
-        <v>1.765</v>
+        <v>1.785</v>
       </c>
       <c r="D46" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="E46" t="n">
-        <v>1.765</v>
+        <v>1.785</v>
       </c>
       <c r="F46" t="n">
-        <v>707457.1048</v>
+        <v>2154418</v>
       </c>
       <c r="G46" t="n">
-        <v>-13699791.65249434</v>
+        <v>-10976785.25496056</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.766</v>
+        <v>1.8</v>
       </c>
       <c r="C47" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="D47" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="E47" t="n">
-        <v>1.765</v>
+        <v>1.8</v>
       </c>
       <c r="F47" t="n">
-        <v>17627.6866</v>
+        <v>551.5155999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>-13682163.96589434</v>
+        <v>-10976233.73936056</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="C48" t="n">
-        <v>1.78</v>
+        <v>1.777</v>
       </c>
       <c r="D48" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="E48" t="n">
-        <v>1.78</v>
+        <v>1.777</v>
       </c>
       <c r="F48" t="n">
-        <v>657.7238</v>
+        <v>2881279.6173</v>
       </c>
       <c r="G48" t="n">
-        <v>-13682163.96589434</v>
+        <v>-13857513.35666056</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2130,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.78</v>
+        <v>1.799</v>
       </c>
       <c r="C49" t="n">
-        <v>1.78</v>
+        <v>1.778</v>
       </c>
       <c r="D49" t="n">
-        <v>1.78</v>
+        <v>1.799</v>
       </c>
       <c r="E49" t="n">
-        <v>1.78</v>
+        <v>1.778</v>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>2841004</v>
       </c>
       <c r="G49" t="n">
-        <v>-13682163.96589434</v>
+        <v>-11016509.35666056</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,28 +2166,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.78</v>
+        <v>1.799</v>
       </c>
       <c r="C50" t="n">
-        <v>1.779</v>
+        <v>1.778</v>
       </c>
       <c r="D50" t="n">
-        <v>1.78</v>
+        <v>1.799</v>
       </c>
       <c r="E50" t="n">
-        <v>1.779</v>
+        <v>1.778</v>
       </c>
       <c r="F50" t="n">
-        <v>9581.344999999999</v>
+        <v>736966</v>
       </c>
       <c r="G50" t="n">
-        <v>-13691745.31089434</v>
+        <v>-11016509.35666056</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,28 +2202,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.78</v>
+        <v>1.795</v>
       </c>
       <c r="C51" t="n">
-        <v>1.78</v>
+        <v>1.795</v>
       </c>
       <c r="D51" t="n">
-        <v>1.78</v>
+        <v>1.795</v>
       </c>
       <c r="E51" t="n">
-        <v>1.78</v>
+        <v>1.795</v>
       </c>
       <c r="F51" t="n">
-        <v>824.9411</v>
+        <v>279</v>
       </c>
       <c r="G51" t="n">
-        <v>-13690920.36979434</v>
+        <v>-11016230.35666056</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,28 +2238,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.766</v>
+        <v>1.78</v>
       </c>
       <c r="C52" t="n">
-        <v>1.762</v>
+        <v>1.78</v>
       </c>
       <c r="D52" t="n">
-        <v>1.779</v>
+        <v>1.78</v>
       </c>
       <c r="E52" t="n">
-        <v>1.754</v>
+        <v>1.78</v>
       </c>
       <c r="F52" t="n">
-        <v>3504921.9411</v>
+        <v>140583.7418</v>
       </c>
       <c r="G52" t="n">
-        <v>-17195842.31089434</v>
+        <v>-11156814.09846056</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2274,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.761</v>
+        <v>1.796</v>
       </c>
       <c r="C53" t="n">
-        <v>1.756</v>
+        <v>1.781</v>
       </c>
       <c r="D53" t="n">
-        <v>1.779</v>
+        <v>1.796</v>
       </c>
       <c r="E53" t="n">
-        <v>1.756</v>
+        <v>1.781</v>
       </c>
       <c r="F53" t="n">
-        <v>897631.025</v>
+        <v>2151684</v>
       </c>
       <c r="G53" t="n">
-        <v>-18093473.33589434</v>
+        <v>-9005130.098460559</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,28 +2310,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.761</v>
+        <v>1.796</v>
       </c>
       <c r="C54" t="n">
-        <v>1.753</v>
+        <v>1.781</v>
       </c>
       <c r="D54" t="n">
-        <v>1.761</v>
+        <v>1.796</v>
       </c>
       <c r="E54" t="n">
-        <v>1.753</v>
+        <v>1.781</v>
       </c>
       <c r="F54" t="n">
-        <v>560001.8391</v>
+        <v>1518181</v>
       </c>
       <c r="G54" t="n">
-        <v>-18653475.17499433</v>
+        <v>-9005130.098460559</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.755</v>
+        <v>1.793</v>
       </c>
       <c r="C55" t="n">
-        <v>1.755</v>
+        <v>1.793</v>
       </c>
       <c r="D55" t="n">
-        <v>1.755</v>
+        <v>1.793</v>
       </c>
       <c r="E55" t="n">
-        <v>1.755</v>
+        <v>1.793</v>
       </c>
       <c r="F55" t="n">
-        <v>100000</v>
+        <v>279</v>
       </c>
       <c r="G55" t="n">
-        <v>-18553475.17499433</v>
+        <v>-9004851.098460559</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.754</v>
+        <v>1.79</v>
       </c>
       <c r="C56" t="n">
-        <v>1.754</v>
+        <v>1.79</v>
       </c>
       <c r="D56" t="n">
-        <v>1.754</v>
+        <v>1.79</v>
       </c>
       <c r="E56" t="n">
-        <v>1.754</v>
+        <v>1.79</v>
       </c>
       <c r="F56" t="n">
-        <v>30507.6826</v>
+        <v>280</v>
       </c>
       <c r="G56" t="n">
-        <v>-18583982.85759433</v>
+        <v>-9005131.098460559</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.767</v>
+        <v>1.789</v>
       </c>
       <c r="C57" t="n">
-        <v>1.767</v>
+        <v>1.789</v>
       </c>
       <c r="D57" t="n">
-        <v>1.767</v>
+        <v>1.789</v>
       </c>
       <c r="E57" t="n">
-        <v>1.767</v>
+        <v>1.789</v>
       </c>
       <c r="F57" t="n">
-        <v>14638.339</v>
+        <v>200776.488</v>
       </c>
       <c r="G57" t="n">
-        <v>-18569344.51859433</v>
+        <v>-9205907.586460559</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,38 +2454,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.754</v>
+        <v>1.789</v>
       </c>
       <c r="C58" t="n">
-        <v>1.753</v>
+        <v>1.789</v>
       </c>
       <c r="D58" t="n">
-        <v>1.754</v>
+        <v>1.789</v>
       </c>
       <c r="E58" t="n">
-        <v>1.753</v>
+        <v>1.789</v>
       </c>
       <c r="F58" t="n">
-        <v>14836.2487</v>
+        <v>55758.5912</v>
       </c>
       <c r="G58" t="n">
-        <v>-18584180.76729433</v>
+        <v>-9205907.586460559</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2496,38 +2490,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.765</v>
+        <v>1.784</v>
       </c>
       <c r="C59" t="n">
-        <v>1.765</v>
+        <v>1.784</v>
       </c>
       <c r="D59" t="n">
-        <v>1.765</v>
+        <v>1.784</v>
       </c>
       <c r="E59" t="n">
-        <v>1.765</v>
+        <v>1.784</v>
       </c>
       <c r="F59" t="n">
-        <v>20000</v>
+        <v>281</v>
       </c>
       <c r="G59" t="n">
-        <v>-18564180.76729433</v>
+        <v>-9206188.586460559</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>1.753</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2538,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.766</v>
+        <v>1.788</v>
       </c>
       <c r="C60" t="n">
-        <v>1.766</v>
+        <v>1.788</v>
       </c>
       <c r="D60" t="n">
-        <v>1.766</v>
+        <v>1.788</v>
       </c>
       <c r="E60" t="n">
-        <v>1.766</v>
+        <v>1.788</v>
       </c>
       <c r="F60" t="n">
-        <v>166148.4135</v>
+        <v>455.9102</v>
       </c>
       <c r="G60" t="n">
-        <v>-18398032.35379433</v>
+        <v>-9205732.676260559</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2563,11 +2551,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2578,38 +2562,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.778</v>
+        <v>1.788</v>
       </c>
       <c r="C61" t="n">
-        <v>1.779</v>
+        <v>1.788</v>
       </c>
       <c r="D61" t="n">
-        <v>1.779</v>
+        <v>1.788</v>
       </c>
       <c r="E61" t="n">
-        <v>1.778</v>
+        <v>1.788</v>
       </c>
       <c r="F61" t="n">
-        <v>6219.0602</v>
+        <v>999</v>
       </c>
       <c r="G61" t="n">
-        <v>-18391813.29359433</v>
+        <v>-9205732.676260559</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>1.766</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2620,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.778</v>
+        <v>1.785</v>
       </c>
       <c r="C62" t="n">
-        <v>1.778</v>
+        <v>1.775</v>
       </c>
       <c r="D62" t="n">
-        <v>1.778</v>
+        <v>1.785</v>
       </c>
       <c r="E62" t="n">
-        <v>1.754</v>
+        <v>1.775</v>
       </c>
       <c r="F62" t="n">
-        <v>3110020</v>
+        <v>995593.3370000001</v>
       </c>
       <c r="G62" t="n">
-        <v>-21501833.29359433</v>
+        <v>-10201326.01326056</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2645,11 +2623,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2660,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.754</v>
+        <v>1.787</v>
       </c>
       <c r="C63" t="n">
-        <v>1.754</v>
+        <v>1.787</v>
       </c>
       <c r="D63" t="n">
-        <v>1.778</v>
+        <v>1.787</v>
       </c>
       <c r="E63" t="n">
-        <v>1.754</v>
+        <v>1.787</v>
       </c>
       <c r="F63" t="n">
-        <v>1178097</v>
+        <v>2376.3423</v>
       </c>
       <c r="G63" t="n">
-        <v>-22679930.29359433</v>
+        <v>-10198949.67096056</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2685,11 +2659,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2700,38 +2670,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.76</v>
+        <v>1.777</v>
       </c>
       <c r="C64" t="n">
-        <v>1.765</v>
+        <v>1.775</v>
       </c>
       <c r="D64" t="n">
-        <v>1.765</v>
+        <v>1.777</v>
       </c>
       <c r="E64" t="n">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="F64" t="n">
-        <v>1220514.3919</v>
+        <v>200000</v>
       </c>
       <c r="G64" t="n">
-        <v>-21459415.90169434</v>
+        <v>-10398949.67096056</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>1.754</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2742,7 +2706,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.768</v>
+        <v>1.787</v>
       </c>
       <c r="C65" t="n">
         <v>1.787</v>
@@ -2751,29 +2715,23 @@
         <v>1.787</v>
       </c>
       <c r="E65" t="n">
-        <v>1.768</v>
+        <v>1.787</v>
       </c>
       <c r="F65" t="n">
-        <v>1419893.197871293</v>
+        <v>111639.8427</v>
       </c>
       <c r="G65" t="n">
-        <v>-20039522.70382304</v>
+        <v>-10287309.82826056</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>1.765</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2784,38 +2742,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="C66" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="D66" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="E66" t="n">
-        <v>1.751</v>
+        <v>1.787</v>
       </c>
       <c r="F66" t="n">
-        <v>2510716</v>
+        <v>16787.9128</v>
       </c>
       <c r="G66" t="n">
-        <v>-22550238.70382304</v>
+        <v>-10287309.82826056</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>1.787</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2826,36 +2778,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.752</v>
+        <v>1.787</v>
       </c>
       <c r="C67" t="n">
-        <v>1.762</v>
+        <v>1.787</v>
       </c>
       <c r="D67" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="E67" t="n">
-        <v>1.752</v>
+        <v>1.787</v>
       </c>
       <c r="F67" t="n">
-        <v>1089259</v>
+        <v>1759.7212</v>
       </c>
       <c r="G67" t="n">
-        <v>-23639497.70382304</v>
+        <v>-10287309.82826056</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2866,36 +2814,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="C68" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="D68" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="E68" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="F68" t="n">
-        <v>298945.8743</v>
+        <v>1000</v>
       </c>
       <c r="G68" t="n">
-        <v>-23340551.82952304</v>
+        <v>-10287309.82826056</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2906,37 +2850,35 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.762</v>
+        <v>1.787</v>
       </c>
       <c r="C69" t="n">
-        <v>1.761</v>
+        <v>1.787</v>
       </c>
       <c r="D69" t="n">
-        <v>1.762</v>
+        <v>1.787</v>
       </c>
       <c r="E69" t="n">
-        <v>1.761</v>
+        <v>1.787</v>
       </c>
       <c r="F69" t="n">
-        <v>203750.709</v>
+        <v>2000</v>
       </c>
       <c r="G69" t="n">
-        <v>-23544302.53852304</v>
+        <v>-10287309.82826056</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
       <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -2944,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="C70" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="D70" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="E70" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="F70" t="n">
-        <v>444665.1009</v>
+        <v>5000</v>
       </c>
       <c r="G70" t="n">
-        <v>-23099637.43762304</v>
+        <v>-10287309.82826056</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2980,28 +2922,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.785</v>
+        <v>1.777</v>
       </c>
       <c r="C71" t="n">
-        <v>1.785</v>
+        <v>1.777</v>
       </c>
       <c r="D71" t="n">
-        <v>1.785</v>
+        <v>1.777</v>
       </c>
       <c r="E71" t="n">
-        <v>1.785</v>
+        <v>1.777</v>
       </c>
       <c r="F71" t="n">
-        <v>281461</v>
+        <v>1624.7368</v>
       </c>
       <c r="G71" t="n">
-        <v>-23381098.43762304</v>
+        <v>-10288934.56506056</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3016,28 +2958,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.762</v>
+        <v>1.777</v>
       </c>
       <c r="C72" t="n">
-        <v>1.764</v>
+        <v>1.777</v>
       </c>
       <c r="D72" t="n">
-        <v>1.785</v>
+        <v>1.777</v>
       </c>
       <c r="E72" t="n">
-        <v>1.754</v>
+        <v>1.777</v>
       </c>
       <c r="F72" t="n">
-        <v>3454112</v>
+        <v>1100</v>
       </c>
       <c r="G72" t="n">
-        <v>-26835210.43762304</v>
+        <v>-10288934.56506056</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3052,28 +2994,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="C73" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="D73" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="E73" t="n">
-        <v>1.758</v>
+        <v>1.787</v>
       </c>
       <c r="F73" t="n">
-        <v>1792558.854</v>
+        <v>1081.0327</v>
       </c>
       <c r="G73" t="n">
-        <v>-25042651.58362304</v>
+        <v>-10287853.53236056</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3088,28 +3030,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.761</v>
+        <v>1.787</v>
       </c>
       <c r="C74" t="n">
-        <v>1.762</v>
+        <v>1.787</v>
       </c>
       <c r="D74" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="E74" t="n">
-        <v>1.761</v>
+        <v>1.787</v>
       </c>
       <c r="F74" t="n">
-        <v>2149943</v>
+        <v>48918.9673</v>
       </c>
       <c r="G74" t="n">
-        <v>-27192594.58362304</v>
+        <v>-10287853.53236056</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3124,28 +3066,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.786</v>
+        <v>1.788</v>
       </c>
       <c r="C75" t="n">
-        <v>1.786</v>
+        <v>1.788</v>
       </c>
       <c r="D75" t="n">
-        <v>1.786</v>
+        <v>1.788</v>
       </c>
       <c r="E75" t="n">
-        <v>1.786</v>
+        <v>1.788</v>
       </c>
       <c r="F75" t="n">
-        <v>907.146</v>
+        <v>800</v>
       </c>
       <c r="G75" t="n">
-        <v>-27191687.43762304</v>
+        <v>-10287053.53236056</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3160,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="C76" t="n">
-        <v>1.762</v>
+        <v>1.787</v>
       </c>
       <c r="D76" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="E76" t="n">
-        <v>1.762</v>
+        <v>1.787</v>
       </c>
       <c r="F76" t="n">
-        <v>1508178</v>
+        <v>63526.6966</v>
       </c>
       <c r="G76" t="n">
-        <v>-28699865.43762304</v>
+        <v>-10350580.22896056</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3196,28 +3138,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="C77" t="n">
-        <v>1.761</v>
+        <v>1.787</v>
       </c>
       <c r="D77" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="E77" t="n">
-        <v>1.759</v>
+        <v>1.787</v>
       </c>
       <c r="F77" t="n">
-        <v>1629902</v>
+        <v>24348.809</v>
       </c>
       <c r="G77" t="n">
-        <v>-30329767.43762304</v>
+        <v>-10350580.22896056</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3232,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.784</v>
+        <v>1.786</v>
       </c>
       <c r="C78" t="n">
-        <v>1.785</v>
+        <v>1.786</v>
       </c>
       <c r="D78" t="n">
-        <v>1.785</v>
+        <v>1.786</v>
       </c>
       <c r="E78" t="n">
-        <v>1.762</v>
+        <v>1.786</v>
       </c>
       <c r="F78" t="n">
-        <v>787010</v>
+        <v>100000</v>
       </c>
       <c r="G78" t="n">
-        <v>-29542757.43762304</v>
+        <v>-10450580.22896056</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3268,28 +3210,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.783</v>
+        <v>1.787</v>
       </c>
       <c r="C79" t="n">
-        <v>1.783</v>
+        <v>1.787</v>
       </c>
       <c r="D79" t="n">
-        <v>1.783</v>
+        <v>1.787</v>
       </c>
       <c r="E79" t="n">
-        <v>1.766</v>
+        <v>1.787</v>
       </c>
       <c r="F79" t="n">
-        <v>720392</v>
+        <v>750.0939</v>
       </c>
       <c r="G79" t="n">
-        <v>-30263149.43762304</v>
+        <v>-10449830.13506056</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3304,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.783</v>
+        <v>1.787</v>
       </c>
       <c r="C80" t="n">
-        <v>1.766</v>
+        <v>1.787</v>
       </c>
       <c r="D80" t="n">
-        <v>1.783</v>
+        <v>1.787</v>
       </c>
       <c r="E80" t="n">
-        <v>1.765</v>
+        <v>1.787</v>
       </c>
       <c r="F80" t="n">
-        <v>3258482.099</v>
+        <v>1678.791270285395</v>
       </c>
       <c r="G80" t="n">
-        <v>-33521631.53662304</v>
+        <v>-10449830.13506056</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3340,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.764</v>
+        <v>1.787</v>
       </c>
       <c r="C81" t="n">
-        <v>1.764</v>
+        <v>1.787</v>
       </c>
       <c r="D81" t="n">
-        <v>1.764</v>
+        <v>1.787</v>
       </c>
       <c r="E81" t="n">
-        <v>1.764</v>
+        <v>1.787</v>
       </c>
       <c r="F81" t="n">
-        <v>20259.3245</v>
+        <v>233000</v>
       </c>
       <c r="G81" t="n">
-        <v>-33541890.86112304</v>
+        <v>-10449830.13506056</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3376,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.78</v>
+        <v>1.787</v>
       </c>
       <c r="C82" t="n">
-        <v>1.78</v>
+        <v>1.787</v>
       </c>
       <c r="D82" t="n">
-        <v>1.78</v>
+        <v>1.787</v>
       </c>
       <c r="E82" t="n">
-        <v>1.78</v>
+        <v>1.787</v>
       </c>
       <c r="F82" t="n">
-        <v>447.6516</v>
+        <v>600.8017297146055</v>
       </c>
       <c r="G82" t="n">
-        <v>-33541443.20952304</v>
+        <v>-10449830.13506056</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3412,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.765</v>
+        <v>1.788</v>
       </c>
       <c r="C83" t="n">
-        <v>1.762</v>
+        <v>1.788</v>
       </c>
       <c r="D83" t="n">
-        <v>1.765</v>
+        <v>1.788</v>
       </c>
       <c r="E83" t="n">
-        <v>1.762</v>
+        <v>1.788</v>
       </c>
       <c r="F83" t="n">
-        <v>86162.4457</v>
+        <v>828.5890000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>-33627605.65522303</v>
+        <v>-10449001.54606056</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3448,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.778</v>
+        <v>1.787</v>
       </c>
       <c r="C84" t="n">
-        <v>1.761</v>
+        <v>1.787</v>
       </c>
       <c r="D84" t="n">
-        <v>1.778</v>
+        <v>1.787</v>
       </c>
       <c r="E84" t="n">
-        <v>1.761</v>
+        <v>1.787</v>
       </c>
       <c r="F84" t="n">
-        <v>3364999</v>
+        <v>859.4828</v>
       </c>
       <c r="G84" t="n">
-        <v>-36992604.65522303</v>
+        <v>-10449861.02886056</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3484,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.761</v>
+        <v>1.787</v>
       </c>
       <c r="C85" t="n">
-        <v>1.761</v>
+        <v>1.787</v>
       </c>
       <c r="D85" t="n">
-        <v>1.778</v>
+        <v>1.787</v>
       </c>
       <c r="E85" t="n">
-        <v>1.761</v>
+        <v>1.787</v>
       </c>
       <c r="F85" t="n">
-        <v>949788</v>
+        <v>60624.58717028539</v>
       </c>
       <c r="G85" t="n">
-        <v>-36992604.65522303</v>
+        <v>-10449861.02886056</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3520,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.78</v>
+        <v>1.785</v>
       </c>
       <c r="C86" t="n">
-        <v>1.78</v>
+        <v>1.785</v>
       </c>
       <c r="D86" t="n">
-        <v>1.78</v>
+        <v>1.785</v>
       </c>
       <c r="E86" t="n">
-        <v>1.78</v>
+        <v>1.785</v>
       </c>
       <c r="F86" t="n">
-        <v>808.5718000000001</v>
+        <v>50000</v>
       </c>
       <c r="G86" t="n">
-        <v>-36991796.08342303</v>
+        <v>-10499861.02886056</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3556,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.761</v>
+        <v>1.785</v>
       </c>
       <c r="C87" t="n">
-        <v>1.76</v>
+        <v>1.785</v>
       </c>
       <c r="D87" t="n">
-        <v>1.761</v>
+        <v>1.785</v>
       </c>
       <c r="E87" t="n">
-        <v>1.76</v>
+        <v>1.785</v>
       </c>
       <c r="F87" t="n">
-        <v>61328.5507</v>
+        <v>41000</v>
       </c>
       <c r="G87" t="n">
-        <v>-37053124.63412303</v>
+        <v>-10499861.02886056</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3592,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.76</v>
+        <v>1.788</v>
       </c>
       <c r="C88" t="n">
-        <v>1.779</v>
+        <v>1.788</v>
       </c>
       <c r="D88" t="n">
-        <v>1.779</v>
+        <v>1.788</v>
       </c>
       <c r="E88" t="n">
-        <v>1.753</v>
+        <v>1.788</v>
       </c>
       <c r="F88" t="n">
-        <v>640967.1614</v>
+        <v>280</v>
       </c>
       <c r="G88" t="n">
-        <v>-36412157.47272304</v>
+        <v>-10499581.02886056</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3628,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.76</v>
+        <v>1.788</v>
       </c>
       <c r="C89" t="n">
-        <v>1.769</v>
+        <v>1.788</v>
       </c>
       <c r="D89" t="n">
-        <v>1.779</v>
+        <v>1.788</v>
       </c>
       <c r="E89" t="n">
-        <v>1.754</v>
+        <v>1.788</v>
       </c>
       <c r="F89" t="n">
-        <v>1355670</v>
+        <v>65091.411</v>
       </c>
       <c r="G89" t="n">
-        <v>-37767827.47272304</v>
+        <v>-10499581.02886056</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3664,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.768</v>
+        <v>1.788</v>
       </c>
       <c r="C90" t="n">
-        <v>1.752</v>
+        <v>1.788</v>
       </c>
       <c r="D90" t="n">
-        <v>1.768</v>
+        <v>1.788</v>
       </c>
       <c r="E90" t="n">
-        <v>1.752</v>
+        <v>1.788</v>
       </c>
       <c r="F90" t="n">
-        <v>816153.4941</v>
+        <v>214973.5942</v>
       </c>
       <c r="G90" t="n">
-        <v>-38583980.96682303</v>
+        <v>-10499581.02886056</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3700,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.752</v>
+        <v>1.788</v>
       </c>
       <c r="C91" t="n">
-        <v>1.752</v>
+        <v>1.788</v>
       </c>
       <c r="D91" t="n">
-        <v>1.752</v>
+        <v>1.788</v>
       </c>
       <c r="E91" t="n">
-        <v>1.752</v>
+        <v>1.788</v>
       </c>
       <c r="F91" t="n">
-        <v>95137.08839999999</v>
+        <v>14376.7761</v>
       </c>
       <c r="G91" t="n">
-        <v>-38583980.96682303</v>
+        <v>-10499581.02886056</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3736,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.75</v>
+        <v>1.787</v>
       </c>
       <c r="C92" t="n">
-        <v>1.751</v>
+        <v>1.787</v>
       </c>
       <c r="D92" t="n">
-        <v>1.766</v>
+        <v>1.787</v>
       </c>
       <c r="E92" t="n">
-        <v>1.749</v>
+        <v>1.787</v>
       </c>
       <c r="F92" t="n">
-        <v>1663493.7673</v>
+        <v>280</v>
       </c>
       <c r="G92" t="n">
-        <v>-40247474.73412304</v>
+        <v>-10499861.02886056</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3772,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.75</v>
+        <v>1.787</v>
       </c>
       <c r="C93" t="n">
-        <v>1.75</v>
+        <v>1.787</v>
       </c>
       <c r="D93" t="n">
-        <v>1.75</v>
+        <v>1.787</v>
       </c>
       <c r="E93" t="n">
-        <v>1.75</v>
+        <v>1.787</v>
       </c>
       <c r="F93" t="n">
-        <v>438648.2354</v>
+        <v>184466.9244</v>
       </c>
       <c r="G93" t="n">
-        <v>-40686122.96952303</v>
+        <v>-10499861.02886056</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3808,35 +3750,31 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.768</v>
+        <v>1.788</v>
       </c>
       <c r="C94" t="n">
-        <v>1.768</v>
+        <v>1.788</v>
       </c>
       <c r="D94" t="n">
-        <v>1.769</v>
+        <v>1.788</v>
       </c>
       <c r="E94" t="n">
-        <v>1.751</v>
+        <v>1.788</v>
       </c>
       <c r="F94" t="n">
-        <v>2227742.4179</v>
+        <v>285</v>
       </c>
       <c r="G94" t="n">
-        <v>-38458380.55162303</v>
+        <v>-10499576.02886056</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K94" t="n">
-        <v>1.75</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
@@ -3848,40 +3786,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.75</v>
+        <v>1.787</v>
       </c>
       <c r="C95" t="n">
-        <v>1.749</v>
+        <v>1.781</v>
       </c>
       <c r="D95" t="n">
-        <v>1.77</v>
+        <v>1.787</v>
       </c>
       <c r="E95" t="n">
-        <v>1.749</v>
+        <v>1.781</v>
       </c>
       <c r="F95" t="n">
-        <v>1275796.9329</v>
+        <v>108789.2348</v>
       </c>
       <c r="G95" t="n">
-        <v>-39734177.48452303</v>
+        <v>-10608365.26366056</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3892,40 +3822,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.769</v>
+        <v>1.78</v>
       </c>
       <c r="C96" t="n">
-        <v>1.751</v>
+        <v>1.78</v>
       </c>
       <c r="D96" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E96" t="n">
-        <v>1.751</v>
+        <v>1.78</v>
       </c>
       <c r="F96" t="n">
-        <v>1307155.6887</v>
+        <v>312348.2921</v>
       </c>
       <c r="G96" t="n">
-        <v>-38427021.79582303</v>
+        <v>-10920713.55576055</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="K96" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3936,40 +3858,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.769</v>
+        <v>1.78</v>
       </c>
       <c r="C97" t="n">
-        <v>1.769</v>
+        <v>1.78</v>
       </c>
       <c r="D97" t="n">
-        <v>1.769</v>
+        <v>1.78</v>
       </c>
       <c r="E97" t="n">
-        <v>1.769</v>
+        <v>1.78</v>
       </c>
       <c r="F97" t="n">
-        <v>400.5334</v>
+        <v>8387.006600000001</v>
       </c>
       <c r="G97" t="n">
-        <v>-38426621.26242303</v>
+        <v>-10920713.55576055</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="K97" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3980,40 +3894,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="C98" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="D98" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="E98" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="F98" t="n">
-        <v>67328.9659</v>
+        <v>1161.9669</v>
       </c>
       <c r="G98" t="n">
-        <v>-38493950.22832303</v>
+        <v>-10920713.55576055</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="K98" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4024,40 +3930,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.751</v>
+        <v>1.788</v>
       </c>
       <c r="C99" t="n">
-        <v>1.768</v>
+        <v>1.788</v>
       </c>
       <c r="D99" t="n">
-        <v>1.768</v>
+        <v>1.788</v>
       </c>
       <c r="E99" t="n">
-        <v>1.751</v>
+        <v>1.788</v>
       </c>
       <c r="F99" t="n">
-        <v>83982.8034</v>
+        <v>111856.8232662192</v>
       </c>
       <c r="G99" t="n">
-        <v>-38409967.42492303</v>
+        <v>-10808856.73249434</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K99" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4068,40 +3966,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.751</v>
+        <v>1.778</v>
       </c>
       <c r="C100" t="n">
-        <v>1.751</v>
+        <v>1.776</v>
       </c>
       <c r="D100" t="n">
-        <v>1.751</v>
+        <v>1.778</v>
       </c>
       <c r="E100" t="n">
-        <v>1.751</v>
+        <v>1.776</v>
       </c>
       <c r="F100" t="n">
-        <v>5000</v>
+        <v>169758.6359</v>
       </c>
       <c r="G100" t="n">
-        <v>-38414967.42492303</v>
+        <v>-10978615.36839434</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="K100" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4112,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.751</v>
+        <v>1.776</v>
       </c>
       <c r="C101" t="n">
-        <v>1.752</v>
+        <v>1.776</v>
       </c>
       <c r="D101" t="n">
-        <v>1.752</v>
+        <v>1.776</v>
       </c>
       <c r="E101" t="n">
-        <v>1.751</v>
+        <v>1.776</v>
       </c>
       <c r="F101" t="n">
-        <v>121302.4666</v>
+        <v>1538.4847</v>
       </c>
       <c r="G101" t="n">
-        <v>-38293664.95832302</v>
+        <v>-10978615.36839434</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4136,14 +4026,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4154,40 +4038,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.751</v>
+        <v>1.775</v>
       </c>
       <c r="C102" t="n">
-        <v>1.751</v>
+        <v>1.772</v>
       </c>
       <c r="D102" t="n">
-        <v>1.751</v>
+        <v>1.775</v>
       </c>
       <c r="E102" t="n">
-        <v>1.751</v>
+        <v>1.772</v>
       </c>
       <c r="F102" t="n">
-        <v>18792.7936</v>
+        <v>190821.5044</v>
       </c>
       <c r="G102" t="n">
-        <v>-38312457.75192302</v>
+        <v>-11169436.87279434</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="K102" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4198,40 +4074,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="C103" t="n">
-        <v>1.75</v>
+        <v>1.768</v>
       </c>
       <c r="D103" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="E103" t="n">
-        <v>1.75</v>
+        <v>1.768</v>
       </c>
       <c r="F103" t="n">
-        <v>11207.1469</v>
+        <v>695375.9417</v>
       </c>
       <c r="G103" t="n">
-        <v>-38323664.89882302</v>
+        <v>-11864812.81449434</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="K103" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4242,40 +4110,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.779</v>
+        <v>1.776</v>
       </c>
       <c r="C104" t="n">
-        <v>1.779</v>
+        <v>1.776</v>
       </c>
       <c r="D104" t="n">
-        <v>1.779</v>
+        <v>1.776</v>
       </c>
       <c r="E104" t="n">
-        <v>1.751</v>
+        <v>1.776</v>
       </c>
       <c r="F104" t="n">
-        <v>2963788</v>
+        <v>322.2518</v>
       </c>
       <c r="G104" t="n">
-        <v>-35359876.89882302</v>
+        <v>-11864490.56269434</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K104" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4286,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.761</v>
+        <v>1.776</v>
       </c>
       <c r="C105" t="n">
-        <v>1.777</v>
+        <v>1.788</v>
       </c>
       <c r="D105" t="n">
-        <v>1.779</v>
+        <v>1.788</v>
       </c>
       <c r="E105" t="n">
-        <v>1.761</v>
+        <v>1.776</v>
       </c>
       <c r="F105" t="n">
-        <v>1189875.2507</v>
+        <v>37767.2314</v>
       </c>
       <c r="G105" t="n">
-        <v>-36549752.14952302</v>
+        <v>-11826723.33129434</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4310,14 +4170,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4328,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.775</v>
+        <v>1.787</v>
       </c>
       <c r="C106" t="n">
-        <v>1.775</v>
+        <v>1.787</v>
       </c>
       <c r="D106" t="n">
-        <v>1.775</v>
+        <v>1.787</v>
       </c>
       <c r="E106" t="n">
-        <v>1.775</v>
+        <v>1.771</v>
       </c>
       <c r="F106" t="n">
-        <v>5000</v>
+        <v>627149</v>
       </c>
       <c r="G106" t="n">
-        <v>-36554752.14952302</v>
+        <v>-12453872.33129434</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4352,14 +4206,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4370,38 +4218,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="C107" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="D107" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E107" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="F107" t="n">
-        <v>5000</v>
+        <v>1680.6298</v>
       </c>
       <c r="G107" t="n">
-        <v>-36559752.14952302</v>
+        <v>-12455552.96109433</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4412,40 +4254,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.751</v>
+        <v>1.771</v>
       </c>
       <c r="C108" t="n">
-        <v>1.76</v>
+        <v>1.771</v>
       </c>
       <c r="D108" t="n">
-        <v>1.76</v>
+        <v>1.771</v>
       </c>
       <c r="E108" t="n">
-        <v>1.749</v>
+        <v>1.771</v>
       </c>
       <c r="F108" t="n">
-        <v>261946.1688</v>
+        <v>5032.0274</v>
       </c>
       <c r="G108" t="n">
-        <v>-36821698.31832302</v>
+        <v>-12460584.98849433</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K108" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4456,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.751</v>
+        <v>1.771</v>
       </c>
       <c r="C109" t="n">
-        <v>1.751</v>
+        <v>1.771</v>
       </c>
       <c r="D109" t="n">
-        <v>1.751</v>
+        <v>1.771</v>
       </c>
       <c r="E109" t="n">
-        <v>1.751</v>
+        <v>1.771</v>
       </c>
       <c r="F109" t="n">
-        <v>20913.6097</v>
+        <v>50331.737</v>
       </c>
       <c r="G109" t="n">
-        <v>-36842611.92802302</v>
+        <v>-12460584.98849433</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4480,14 +4314,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4498,38 +4326,36 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.769</v>
+        <v>1.77</v>
       </c>
       <c r="C110" t="n">
-        <v>1.769</v>
+        <v>1.77</v>
       </c>
       <c r="D110" t="n">
-        <v>1.769</v>
+        <v>1.77</v>
       </c>
       <c r="E110" t="n">
-        <v>1.769</v>
+        <v>1.77</v>
       </c>
       <c r="F110" t="n">
-        <v>471.3231</v>
+        <v>21747.4519</v>
       </c>
       <c r="G110" t="n">
-        <v>-36842140.60492302</v>
+        <v>-12482332.44039433</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K110" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1.771</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4540,36 +4366,38 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.751</v>
+        <v>1.769</v>
       </c>
       <c r="C111" t="n">
-        <v>1.751</v>
+        <v>1.768</v>
       </c>
       <c r="D111" t="n">
-        <v>1.751</v>
+        <v>1.769</v>
       </c>
       <c r="E111" t="n">
-        <v>1.751</v>
+        <v>1.768</v>
       </c>
       <c r="F111" t="n">
-        <v>10456.8048</v>
+        <v>563272.9209</v>
       </c>
       <c r="G111" t="n">
-        <v>-36852597.40972301</v>
+        <v>-13045605.36129433</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1.77</v>
+      </c>
       <c r="K111" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M111" t="n">
@@ -4582,32 +4410,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.751</v>
+        <v>1.78</v>
       </c>
       <c r="C112" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="D112" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E112" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="F112" t="n">
-        <v>712064.4024</v>
+        <v>56179.7753</v>
       </c>
       <c r="G112" t="n">
-        <v>-36140533.00732301</v>
+        <v>-12989425.58599433</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1.768</v>
+      </c>
       <c r="K112" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4624,22 +4454,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="C113" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="D113" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E113" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="F113" t="n">
-        <v>265217</v>
+        <v>62265.2189</v>
       </c>
       <c r="G113" t="n">
-        <v>-36140533.00732301</v>
+        <v>-12989425.58599433</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4649,7 +4479,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4666,22 +4496,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="C114" t="n">
-        <v>1.751</v>
+        <v>1.78</v>
       </c>
       <c r="D114" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E114" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="F114" t="n">
-        <v>2762679</v>
+        <v>5000</v>
       </c>
       <c r="G114" t="n">
-        <v>-38903212.00732301</v>
+        <v>-12989425.58599433</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4691,7 +4521,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4720,10 +4550,10 @@
         <v>1.77</v>
       </c>
       <c r="F115" t="n">
-        <v>472.6883</v>
+        <v>3283.2223</v>
       </c>
       <c r="G115" t="n">
-        <v>-38902739.31902301</v>
+        <v>-12992708.80829434</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4733,7 +4563,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4750,32 +4580,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.751</v>
+        <v>1.78</v>
       </c>
       <c r="C116" t="n">
-        <v>1.751</v>
+        <v>1.78</v>
       </c>
       <c r="D116" t="n">
-        <v>1.751</v>
+        <v>1.78</v>
       </c>
       <c r="E116" t="n">
-        <v>1.751</v>
+        <v>1.78</v>
       </c>
       <c r="F116" t="n">
-        <v>1195.9012</v>
+        <v>374.2606</v>
       </c>
       <c r="G116" t="n">
-        <v>-38903935.22022301</v>
+        <v>-12992334.54769433</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.77</v>
+      </c>
       <c r="K116" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4792,22 +4624,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.768</v>
+        <v>1.77</v>
       </c>
       <c r="C117" t="n">
-        <v>1.768</v>
+        <v>1.765</v>
       </c>
       <c r="D117" t="n">
-        <v>1.768</v>
+        <v>1.77</v>
       </c>
       <c r="E117" t="n">
-        <v>1.752</v>
+        <v>1.765</v>
       </c>
       <c r="F117" t="n">
-        <v>1063580</v>
+        <v>707457.1048</v>
       </c>
       <c r="G117" t="n">
-        <v>-37840355.22022301</v>
+        <v>-13699791.65249434</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4817,7 +4649,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4834,32 +4666,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.752</v>
+        <v>1.766</v>
       </c>
       <c r="C118" t="n">
-        <v>1.752</v>
+        <v>1.78</v>
       </c>
       <c r="D118" t="n">
-        <v>1.768</v>
+        <v>1.78</v>
       </c>
       <c r="E118" t="n">
-        <v>1.752</v>
+        <v>1.765</v>
       </c>
       <c r="F118" t="n">
-        <v>2695466</v>
+        <v>17627.6866</v>
       </c>
       <c r="G118" t="n">
-        <v>-40535821.22022301</v>
+        <v>-13682163.96589434</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1.765</v>
+      </c>
       <c r="K118" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4876,32 +4710,34 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.768</v>
+        <v>1.78</v>
       </c>
       <c r="C119" t="n">
-        <v>1.768</v>
+        <v>1.78</v>
       </c>
       <c r="D119" t="n">
-        <v>1.768</v>
+        <v>1.78</v>
       </c>
       <c r="E119" t="n">
-        <v>1.768</v>
+        <v>1.78</v>
       </c>
       <c r="F119" t="n">
-        <v>1063.739</v>
+        <v>657.7238</v>
       </c>
       <c r="G119" t="n">
-        <v>-40534757.48122301</v>
+        <v>-13682163.96589434</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1.78</v>
+      </c>
       <c r="K119" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4918,22 +4754,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.752</v>
+        <v>1.78</v>
       </c>
       <c r="C120" t="n">
-        <v>1.752</v>
+        <v>1.78</v>
       </c>
       <c r="D120" t="n">
-        <v>1.752</v>
+        <v>1.78</v>
       </c>
       <c r="E120" t="n">
-        <v>1.752</v>
+        <v>1.78</v>
       </c>
       <c r="F120" t="n">
-        <v>11531.3825</v>
+        <v>2000</v>
       </c>
       <c r="G120" t="n">
-        <v>-40546288.86372301</v>
+        <v>-13682163.96589434</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4943,7 +4779,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4960,22 +4796,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.768</v>
+        <v>1.78</v>
       </c>
       <c r="C121" t="n">
-        <v>1.768</v>
+        <v>1.779</v>
       </c>
       <c r="D121" t="n">
-        <v>1.768</v>
+        <v>1.78</v>
       </c>
       <c r="E121" t="n">
-        <v>1.768</v>
+        <v>1.779</v>
       </c>
       <c r="F121" t="n">
-        <v>1339.332</v>
+        <v>9581.344999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>-40544949.53172301</v>
+        <v>-13691745.31089434</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4985,7 +4821,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5002,22 +4838,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.753</v>
+        <v>1.78</v>
       </c>
       <c r="C122" t="n">
-        <v>1.752</v>
+        <v>1.78</v>
       </c>
       <c r="D122" t="n">
-        <v>1.753</v>
+        <v>1.78</v>
       </c>
       <c r="E122" t="n">
-        <v>1.752</v>
+        <v>1.78</v>
       </c>
       <c r="F122" t="n">
-        <v>247219.0026</v>
+        <v>824.9411</v>
       </c>
       <c r="G122" t="n">
-        <v>-40792168.53432301</v>
+        <v>-13690920.36979434</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5027,7 +4863,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5044,22 +4880,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.768</v>
+        <v>1.766</v>
       </c>
       <c r="C123" t="n">
-        <v>1.768</v>
+        <v>1.762</v>
       </c>
       <c r="D123" t="n">
-        <v>1.768</v>
+        <v>1.779</v>
       </c>
       <c r="E123" t="n">
-        <v>1.768</v>
+        <v>1.754</v>
       </c>
       <c r="F123" t="n">
-        <v>738.5771</v>
+        <v>3504921.9411</v>
       </c>
       <c r="G123" t="n">
-        <v>-40791429.95722301</v>
+        <v>-17195842.31089434</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5069,7 +4905,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5086,22 +4922,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.767</v>
+        <v>1.761</v>
       </c>
       <c r="C124" t="n">
-        <v>1.752</v>
+        <v>1.756</v>
       </c>
       <c r="D124" t="n">
-        <v>1.767</v>
+        <v>1.779</v>
       </c>
       <c r="E124" t="n">
-        <v>1.752</v>
+        <v>1.756</v>
       </c>
       <c r="F124" t="n">
-        <v>3572727</v>
+        <v>897631.025</v>
       </c>
       <c r="G124" t="n">
-        <v>-44364156.95722301</v>
+        <v>-18093473.33589434</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5111,7 +4947,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5128,32 +4964,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.77</v>
+        <v>1.761</v>
       </c>
       <c r="C125" t="n">
-        <v>1.771</v>
+        <v>1.753</v>
       </c>
       <c r="D125" t="n">
-        <v>1.771</v>
+        <v>1.761</v>
       </c>
       <c r="E125" t="n">
-        <v>1.752</v>
+        <v>1.753</v>
       </c>
       <c r="F125" t="n">
-        <v>643932.7199</v>
+        <v>560001.8391</v>
       </c>
       <c r="G125" t="n">
-        <v>-43720224.23732301</v>
+        <v>-18653475.17499433</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1.756</v>
+      </c>
       <c r="K125" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5170,32 +5008,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.752</v>
+        <v>1.755</v>
       </c>
       <c r="C126" t="n">
-        <v>1.751</v>
+        <v>1.755</v>
       </c>
       <c r="D126" t="n">
-        <v>1.752</v>
+        <v>1.755</v>
       </c>
       <c r="E126" t="n">
-        <v>1.751</v>
+        <v>1.755</v>
       </c>
       <c r="F126" t="n">
-        <v>121100.4144</v>
+        <v>100000</v>
       </c>
       <c r="G126" t="n">
-        <v>-43841324.651723</v>
+        <v>-18553475.17499433</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1.753</v>
+      </c>
       <c r="K126" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5212,32 +5052,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.769</v>
+        <v>1.754</v>
       </c>
       <c r="C127" t="n">
-        <v>1.769</v>
+        <v>1.754</v>
       </c>
       <c r="D127" t="n">
-        <v>1.769</v>
+        <v>1.754</v>
       </c>
       <c r="E127" t="n">
-        <v>1.769</v>
+        <v>1.754</v>
       </c>
       <c r="F127" t="n">
-        <v>597.7971</v>
+        <v>30507.6826</v>
       </c>
       <c r="G127" t="n">
-        <v>-43840726.854623</v>
+        <v>-18583982.85759433</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1.755</v>
+      </c>
       <c r="K127" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5254,32 +5096,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.768</v>
+        <v>1.767</v>
       </c>
       <c r="C128" t="n">
-        <v>1.768</v>
+        <v>1.767</v>
       </c>
       <c r="D128" t="n">
-        <v>1.768</v>
+        <v>1.767</v>
       </c>
       <c r="E128" t="n">
-        <v>1.752</v>
+        <v>1.767</v>
       </c>
       <c r="F128" t="n">
-        <v>3077094</v>
+        <v>14638.339</v>
       </c>
       <c r="G128" t="n">
-        <v>-46917820.854623</v>
+        <v>-18569344.51859433</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1.754</v>
+      </c>
       <c r="K128" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5296,32 +5140,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.752</v>
+        <v>1.754</v>
       </c>
       <c r="C129" t="n">
-        <v>1.751</v>
+        <v>1.753</v>
       </c>
       <c r="D129" t="n">
-        <v>1.752</v>
+        <v>1.754</v>
       </c>
       <c r="E129" t="n">
-        <v>1.751</v>
+        <v>1.753</v>
       </c>
       <c r="F129" t="n">
-        <v>717782.7872</v>
+        <v>14836.2487</v>
       </c>
       <c r="G129" t="n">
-        <v>-47635603.641823</v>
+        <v>-18584180.76729433</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1.767</v>
+      </c>
       <c r="K129" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5338,32 +5184,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.75</v>
+        <v>1.765</v>
       </c>
       <c r="C130" t="n">
-        <v>1.748</v>
+        <v>1.765</v>
       </c>
       <c r="D130" t="n">
-        <v>1.75</v>
+        <v>1.765</v>
       </c>
       <c r="E130" t="n">
-        <v>1.748</v>
+        <v>1.765</v>
       </c>
       <c r="F130" t="n">
-        <v>222628.2495</v>
+        <v>20000</v>
       </c>
       <c r="G130" t="n">
-        <v>-47858231.891323</v>
+        <v>-18564180.76729433</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1.753</v>
+      </c>
       <c r="K130" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5380,32 +5228,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.748</v>
+        <v>1.766</v>
       </c>
       <c r="C131" t="n">
-        <v>1.748</v>
+        <v>1.766</v>
       </c>
       <c r="D131" t="n">
-        <v>1.748</v>
+        <v>1.766</v>
       </c>
       <c r="E131" t="n">
-        <v>1.748</v>
+        <v>1.766</v>
       </c>
       <c r="F131" t="n">
-        <v>287</v>
+        <v>166148.4135</v>
       </c>
       <c r="G131" t="n">
-        <v>-47858231.891323</v>
+        <v>-18398032.35379433</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1.765</v>
+      </c>
       <c r="K131" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5422,22 +5272,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.748</v>
+        <v>1.778</v>
       </c>
       <c r="C132" t="n">
-        <v>1.748</v>
+        <v>1.779</v>
       </c>
       <c r="D132" t="n">
-        <v>1.748</v>
+        <v>1.779</v>
       </c>
       <c r="E132" t="n">
-        <v>1.748</v>
+        <v>1.778</v>
       </c>
       <c r="F132" t="n">
-        <v>287</v>
+        <v>6219.0602</v>
       </c>
       <c r="G132" t="n">
-        <v>-47858231.891323</v>
+        <v>-18391813.29359433</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5447,7 +5297,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5464,22 +5314,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.748</v>
+        <v>1.778</v>
       </c>
       <c r="C133" t="n">
-        <v>1.748</v>
+        <v>1.778</v>
       </c>
       <c r="D133" t="n">
-        <v>1.748</v>
+        <v>1.778</v>
       </c>
       <c r="E133" t="n">
-        <v>1.748</v>
+        <v>1.754</v>
       </c>
       <c r="F133" t="n">
-        <v>287</v>
+        <v>3110020</v>
       </c>
       <c r="G133" t="n">
-        <v>-47858231.891323</v>
+        <v>-21501833.29359433</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5489,7 +5339,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5506,22 +5356,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.747</v>
+        <v>1.754</v>
       </c>
       <c r="C134" t="n">
-        <v>1.747</v>
+        <v>1.754</v>
       </c>
       <c r="D134" t="n">
-        <v>1.747</v>
+        <v>1.778</v>
       </c>
       <c r="E134" t="n">
-        <v>1.747</v>
+        <v>1.754</v>
       </c>
       <c r="F134" t="n">
-        <v>287</v>
+        <v>1178097</v>
       </c>
       <c r="G134" t="n">
-        <v>-47858518.891323</v>
+        <v>-22679930.29359433</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5531,7 +5381,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5548,22 +5398,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.746</v>
+        <v>1.76</v>
       </c>
       <c r="C135" t="n">
-        <v>1.744</v>
+        <v>1.765</v>
       </c>
       <c r="D135" t="n">
-        <v>1.746</v>
+        <v>1.765</v>
       </c>
       <c r="E135" t="n">
-        <v>1.744</v>
+        <v>1.75</v>
       </c>
       <c r="F135" t="n">
-        <v>107072.9986</v>
+        <v>1220514.3919</v>
       </c>
       <c r="G135" t="n">
-        <v>-47965591.889923</v>
+        <v>-21459415.90169434</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5573,7 +5423,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5590,22 +5440,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.743</v>
+        <v>1.768</v>
       </c>
       <c r="C136" t="n">
-        <v>1.743</v>
+        <v>1.787</v>
       </c>
       <c r="D136" t="n">
-        <v>1.743</v>
+        <v>1.787</v>
       </c>
       <c r="E136" t="n">
-        <v>1.743</v>
+        <v>1.768</v>
       </c>
       <c r="F136" t="n">
-        <v>700</v>
+        <v>1419893.197871293</v>
       </c>
       <c r="G136" t="n">
-        <v>-47966291.889923</v>
+        <v>-20039522.70382304</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5615,7 +5465,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5632,22 +5482,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.748</v>
+        <v>1.786</v>
       </c>
       <c r="C137" t="n">
-        <v>1.748</v>
+        <v>1.786</v>
       </c>
       <c r="D137" t="n">
-        <v>1.748</v>
+        <v>1.786</v>
       </c>
       <c r="E137" t="n">
-        <v>1.748</v>
+        <v>1.751</v>
       </c>
       <c r="F137" t="n">
-        <v>1158.2026</v>
+        <v>2510716</v>
       </c>
       <c r="G137" t="n">
-        <v>-47965133.687323</v>
+        <v>-22550238.70382304</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5657,7 +5507,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5674,22 +5524,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.747</v>
+        <v>1.752</v>
       </c>
       <c r="C138" t="n">
-        <v>1.747</v>
+        <v>1.762</v>
       </c>
       <c r="D138" t="n">
-        <v>1.747</v>
+        <v>1.786</v>
       </c>
       <c r="E138" t="n">
-        <v>1.747</v>
+        <v>1.752</v>
       </c>
       <c r="F138" t="n">
-        <v>286.205</v>
+        <v>1089259</v>
       </c>
       <c r="G138" t="n">
-        <v>-47965419.89232299</v>
+        <v>-23639497.70382304</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5699,7 +5549,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5716,22 +5566,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.747</v>
+        <v>1.786</v>
       </c>
       <c r="C139" t="n">
-        <v>1.769</v>
+        <v>1.786</v>
       </c>
       <c r="D139" t="n">
-        <v>1.769</v>
+        <v>1.786</v>
       </c>
       <c r="E139" t="n">
-        <v>1.747</v>
+        <v>1.786</v>
       </c>
       <c r="F139" t="n">
-        <v>650955.1742</v>
+        <v>298945.8743</v>
       </c>
       <c r="G139" t="n">
-        <v>-47314464.718123</v>
+        <v>-23340551.82952304</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5741,7 +5591,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5758,22 +5608,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.769</v>
+        <v>1.762</v>
       </c>
       <c r="C140" t="n">
-        <v>1.751</v>
+        <v>1.761</v>
       </c>
       <c r="D140" t="n">
-        <v>1.77</v>
+        <v>1.762</v>
       </c>
       <c r="E140" t="n">
-        <v>1.743</v>
+        <v>1.761</v>
       </c>
       <c r="F140" t="n">
-        <v>2837421.2859</v>
+        <v>203750.709</v>
       </c>
       <c r="G140" t="n">
-        <v>-50151886.00402299</v>
+        <v>-23544302.53852304</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5783,7 +5633,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5800,22 +5650,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.769</v>
+        <v>1.786</v>
       </c>
       <c r="C141" t="n">
-        <v>1.769</v>
+        <v>1.786</v>
       </c>
       <c r="D141" t="n">
-        <v>1.769</v>
+        <v>1.786</v>
       </c>
       <c r="E141" t="n">
-        <v>1.769</v>
+        <v>1.786</v>
       </c>
       <c r="F141" t="n">
-        <v>981.2258</v>
+        <v>444665.1009</v>
       </c>
       <c r="G141" t="n">
-        <v>-50150904.77822299</v>
+        <v>-23099637.43762304</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5825,7 +5675,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5842,22 +5692,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.766</v>
+        <v>1.785</v>
       </c>
       <c r="C142" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="D142" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="E142" t="n">
-        <v>1.766</v>
+        <v>1.785</v>
       </c>
       <c r="F142" t="n">
-        <v>6602.5405</v>
+        <v>281461</v>
       </c>
       <c r="G142" t="n">
-        <v>-50144302.23772299</v>
+        <v>-23381098.43762304</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5867,7 +5717,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5884,22 +5734,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.747</v>
+        <v>1.762</v>
       </c>
       <c r="C143" t="n">
-        <v>1.746</v>
+        <v>1.764</v>
       </c>
       <c r="D143" t="n">
-        <v>1.747</v>
+        <v>1.785</v>
       </c>
       <c r="E143" t="n">
-        <v>1.746</v>
+        <v>1.754</v>
       </c>
       <c r="F143" t="n">
-        <v>6299.046</v>
+        <v>3454112</v>
       </c>
       <c r="G143" t="n">
-        <v>-50150601.28372299</v>
+        <v>-26835210.43762304</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5909,7 +5759,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5926,22 +5776,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.769</v>
+        <v>1.786</v>
       </c>
       <c r="C144" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="D144" t="n">
-        <v>1.77</v>
+        <v>1.786</v>
       </c>
       <c r="E144" t="n">
-        <v>1.769</v>
+        <v>1.758</v>
       </c>
       <c r="F144" t="n">
-        <v>1899.812</v>
+        <v>1792558.854</v>
       </c>
       <c r="G144" t="n">
-        <v>-50148701.47172299</v>
+        <v>-25042651.58362304</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5951,7 +5801,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5968,22 +5818,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.769</v>
+        <v>1.761</v>
       </c>
       <c r="C145" t="n">
-        <v>1.752</v>
+        <v>1.762</v>
       </c>
       <c r="D145" t="n">
-        <v>1.769</v>
+        <v>1.785</v>
       </c>
       <c r="E145" t="n">
-        <v>1.752</v>
+        <v>1.761</v>
       </c>
       <c r="F145" t="n">
-        <v>657057</v>
+        <v>2149943</v>
       </c>
       <c r="G145" t="n">
-        <v>-50805758.47172299</v>
+        <v>-27192594.58362304</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5993,7 +5843,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6010,22 +5860,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.769</v>
+        <v>1.786</v>
       </c>
       <c r="C146" t="n">
-        <v>1.751</v>
+        <v>1.786</v>
       </c>
       <c r="D146" t="n">
-        <v>1.769</v>
+        <v>1.786</v>
       </c>
       <c r="E146" t="n">
-        <v>1.745</v>
+        <v>1.786</v>
       </c>
       <c r="F146" t="n">
-        <v>2756999</v>
+        <v>907.146</v>
       </c>
       <c r="G146" t="n">
-        <v>-53562757.47172299</v>
+        <v>-27191687.43762304</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6035,7 +5885,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6052,22 +5902,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.767</v>
+        <v>1.785</v>
       </c>
       <c r="C147" t="n">
-        <v>1.767</v>
+        <v>1.762</v>
       </c>
       <c r="D147" t="n">
-        <v>1.767</v>
+        <v>1.785</v>
       </c>
       <c r="E147" t="n">
-        <v>1.767</v>
+        <v>1.762</v>
       </c>
       <c r="F147" t="n">
-        <v>538.6268</v>
+        <v>1508178</v>
       </c>
       <c r="G147" t="n">
-        <v>-53562218.84492299</v>
+        <v>-28699865.43762304</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6077,7 +5927,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6094,22 +5944,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.767</v>
+        <v>1.785</v>
       </c>
       <c r="C148" t="n">
-        <v>1.751</v>
+        <v>1.761</v>
       </c>
       <c r="D148" t="n">
-        <v>1.767</v>
+        <v>1.785</v>
       </c>
       <c r="E148" t="n">
-        <v>1.751</v>
+        <v>1.759</v>
       </c>
       <c r="F148" t="n">
-        <v>601582.3205</v>
+        <v>1629902</v>
       </c>
       <c r="G148" t="n">
-        <v>-54163801.16542299</v>
+        <v>-30329767.43762304</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6119,7 +5969,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6136,22 +5986,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.766</v>
+        <v>1.784</v>
       </c>
       <c r="C149" t="n">
-        <v>1.751</v>
+        <v>1.785</v>
       </c>
       <c r="D149" t="n">
-        <v>1.766</v>
+        <v>1.785</v>
       </c>
       <c r="E149" t="n">
-        <v>1.751</v>
+        <v>1.762</v>
       </c>
       <c r="F149" t="n">
-        <v>2902648</v>
+        <v>787010</v>
       </c>
       <c r="G149" t="n">
-        <v>-54163801.16542299</v>
+        <v>-29542757.43762304</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6161,7 +6011,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6178,22 +6028,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.767</v>
+        <v>1.783</v>
       </c>
       <c r="C150" t="n">
-        <v>1.767</v>
+        <v>1.783</v>
       </c>
       <c r="D150" t="n">
-        <v>1.767</v>
+        <v>1.783</v>
       </c>
       <c r="E150" t="n">
-        <v>1.767</v>
+        <v>1.766</v>
       </c>
       <c r="F150" t="n">
-        <v>1386.6705</v>
+        <v>720392</v>
       </c>
       <c r="G150" t="n">
-        <v>-54162414.49492299</v>
+        <v>-30263149.43762304</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6203,7 +6053,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6220,22 +6070,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.752</v>
+        <v>1.783</v>
       </c>
       <c r="C151" t="n">
-        <v>1.74</v>
+        <v>1.766</v>
       </c>
       <c r="D151" t="n">
-        <v>1.752</v>
+        <v>1.783</v>
       </c>
       <c r="E151" t="n">
-        <v>1.74</v>
+        <v>1.765</v>
       </c>
       <c r="F151" t="n">
-        <v>200000</v>
+        <v>3258482.099</v>
       </c>
       <c r="G151" t="n">
-        <v>-54362414.49492299</v>
+        <v>-33521631.53662304</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6245,7 +6095,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>1.75</v>
+        <v>1.771</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6262,22 +6112,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.759</v>
+        <v>1.764</v>
       </c>
       <c r="C152" t="n">
-        <v>1.759</v>
+        <v>1.764</v>
       </c>
       <c r="D152" t="n">
-        <v>1.759</v>
+        <v>1.764</v>
       </c>
       <c r="E152" t="n">
-        <v>1.759</v>
+        <v>1.764</v>
       </c>
       <c r="F152" t="n">
-        <v>385.3062</v>
+        <v>20259.3245</v>
       </c>
       <c r="G152" t="n">
-        <v>-54362029.18872299</v>
+        <v>-33541890.86112304</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6287,17 +6137,3003 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F153" t="n">
+        <v>447.6516</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-33541443.20952304</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="F154" t="n">
+        <v>86162.4457</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-33627605.65522303</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3364999</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-36992604.65522303</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="F156" t="n">
+        <v>949788</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-36992604.65522303</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F157" t="n">
+        <v>808.5718000000001</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-36991796.08342303</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F158" t="n">
+        <v>61328.5507</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-37053124.63412303</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="F159" t="n">
+        <v>640967.1614</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-36412157.47272304</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1355670</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-37767827.47272304</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F161" t="n">
+        <v>816153.4941</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-38583980.96682303</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F162" t="n">
+        <v>95137.08839999999</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-38583980.96682303</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
         <v>1.75</v>
       </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="C163" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1663493.7673</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-40247474.73412304</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F164" t="n">
+        <v>438648.2354</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-40686122.96952303</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2227742.4179</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-38458380.55162303</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1275796.9329</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-39734177.48452303</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1307155.6887</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-38427021.79582303</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F168" t="n">
+        <v>400.5334</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-38426621.26242303</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F169" t="n">
+        <v>67328.9659</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-38493950.22832303</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F170" t="n">
+        <v>83982.8034</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-38409967.42492303</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F171" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-38414967.42492303</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F172" t="n">
+        <v>121302.4666</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-38293664.95832302</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18792.7936</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-38312457.75192302</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F174" t="n">
+        <v>11207.1469</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-38323664.89882302</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2963788</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-35359876.89882302</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1189875.2507</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-36549752.14952302</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="F177" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-36554752.14952302</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F178" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-36559752.14952302</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="F179" t="n">
+        <v>261946.1688</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-36821698.31832302</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F180" t="n">
+        <v>20913.6097</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-36842611.92802302</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F181" t="n">
+        <v>471.3231</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-36842140.60492302</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F182" t="n">
+        <v>10456.8048</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-36852597.40972301</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F183" t="n">
+        <v>712064.4024</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-36140533.00732301</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F184" t="n">
+        <v>265217</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-36140533.00732301</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2762679</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-38903212.00732301</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F186" t="n">
+        <v>472.6883</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-38902739.31902301</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1195.9012</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-38903935.22022301</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1063580</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-37840355.22022301</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2695466</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-40535821.22022301</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1063.739</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-40534757.48122301</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F191" t="n">
+        <v>11531.3825</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-40546288.86372301</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1339.332</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-40544949.53172301</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F193" t="n">
+        <v>247219.0026</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-40792168.53432301</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="F194" t="n">
+        <v>738.5771</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-40791429.95722301</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F195" t="n">
+        <v>3572727</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-44364156.95722301</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F196" t="n">
+        <v>643932.7199</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-43720224.23732301</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F197" t="n">
+        <v>121100.4144</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-43841324.651723</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F198" t="n">
+        <v>597.7971</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-43840726.854623</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3077094</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-46917820.854623</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F200" t="n">
+        <v>717782.7872</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-47635603.641823</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="F201" t="n">
+        <v>222628.2495</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-47858231.891323</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="F202" t="n">
+        <v>287</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-47858231.891323</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="F203" t="n">
+        <v>287</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-47858231.891323</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="F204" t="n">
+        <v>287</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-47858231.891323</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="F205" t="n">
+        <v>287</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-47858518.891323</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="F206" t="n">
+        <v>107072.9986</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-47965591.889923</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="F207" t="n">
+        <v>700</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-47966291.889923</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1158.2026</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-47965133.687323</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="F209" t="n">
+        <v>286.205</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-47965419.89232299</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="K209" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="F210" t="n">
+        <v>650955.1742</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-47314464.718123</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2837421.2859</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-50151886.00402299</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F212" t="n">
+        <v>981.2258</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-50150904.77822299</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="F213" t="n">
+        <v>6602.5405</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-50144302.23772299</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="F214" t="n">
+        <v>6299.046</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-50150601.28372299</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1899.812</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-50148701.47172299</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F216" t="n">
+        <v>657057</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-50805758.47172299</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2756999</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-53562757.47172299</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="F218" t="n">
+        <v>538.6268</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-53562218.84492299</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F219" t="n">
+        <v>601582.3205</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-54163801.16542299</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2902648</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-54163801.16542299</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1386.6705</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-54162414.49492299</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F222" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-54362414.49492299</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="F223" t="n">
+        <v>385.3062</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-54362029.18872299</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest AOA.xlsx
+++ b/BackTest/2020-01-23 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>2250000.256139444</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>4071301.677139444</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>6932621.661739444</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>6032700.399339444</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>5172756.324939444</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>5172756.324939444</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>5173305.495939444</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>5173305.495939444</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>4577974.461239443</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1150652.461239443</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1150652.461239443</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1150652.461239443</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2175603.538760557</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-3198741.254960557</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-6051600.254960557</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-6051322.254960557</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-8455280.254960557</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-8197487.254960557</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-9512366.254960557</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-9512087.254960557</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-10976785.25496056</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-10976785.25496056</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-10976233.73936056</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-13857513.35666056</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-11016509.35666056</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-11016509.35666056</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-11016230.35666056</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-11156814.09846056</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-9005130.098460559</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-9005130.098460559</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-9004851.098460559</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-9005131.098460559</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-9205907.586460559</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-9205907.586460559</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-9206188.586460559</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-9205732.676260559</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-10398949.67096056</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-10287309.82826056</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-10288934.56506056</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-10287853.53236056</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-10287053.53236056</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-10449830.13506056</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-10449001.54606056</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-10449861.02886056</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-10499861.02886056</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-10499861.02886056</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-10499581.02886056</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-10499581.02886056</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-10499581.02886056</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-10499581.02886056</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-10499861.02886056</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-10499861.02886056</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-10499576.02886056</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-10608365.26366056</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-10920713.55576055</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-10920713.55576055</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-10920713.55576055</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-10808856.73249434</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-10978615.36839434</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-10978615.36839434</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-11169436.87279434</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-11864812.81449434</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-11864490.56269434</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-11826723.33129434</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-12453872.33129434</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-12455552.96109433</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-12460584.98849433</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-12460584.98849433</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-12482332.44039433</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-13045605.36129433</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-12989425.58599433</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-12989425.58599433</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-12989425.58599433</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-12992708.80829434</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-12992334.54769433</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-13699791.65249434</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-13682163.96589434</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-13682163.96589434</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-13682163.96589434</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-13691745.31089434</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-13690920.36979434</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-17195842.31089434</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-18093473.33589434</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-18653475.17499433</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-18553475.17499433</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-18583982.85759433</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-18569344.51859433</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-18584180.76729433</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -7249,10 +7249,14 @@
         <v>-47965133.687323</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1.743</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
@@ -7285,8 +7289,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7325,19 @@
         <v>-47314464.718123</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7645,17 +7663,11 @@
         <v>-54163801.16542299</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1.751</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7688,11 +7700,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7721,17 +7729,11 @@
         <v>-54362414.49492299</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>1.767</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7764,17 +7766,13 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
       <c r="M223" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest AOA.xlsx
+++ b/BackTest/2020-01-23 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>2250000.256139444</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>4071301.677139444</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>6932621.661739444</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>6032700.399339444</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>5172756.324939444</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>5172756.324939444</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>5173305.495939444</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>5173305.495939444</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>4577974.461239443</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-6051600.254960557</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-6051322.254960557</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-8197487.254960557</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-9512366.254960557</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-9512087.254960557</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-10976785.25496056</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-10976785.25496056</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-10976233.73936056</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-13857513.35666056</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-11016509.35666056</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-11016509.35666056</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-11016230.35666056</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-11156814.09846056</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-9005130.098460559</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-9005130.098460559</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-9004851.098460559</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-9005131.098460559</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-9205907.586460559</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-9205907.586460559</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-9206188.586460559</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-9205732.676260559</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-10398949.67096056</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-10287309.82826056</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-10288934.56506056</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-10287853.53236056</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-10287053.53236056</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-10449830.13506056</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-10449001.54606056</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-10449861.02886056</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-10499861.02886056</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-10499861.02886056</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-10499581.02886056</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-10499581.02886056</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-10499581.02886056</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-10499861.02886056</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-10499861.02886056</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-10499576.02886056</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-10608365.26366056</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-10920713.55576055</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-10920713.55576055</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-10920713.55576055</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-10808856.73249434</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-10978615.36839434</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-10978615.36839434</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-11169436.87279434</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-11864812.81449434</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-11864490.56269434</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-11826723.33129434</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-12453872.33129434</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-12455552.96109433</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-12460584.98849433</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-12460584.98849433</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-12482332.44039433</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-13045605.36129433</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-12989425.58599433</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-12989425.58599433</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-12989425.58599433</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-12992708.80829434</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-12992334.54769433</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-13699791.65249434</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-13682163.96589434</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-13682163.96589434</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-13682163.96589434</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-13691745.31089434</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-13690920.36979434</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-17195842.31089434</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-18093473.33589434</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-18653475.17499433</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-18553475.17499433</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-18583982.85759433</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,10 +4609,14 @@
         <v>-18569344.51859433</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.754</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
@@ -4642,11 +4646,17 @@
         <v>-18584180.76729433</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4688,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +4727,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4766,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +4805,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +4844,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +4883,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +4922,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +4961,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5000,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5039,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5078,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5117,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5156,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5195,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5234,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5273,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5312,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5351,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5390,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5429,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5468,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5507,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5546,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5585,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +5624,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5663,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +5702,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5741,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5780,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +5819,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +5858,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +5897,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +5936,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +5975,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6014,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6053,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6092,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6131,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6170,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6209,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6248,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6287,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6326,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6365,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6404,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6443,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,13 +6479,19 @@
         <v>-36549752.14952302</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L176" t="n">
-        <v>1</v>
+        <v>1.008112884834664</v>
       </c>
       <c r="M176" t="inlineStr"/>
     </row>
@@ -6226,7 +6518,7 @@
         <v>-36554752.14952302</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6551,7 @@
         <v>-36559752.14952302</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6584,7 @@
         <v>-36821698.31832302</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6617,7 @@
         <v>-36842611.92802302</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7249,14 +7541,10 @@
         <v>-47965133.687323</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="J208" t="n">
-        <v>1.743</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
@@ -7289,14 +7577,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7325,19 +7607,11 @@
         <v>-47314464.718123</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="J210" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7432,7 +7706,7 @@
         <v>-50144302.23772299</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7729,7 +8003,7 @@
         <v>-54362414.49492299</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7773,6 +8047,6 @@
       <c r="M223" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest AOA.xlsx
+++ b/BackTest/2020-01-23 BackTest AOA.xlsx
@@ -1309,7 +1309,7 @@
         <v>1150374.461239443</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1150652.461239443</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1150652.461239443</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1150652.461239443</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2175603.538760557</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2216846.279160557</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2216568.279160557</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-10608365.26366056</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-10920713.55576055</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-10920713.55576055</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4609,14 +4609,10 @@
         <v>-18569344.51859433</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="J128" t="n">
-        <v>1.754</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
@@ -4649,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4688,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4727,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4766,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4805,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4844,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4883,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4922,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4961,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5000,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5039,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5078,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5117,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5156,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5195,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5234,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5273,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5312,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5351,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5390,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5429,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5468,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5507,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5546,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5585,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5624,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5663,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5702,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5741,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5780,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5819,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5858,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5897,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5936,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5975,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6014,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6053,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6092,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6131,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6170,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6209,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6248,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6287,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6326,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6365,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6404,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6443,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6479,19 +6193,13 @@
         <v>-36549752.14952302</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
-        <v>1.008112884834664</v>
+        <v>1</v>
       </c>
       <c r="M176" t="inlineStr"/>
     </row>
@@ -6518,7 +6226,7 @@
         <v>-36554752.14952302</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6551,7 +6259,7 @@
         <v>-36559752.14952302</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6584,7 +6292,7 @@
         <v>-36821698.31832302</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6617,7 +6325,7 @@
         <v>-36842611.92802302</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7607,11 +7315,17 @@
         <v>-47314464.718123</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1.747</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7644,7 +7358,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7677,7 +7395,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7706,11 +7428,15 @@
         <v>-50144302.23772299</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7743,7 +7469,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7776,7 +7506,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7809,7 +7543,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7842,7 +7580,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7875,7 +7617,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7908,7 +7654,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7941,7 +7691,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7974,7 +7728,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8003,11 +7761,15 @@
         <v>-54362414.49492299</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8040,7 +7802,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-23 BackTest AOA.xlsx
+++ b/BackTest/2020-01-23 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M223"/>
+  <dimension ref="A1:L223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>129558.4208</v>
       </c>
       <c r="G2" t="n">
-        <v>-5290774.743860556</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2607780</v>
       </c>
       <c r="G3" t="n">
-        <v>-2682994.743860556</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>829828</v>
       </c>
       <c r="G4" t="n">
-        <v>-2682994.743860556</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2699574</v>
       </c>
       <c r="G5" t="n">
-        <v>16579.25613944419</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>732059</v>
       </c>
       <c r="G6" t="n">
-        <v>16579.25613944419</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2233421</v>
       </c>
       <c r="G7" t="n">
-        <v>2250000.256139444</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1169688</v>
       </c>
       <c r="G8" t="n">
-        <v>1080312.256139444</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>2971439</v>
       </c>
       <c r="G9" t="n">
-        <v>4051751.256139444</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>719068</v>
       </c>
       <c r="G10" t="n">
-        <v>4051751.256139444</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>20000</v>
       </c>
       <c r="G11" t="n">
-        <v>4071751.256139444</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>449.579</v>
       </c>
       <c r="G12" t="n">
-        <v>4071301.677139444</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1347841.9846</v>
       </c>
       <c r="G13" t="n">
-        <v>5419143.661739444</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1513478</v>
       </c>
       <c r="G14" t="n">
-        <v>6932621.661739444</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>899921.2624</v>
       </c>
       <c r="G15" t="n">
-        <v>6032700.399339444</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>859944.0744</v>
       </c>
       <c r="G16" t="n">
-        <v>5172756.324939444</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>429972.0372</v>
       </c>
       <c r="G17" t="n">
-        <v>5172756.324939444</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>549.171</v>
       </c>
       <c r="G18" t="n">
-        <v>5173305.495939444</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>58971.5773</v>
       </c>
       <c r="G19" t="n">
-        <v>5173305.495939444</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>52286.5938</v>
       </c>
       <c r="G20" t="n">
-        <v>5173305.495939444</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>64115.8916</v>
       </c>
       <c r="G21" t="n">
-        <v>5237421.387539444</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>196170.5452</v>
       </c>
       <c r="G22" t="n">
-        <v>5433591.932739443</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>40042.4715</v>
       </c>
       <c r="G23" t="n">
-        <v>5393549.461239443</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>815575</v>
       </c>
       <c r="G24" t="n">
-        <v>4577974.461239443</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>278</v>
       </c>
       <c r="G25" t="n">
-        <v>4578252.461239443</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1200.2689</v>
       </c>
       <c r="G26" t="n">
-        <v>4578252.461239443</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>3427878</v>
       </c>
       <c r="G27" t="n">
-        <v>1150374.461239443</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>758714</v>
       </c>
       <c r="G28" t="n">
-        <v>1150374.461239443</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>278</v>
       </c>
       <c r="G29" t="n">
-        <v>1150652.461239443</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>214132.2222222222</v>
       </c>
       <c r="G30" t="n">
-        <v>1150652.461239443</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>227986</v>
       </c>
       <c r="G31" t="n">
-        <v>1150652.461239443</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>3326256</v>
       </c>
       <c r="G32" t="n">
-        <v>-2175603.538760557</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>41242.7404</v>
       </c>
       <c r="G33" t="n">
-        <v>-2216846.279160557</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>278</v>
       </c>
       <c r="G34" t="n">
-        <v>-2216568.279160557</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>4095.1512</v>
       </c>
       <c r="G35" t="n">
-        <v>-2216568.279160557</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1375.0242</v>
       </c>
       <c r="G36" t="n">
-        <v>-2215193.254960557</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>983548</v>
       </c>
       <c r="G37" t="n">
-        <v>-3198741.254960557</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>2852859</v>
       </c>
       <c r="G38" t="n">
-        <v>-6051600.254960557</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>5470.1754</v>
       </c>
       <c r="G39" t="n">
-        <v>-6051600.254960557</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>278</v>
       </c>
       <c r="G40" t="n">
-        <v>-6051322.254960557</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>2403958</v>
       </c>
       <c r="G41" t="n">
-        <v>-8455280.254960557</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>257793</v>
       </c>
       <c r="G42" t="n">
-        <v>-8197487.254960557</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1314879</v>
       </c>
       <c r="G43" t="n">
-        <v>-9512366.254960557</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>279</v>
       </c>
       <c r="G44" t="n">
-        <v>-9512087.254960557</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1464698</v>
       </c>
       <c r="G45" t="n">
-        <v>-10976785.25496056</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>2154418</v>
       </c>
       <c r="G46" t="n">
-        <v>-10976785.25496056</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>551.5155999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>-10976233.73936056</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>2881279.6173</v>
       </c>
       <c r="G48" t="n">
-        <v>-13857513.35666056</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>2841004</v>
       </c>
       <c r="G49" t="n">
-        <v>-11016509.35666056</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>736966</v>
       </c>
       <c r="G50" t="n">
-        <v>-11016509.35666056</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>279</v>
       </c>
       <c r="G51" t="n">
-        <v>-11016230.35666056</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>140583.7418</v>
       </c>
       <c r="G52" t="n">
-        <v>-11156814.09846056</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>2151684</v>
       </c>
       <c r="G53" t="n">
-        <v>-9005130.098460559</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1518181</v>
       </c>
       <c r="G54" t="n">
-        <v>-9005130.098460559</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>279</v>
       </c>
       <c r="G55" t="n">
-        <v>-9004851.098460559</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>280</v>
       </c>
       <c r="G56" t="n">
-        <v>-9005131.098460559</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>200776.488</v>
       </c>
       <c r="G57" t="n">
-        <v>-9205907.586460559</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>55758.5912</v>
       </c>
       <c r="G58" t="n">
-        <v>-9205907.586460559</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>281</v>
       </c>
       <c r="G59" t="n">
-        <v>-9206188.586460559</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>455.9102</v>
       </c>
       <c r="G60" t="n">
-        <v>-9205732.676260559</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>999</v>
       </c>
       <c r="G61" t="n">
-        <v>-9205732.676260559</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>995593.3370000001</v>
       </c>
       <c r="G62" t="n">
-        <v>-10201326.01326056</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>2376.3423</v>
       </c>
       <c r="G63" t="n">
-        <v>-10198949.67096056</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>200000</v>
       </c>
       <c r="G64" t="n">
-        <v>-10398949.67096056</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>111639.8427</v>
       </c>
       <c r="G65" t="n">
-        <v>-10287309.82826056</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>16787.9128</v>
       </c>
       <c r="G66" t="n">
-        <v>-10287309.82826056</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1759.7212</v>
       </c>
       <c r="G67" t="n">
-        <v>-10287309.82826056</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1000</v>
       </c>
       <c r="G68" t="n">
-        <v>-10287309.82826056</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>2000</v>
       </c>
       <c r="G69" t="n">
-        <v>-10287309.82826056</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>5000</v>
       </c>
       <c r="G70" t="n">
-        <v>-10287309.82826056</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1624.7368</v>
       </c>
       <c r="G71" t="n">
-        <v>-10288934.56506056</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>1100</v>
       </c>
       <c r="G72" t="n">
-        <v>-10288934.56506056</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>1081.0327</v>
       </c>
       <c r="G73" t="n">
-        <v>-10287853.53236056</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>48918.9673</v>
       </c>
       <c r="G74" t="n">
-        <v>-10287853.53236056</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>800</v>
       </c>
       <c r="G75" t="n">
-        <v>-10287053.53236056</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>63526.6966</v>
       </c>
       <c r="G76" t="n">
-        <v>-10350580.22896056</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>24348.809</v>
       </c>
       <c r="G77" t="n">
-        <v>-10350580.22896056</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>100000</v>
       </c>
       <c r="G78" t="n">
-        <v>-10450580.22896056</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>750.0939</v>
       </c>
       <c r="G79" t="n">
-        <v>-10449830.13506056</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>1678.791270285395</v>
       </c>
       <c r="G80" t="n">
-        <v>-10449830.13506056</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>233000</v>
       </c>
       <c r="G81" t="n">
-        <v>-10449830.13506056</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>600.8017297146055</v>
       </c>
       <c r="G82" t="n">
-        <v>-10449830.13506056</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>828.5890000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>-10449001.54606056</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>859.4828</v>
       </c>
       <c r="G84" t="n">
-        <v>-10449861.02886056</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>60624.58717028539</v>
       </c>
       <c r="G85" t="n">
-        <v>-10449861.02886056</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>50000</v>
       </c>
       <c r="G86" t="n">
-        <v>-10499861.02886056</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>41000</v>
       </c>
       <c r="G87" t="n">
-        <v>-10499861.02886056</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>280</v>
       </c>
       <c r="G88" t="n">
-        <v>-10499581.02886056</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>65091.411</v>
       </c>
       <c r="G89" t="n">
-        <v>-10499581.02886056</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>214973.5942</v>
       </c>
       <c r="G90" t="n">
-        <v>-10499581.02886056</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>14376.7761</v>
       </c>
       <c r="G91" t="n">
-        <v>-10499581.02886056</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>280</v>
       </c>
       <c r="G92" t="n">
-        <v>-10499861.02886056</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>184466.9244</v>
       </c>
       <c r="G93" t="n">
-        <v>-10499861.02886056</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>285</v>
       </c>
       <c r="G94" t="n">
-        <v>-10499576.02886056</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>108789.2348</v>
       </c>
       <c r="G95" t="n">
-        <v>-10608365.26366056</v>
-      </c>
-      <c r="H95" t="n">
         <v>2</v>
       </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>312348.2921</v>
       </c>
       <c r="G96" t="n">
-        <v>-10920713.55576055</v>
-      </c>
-      <c r="H96" t="n">
         <v>2</v>
       </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>8387.006600000001</v>
       </c>
       <c r="G97" t="n">
-        <v>-10920713.55576055</v>
-      </c>
-      <c r="H97" t="n">
         <v>2</v>
       </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>1161.9669</v>
       </c>
       <c r="G98" t="n">
-        <v>-10920713.55576055</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>111856.8232662192</v>
       </c>
       <c r="G99" t="n">
-        <v>-10808856.73249434</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>169758.6359</v>
       </c>
       <c r="G100" t="n">
-        <v>-10978615.36839434</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>1538.4847</v>
       </c>
       <c r="G101" t="n">
-        <v>-10978615.36839434</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>190821.5044</v>
       </c>
       <c r="G102" t="n">
-        <v>-11169436.87279434</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>695375.9417</v>
       </c>
       <c r="G103" t="n">
-        <v>-11864812.81449434</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>322.2518</v>
       </c>
       <c r="G104" t="n">
-        <v>-11864490.56269434</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>37767.2314</v>
       </c>
       <c r="G105" t="n">
-        <v>-11826723.33129434</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>627149</v>
       </c>
       <c r="G106" t="n">
-        <v>-12453872.33129434</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>1680.6298</v>
       </c>
       <c r="G107" t="n">
-        <v>-12455552.96109433</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>5032.0274</v>
       </c>
       <c r="G108" t="n">
-        <v>-12460584.98849433</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>50331.737</v>
       </c>
       <c r="G109" t="n">
-        <v>-12460584.98849433</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>21747.4519</v>
       </c>
       <c r="G110" t="n">
-        <v>-12482332.44039433</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,21 @@
         <v>563272.9209</v>
       </c>
       <c r="G111" t="n">
-        <v>-13045605.36129433</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3749,21 @@
         <v>56179.7753</v>
       </c>
       <c r="G112" t="n">
-        <v>-12989425.58599433</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1.768</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3785,19 @@
         <v>62265.2189</v>
       </c>
       <c r="G113" t="n">
-        <v>-12989425.58599433</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3819,19 @@
         <v>5000</v>
       </c>
       <c r="G114" t="n">
-        <v>-12989425.58599433</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3853,19 @@
         <v>3283.2223</v>
       </c>
       <c r="G115" t="n">
-        <v>-12992708.80829434</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3887,19 @@
         <v>374.2606</v>
       </c>
       <c r="G116" t="n">
-        <v>-12992334.54769433</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3921,19 @@
         <v>707457.1048</v>
       </c>
       <c r="G117" t="n">
-        <v>-13699791.65249434</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3955,21 @@
         <v>17627.6866</v>
       </c>
       <c r="G118" t="n">
-        <v>-13682163.96589434</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1.765</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3991,21 @@
         <v>657.7238</v>
       </c>
       <c r="G119" t="n">
-        <v>-13682163.96589434</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4027,21 @@
         <v>2000</v>
       </c>
       <c r="G120" t="n">
-        <v>-13682163.96589434</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4063,21 @@
         <v>9581.344999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>-13691745.31089434</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4099,19 @@
         <v>824.9411</v>
       </c>
       <c r="G122" t="n">
-        <v>-13690920.36979434</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4133,19 @@
         <v>3504921.9411</v>
       </c>
       <c r="G123" t="n">
-        <v>-17195842.31089434</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4167,19 @@
         <v>897631.025</v>
       </c>
       <c r="G124" t="n">
-        <v>-18093473.33589434</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4201,19 @@
         <v>560001.8391</v>
       </c>
       <c r="G125" t="n">
-        <v>-18653475.17499433</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4235,21 @@
         <v>100000</v>
       </c>
       <c r="G126" t="n">
-        <v>-18553475.17499433</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1.753</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4271,21 @@
         <v>30507.6826</v>
       </c>
       <c r="G127" t="n">
-        <v>-18583982.85759433</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1.755</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4307,21 @@
         <v>14638.339</v>
       </c>
       <c r="G128" t="n">
-        <v>-18569344.51859433</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1.754</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4343,21 @@
         <v>14836.2487</v>
       </c>
       <c r="G129" t="n">
-        <v>-18584180.76729433</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1.767</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4379,21 @@
         <v>20000</v>
       </c>
       <c r="G130" t="n">
-        <v>-18564180.76729433</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1.753</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4415,19 @@
         <v>166148.4135</v>
       </c>
       <c r="G131" t="n">
-        <v>-18398032.35379433</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4449,19 @@
         <v>6219.0602</v>
       </c>
       <c r="G132" t="n">
-        <v>-18391813.29359433</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4483,19 @@
         <v>3110020</v>
       </c>
       <c r="G133" t="n">
-        <v>-21501833.29359433</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4517,19 @@
         <v>1178097</v>
       </c>
       <c r="G134" t="n">
-        <v>-22679930.29359433</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4551,19 @@
         <v>1220514.3919</v>
       </c>
       <c r="G135" t="n">
-        <v>-21459415.90169434</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4585,19 @@
         <v>1419893.197871293</v>
       </c>
       <c r="G136" t="n">
-        <v>-20039522.70382304</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4619,19 @@
         <v>2510716</v>
       </c>
       <c r="G137" t="n">
-        <v>-22550238.70382304</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4653,19 @@
         <v>1089259</v>
       </c>
       <c r="G138" t="n">
-        <v>-23639497.70382304</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4687,19 @@
         <v>298945.8743</v>
       </c>
       <c r="G139" t="n">
-        <v>-23340551.82952304</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4721,19 @@
         <v>203750.709</v>
       </c>
       <c r="G140" t="n">
-        <v>-23544302.53852304</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4755,19 @@
         <v>444665.1009</v>
       </c>
       <c r="G141" t="n">
-        <v>-23099637.43762304</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4789,19 @@
         <v>281461</v>
       </c>
       <c r="G142" t="n">
-        <v>-23381098.43762304</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4823,19 @@
         <v>3454112</v>
       </c>
       <c r="G143" t="n">
-        <v>-26835210.43762304</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4857,19 @@
         <v>1792558.854</v>
       </c>
       <c r="G144" t="n">
-        <v>-25042651.58362304</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4891,19 @@
         <v>2149943</v>
       </c>
       <c r="G145" t="n">
-        <v>-27192594.58362304</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4925,19 @@
         <v>907.146</v>
       </c>
       <c r="G146" t="n">
-        <v>-27191687.43762304</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4959,19 @@
         <v>1508178</v>
       </c>
       <c r="G147" t="n">
-        <v>-28699865.43762304</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4993,19 @@
         <v>1629902</v>
       </c>
       <c r="G148" t="n">
-        <v>-30329767.43762304</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5027,19 @@
         <v>787010</v>
       </c>
       <c r="G149" t="n">
-        <v>-29542757.43762304</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5061,19 @@
         <v>720392</v>
       </c>
       <c r="G150" t="n">
-        <v>-30263149.43762304</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5095,19 @@
         <v>3258482.099</v>
       </c>
       <c r="G151" t="n">
-        <v>-33521631.53662304</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5129,19 @@
         <v>20259.3245</v>
       </c>
       <c r="G152" t="n">
-        <v>-33541890.86112304</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5163,19 @@
         <v>447.6516</v>
       </c>
       <c r="G153" t="n">
-        <v>-33541443.20952304</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5197,19 @@
         <v>86162.4457</v>
       </c>
       <c r="G154" t="n">
-        <v>-33627605.65522303</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5231,19 @@
         <v>3364999</v>
       </c>
       <c r="G155" t="n">
-        <v>-36992604.65522303</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5265,19 @@
         <v>949788</v>
       </c>
       <c r="G156" t="n">
-        <v>-36992604.65522303</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5299,19 @@
         <v>808.5718000000001</v>
       </c>
       <c r="G157" t="n">
-        <v>-36991796.08342303</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5333,19 @@
         <v>61328.5507</v>
       </c>
       <c r="G158" t="n">
-        <v>-37053124.63412303</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5367,19 @@
         <v>640967.1614</v>
       </c>
       <c r="G159" t="n">
-        <v>-36412157.47272304</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5401,19 @@
         <v>1355670</v>
       </c>
       <c r="G160" t="n">
-        <v>-37767827.47272304</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5435,19 @@
         <v>816153.4941</v>
       </c>
       <c r="G161" t="n">
-        <v>-38583980.96682303</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5469,19 @@
         <v>95137.08839999999</v>
       </c>
       <c r="G162" t="n">
-        <v>-38583980.96682303</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5503,19 @@
         <v>1663493.7673</v>
       </c>
       <c r="G163" t="n">
-        <v>-40247474.73412304</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5537,19 @@
         <v>438648.2354</v>
       </c>
       <c r="G164" t="n">
-        <v>-40686122.96952303</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5571,19 @@
         <v>2227742.4179</v>
       </c>
       <c r="G165" t="n">
-        <v>-38458380.55162303</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5605,19 @@
         <v>1275796.9329</v>
       </c>
       <c r="G166" t="n">
-        <v>-39734177.48452303</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5639,19 @@
         <v>1307155.6887</v>
       </c>
       <c r="G167" t="n">
-        <v>-38427021.79582303</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5673,19 @@
         <v>400.5334</v>
       </c>
       <c r="G168" t="n">
-        <v>-38426621.26242303</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5707,19 @@
         <v>67328.9659</v>
       </c>
       <c r="G169" t="n">
-        <v>-38493950.22832303</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5741,19 @@
         <v>83982.8034</v>
       </c>
       <c r="G170" t="n">
-        <v>-38409967.42492303</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5775,19 @@
         <v>5000</v>
       </c>
       <c r="G171" t="n">
-        <v>-38414967.42492303</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5809,19 @@
         <v>121302.4666</v>
       </c>
       <c r="G172" t="n">
-        <v>-38293664.95832302</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5843,19 @@
         <v>18792.7936</v>
       </c>
       <c r="G173" t="n">
-        <v>-38312457.75192302</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5877,19 @@
         <v>11207.1469</v>
       </c>
       <c r="G174" t="n">
-        <v>-38323664.89882302</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5911,19 @@
         <v>2963788</v>
       </c>
       <c r="G175" t="n">
-        <v>-35359876.89882302</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5945,19 @@
         <v>1189875.2507</v>
       </c>
       <c r="G176" t="n">
-        <v>-36549752.14952302</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5979,19 @@
         <v>5000</v>
       </c>
       <c r="G177" t="n">
-        <v>-36554752.14952302</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +6013,19 @@
         <v>5000</v>
       </c>
       <c r="G178" t="n">
-        <v>-36559752.14952302</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +6047,19 @@
         <v>261946.1688</v>
       </c>
       <c r="G179" t="n">
-        <v>-36821698.31832302</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6081,19 @@
         <v>20913.6097</v>
       </c>
       <c r="G180" t="n">
-        <v>-36842611.92802302</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6115,19 @@
         <v>471.3231</v>
       </c>
       <c r="G181" t="n">
-        <v>-36842140.60492302</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6149,19 @@
         <v>10456.8048</v>
       </c>
       <c r="G182" t="n">
-        <v>-36852597.40972301</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6183,19 @@
         <v>712064.4024</v>
       </c>
       <c r="G183" t="n">
-        <v>-36140533.00732301</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6217,19 @@
         <v>265217</v>
       </c>
       <c r="G184" t="n">
-        <v>-36140533.00732301</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6251,19 @@
         <v>2762679</v>
       </c>
       <c r="G185" t="n">
-        <v>-38903212.00732301</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6285,19 @@
         <v>472.6883</v>
       </c>
       <c r="G186" t="n">
-        <v>-38902739.31902301</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6319,19 @@
         <v>1195.9012</v>
       </c>
       <c r="G187" t="n">
-        <v>-38903935.22022301</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6353,19 @@
         <v>1063580</v>
       </c>
       <c r="G188" t="n">
-        <v>-37840355.22022301</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6387,19 @@
         <v>2695466</v>
       </c>
       <c r="G189" t="n">
-        <v>-40535821.22022301</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6421,19 @@
         <v>1063.739</v>
       </c>
       <c r="G190" t="n">
-        <v>-40534757.48122301</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6455,19 @@
         <v>11531.3825</v>
       </c>
       <c r="G191" t="n">
-        <v>-40546288.86372301</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6489,19 @@
         <v>1339.332</v>
       </c>
       <c r="G192" t="n">
-        <v>-40544949.53172301</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6523,19 @@
         <v>247219.0026</v>
       </c>
       <c r="G193" t="n">
-        <v>-40792168.53432301</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6557,19 @@
         <v>738.5771</v>
       </c>
       <c r="G194" t="n">
-        <v>-40791429.95722301</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6591,19 @@
         <v>3572727</v>
       </c>
       <c r="G195" t="n">
-        <v>-44364156.95722301</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6625,19 @@
         <v>643932.7199</v>
       </c>
       <c r="G196" t="n">
-        <v>-43720224.23732301</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6659,19 @@
         <v>121100.4144</v>
       </c>
       <c r="G197" t="n">
-        <v>-43841324.651723</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6693,19 @@
         <v>597.7971</v>
       </c>
       <c r="G198" t="n">
-        <v>-43840726.854623</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6727,19 @@
         <v>3077094</v>
       </c>
       <c r="G199" t="n">
-        <v>-46917820.854623</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6761,19 @@
         <v>717782.7872</v>
       </c>
       <c r="G200" t="n">
-        <v>-47635603.641823</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6795,19 @@
         <v>222628.2495</v>
       </c>
       <c r="G201" t="n">
-        <v>-47858231.891323</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6829,19 @@
         <v>287</v>
       </c>
       <c r="G202" t="n">
-        <v>-47858231.891323</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6863,19 @@
         <v>287</v>
       </c>
       <c r="G203" t="n">
-        <v>-47858231.891323</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6897,19 @@
         <v>287</v>
       </c>
       <c r="G204" t="n">
-        <v>-47858231.891323</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6931,19 @@
         <v>287</v>
       </c>
       <c r="G205" t="n">
-        <v>-47858518.891323</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6965,19 @@
         <v>107072.9986</v>
       </c>
       <c r="G206" t="n">
-        <v>-47965591.889923</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6999,19 @@
         <v>700</v>
       </c>
       <c r="G207" t="n">
-        <v>-47966291.889923</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +7033,19 @@
         <v>1158.2026</v>
       </c>
       <c r="G208" t="n">
-        <v>-47965133.687323</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +7067,19 @@
         <v>286.205</v>
       </c>
       <c r="G209" t="n">
-        <v>-47965419.89232299</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,24 +7101,19 @@
         <v>650955.1742</v>
       </c>
       <c r="G210" t="n">
-        <v>-47314464.718123</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7351,22 +7135,19 @@
         <v>2837421.2859</v>
       </c>
       <c r="G211" t="n">
-        <v>-50151886.00402299</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7388,22 +7169,19 @@
         <v>981.2258</v>
       </c>
       <c r="G212" t="n">
-        <v>-50150904.77822299</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7425,22 +7203,19 @@
         <v>6602.5405</v>
       </c>
       <c r="G213" t="n">
-        <v>-50144302.23772299</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7462,22 +7237,19 @@
         <v>6299.046</v>
       </c>
       <c r="G214" t="n">
-        <v>-50150601.28372299</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7499,22 +7271,19 @@
         <v>1899.812</v>
       </c>
       <c r="G215" t="n">
-        <v>-50148701.47172299</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7536,22 +7305,19 @@
         <v>657057</v>
       </c>
       <c r="G216" t="n">
-        <v>-50805758.47172299</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7573,22 +7339,19 @@
         <v>2756999</v>
       </c>
       <c r="G217" t="n">
-        <v>-53562757.47172299</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7610,22 +7373,19 @@
         <v>538.6268</v>
       </c>
       <c r="G218" t="n">
-        <v>-53562218.84492299</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7647,22 +7407,19 @@
         <v>601582.3205</v>
       </c>
       <c r="G219" t="n">
-        <v>-54163801.16542299</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7684,22 +7441,19 @@
         <v>2902648</v>
       </c>
       <c r="G220" t="n">
-        <v>-54163801.16542299</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7721,22 +7475,19 @@
         <v>1386.6705</v>
       </c>
       <c r="G221" t="n">
-        <v>-54162414.49492299</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7758,22 +7509,19 @@
         <v>200000</v>
       </c>
       <c r="G222" t="n">
-        <v>-54362414.49492299</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7795,22 +7543,19 @@
         <v>385.3062</v>
       </c>
       <c r="G223" t="n">
-        <v>-54362029.18872299</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
